--- a/CCDTemplate/DB and Documents/templateQuestion and Option.xlsx
+++ b/CCDTemplate/DB and Documents/templateQuestion and Option.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="197">
   <si>
     <t>SLNo</t>
   </si>
@@ -427,13 +427,220 @@
   </si>
   <si>
     <t>q7_4date</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>frmnumeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.GB ev”Pv‡`i g‡a¨ KZRb †g‡q   Avcbvi mv‡_ emevm Ki‡Q? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.How many of these girls (ages 5-12 years) currently live with you? </t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>frmnumerictwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.`y‡Uv msL¨v BbccyU w`b </t>
+  </si>
+  <si>
+    <t>9. Give two numbers as input</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>1.ZLb Mf©aviY †P‡qwQ‡jb</t>
+  </si>
+  <si>
+    <t>1.BECOME PREGNANT THEN</t>
+  </si>
+  <si>
+    <t>2.†`ix Ki‡Z †P‡qwQ‡jb</t>
+  </si>
+  <si>
+    <t>2.WAIT UNTIL LATER</t>
+  </si>
+  <si>
+    <t>3.ev”Pv wb‡Z Pvb wb</t>
+  </si>
+  <si>
+    <t>3.NOT WANT CHILDREN</t>
+  </si>
+  <si>
+    <t>4.‡KvbUv‡ZB AvcwË wQj bv</t>
+  </si>
+  <si>
+    <t>4.NOT MIND EITHER WAY</t>
+  </si>
+  <si>
+    <t>99.Ab¨vb¨</t>
+  </si>
+  <si>
+    <t>99.OTHER</t>
+  </si>
+  <si>
+    <t>q11</t>
+  </si>
+  <si>
+    <t>q10Other</t>
+  </si>
+  <si>
+    <t>frmtext</t>
+  </si>
+  <si>
+    <t>10.Avcwb hLb GB ev”Pv (ev”Pvi bvg) †K Mf©aviY Ki‡jb ZLb wK Avcbvi ¯^vgx †P‡qwQ‡jb †h Avcwb Mf©eZx ‡nvb A_ev wZwb Av‡iv †`wi Ki‡Z ‡P‡qwQ‡jb A_ev wZwb wK Avi †Kv‡bv ev”Pv wb‡Z Pvb wb? bvwK ‡KvbUv‡ZB Zvi AvcwË wQj bv?</t>
+  </si>
+  <si>
+    <t>10.At the time you became pregnant with this child (NAME), did your husband/partner want you to become pregnant then, did he want to wait until later, did he want no (more) children at all, or did he not mind either way?</t>
+  </si>
+  <si>
+    <t>11.MÖv‡gi/GjvKvi bvg</t>
+  </si>
+  <si>
+    <t>11.COMMUNITY/VILLAGE/NEIGHBOURHOOD</t>
+  </si>
+  <si>
+    <t>q12</t>
+  </si>
+  <si>
+    <t>frmtime</t>
+  </si>
+  <si>
+    <t>12.mgq</t>
+  </si>
+  <si>
+    <t>12.Time</t>
+  </si>
+  <si>
+    <t>q13</t>
+  </si>
+  <si>
+    <t>frmyeartomin</t>
+  </si>
+  <si>
+    <t>13. eQi, gvm, w`b</t>
+  </si>
+  <si>
+    <t>13. Year, Month, Day</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>frmmultiplecheckcombotwo</t>
+  </si>
+  <si>
+    <t>14. MZ mvZ w`‡b Avcbvi wkï [bvg] Kqw`b GB Lvevi †L‡q‡Q [ ZvwjKvi Lvevi]? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb )</t>
+  </si>
+  <si>
+    <t>14.How many days in the last 7 days did [NAME] have [ITEM FROM LIST]?</t>
+  </si>
+  <si>
+    <t>Avjyy, wgwó Avjyy A_ev Ab¨vb¨ †h †Kvb mv`v is Gi Avjy RvZxq Lv`¨?</t>
+  </si>
+  <si>
+    <t>wgwó Kzgov, MvRi?</t>
+  </si>
+  <si>
+    <t>wLPzox ,fvZ,iywU?</t>
+  </si>
+  <si>
+    <t>Potato, sweet potatoes or any other white colored root or tuber?</t>
+  </si>
+  <si>
+    <t>Pumpkin, carrots?</t>
+  </si>
+  <si>
+    <t>Khichuri, rice, bread?</t>
+  </si>
+  <si>
+    <t>q14_1</t>
+  </si>
+  <si>
+    <t>q14_2</t>
+  </si>
+  <si>
+    <t>q14_3</t>
+  </si>
+  <si>
+    <t>Lvevi †L‡q‡Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">†L‡q‡Q,wKš‘ Kqw`b †L‡q‡Q Zv Rv‡bbv </t>
+  </si>
+  <si>
+    <r>
+      <t>†L‡q‡Q wK Lvqwb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="SutonnyMJ"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SutonnyMJ"/>
+      </rPr>
+      <t>Rv‡bbv</t>
+    </r>
+  </si>
+  <si>
+    <t>Lvqwb</t>
+  </si>
+  <si>
+    <t>Yes , Eaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eaten, don’t know how many days </t>
+  </si>
+  <si>
+    <t>Don’t know if eaten or not</t>
+  </si>
+  <si>
+    <t>No, not eaten</t>
+  </si>
+  <si>
+    <t>q14_Options</t>
+  </si>
+  <si>
+    <t>q15</t>
+  </si>
+  <si>
+    <t>gpsdatacollection</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>q16</t>
+  </si>
+  <si>
+    <t>frmcamera</t>
+  </si>
+  <si>
+    <t>Qwe Zzjyb</t>
+  </si>
+  <si>
+    <t>Take Photo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +733,19 @@
       <name val="Arial"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="SutonnyMJ"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SutonnyMJ"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="SutonnyMJ"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -571,7 +791,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="460">
+  <cellStyleXfs count="493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1032,8 +1252,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1114,9 +1367,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1127,10 +1377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1138,15 +1384,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1159,33 +1427,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="473" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="479" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="479" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="485" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="480" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="475" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="460">
+  <cellStyles count="493">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="30"/>
     <cellStyle name="Normal 10 2" xfId="241"/>
     <cellStyle name="Normal 10 3" xfId="282"/>
     <cellStyle name="Normal 11" xfId="131"/>
+    <cellStyle name="Normal 11 2" xfId="482"/>
+    <cellStyle name="Normal 11 3" xfId="476"/>
+    <cellStyle name="Normal 11 4" xfId="484"/>
+    <cellStyle name="Normal 11 5" xfId="478"/>
+    <cellStyle name="Normal 11 6" xfId="481"/>
     <cellStyle name="Normal 12" xfId="18"/>
     <cellStyle name="Normal 13" xfId="20"/>
     <cellStyle name="Normal 14" xfId="134"/>
@@ -1257,10 +1581,18 @@
     <cellStyle name="Normal 15 69" xfId="417"/>
     <cellStyle name="Normal 15 7" xfId="310"/>
     <cellStyle name="Normal 15 70" xfId="412"/>
+    <cellStyle name="Normal 15 71" xfId="465"/>
+    <cellStyle name="Normal 15 72" xfId="466"/>
+    <cellStyle name="Normal 15 73" xfId="470"/>
+    <cellStyle name="Normal 15 74" xfId="469"/>
+    <cellStyle name="Normal 15 75" xfId="471"/>
+    <cellStyle name="Normal 15 76" xfId="467"/>
     <cellStyle name="Normal 15 8" xfId="328"/>
     <cellStyle name="Normal 15 9" xfId="329"/>
     <cellStyle name="Normal 16" xfId="203"/>
+    <cellStyle name="Normal 17" xfId="473"/>
     <cellStyle name="Normal 18" xfId="146"/>
+    <cellStyle name="Normal 19" xfId="479"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 2 2 10" xfId="205"/>
@@ -1324,6 +1656,13 @@
     <cellStyle name="Normal 22 11" xfId="349"/>
     <cellStyle name="Normal 22 110" xfId="458"/>
     <cellStyle name="Normal 22 111" xfId="459"/>
+    <cellStyle name="Normal 22 112" xfId="461"/>
+    <cellStyle name="Normal 22 113" xfId="460"/>
+    <cellStyle name="Normal 22 114" xfId="462"/>
+    <cellStyle name="Normal 22 115" xfId="464"/>
+    <cellStyle name="Normal 22 116" xfId="472"/>
+    <cellStyle name="Normal 22 117" xfId="468"/>
+    <cellStyle name="Normal 22 118" xfId="463"/>
     <cellStyle name="Normal 22 12" xfId="339"/>
     <cellStyle name="Normal 22 13" xfId="368"/>
     <cellStyle name="Normal 22 14" xfId="382"/>
@@ -1420,6 +1759,9 @@
     <cellStyle name="Normal 22 97" xfId="433"/>
     <cellStyle name="Normal 22 98" xfId="450"/>
     <cellStyle name="Normal 22 99" xfId="444"/>
+    <cellStyle name="Normal 23" xfId="485"/>
+    <cellStyle name="Normal 24" xfId="480"/>
+    <cellStyle name="Normal 25" xfId="475"/>
     <cellStyle name="Normal 3" xfId="127"/>
     <cellStyle name="Normal 3 10" xfId="21"/>
     <cellStyle name="Normal 3 11" xfId="23"/>
@@ -1569,6 +1911,11 @@
     <cellStyle name="Normal 5 4 2 2" xfId="260"/>
     <cellStyle name="Normal 5 4 3" xfId="243"/>
     <cellStyle name="Normal 5 4 4" xfId="169"/>
+    <cellStyle name="Normal 5 4 5" xfId="483"/>
+    <cellStyle name="Normal 5 4 6" xfId="474"/>
+    <cellStyle name="Normal 5 4 7" xfId="486"/>
+    <cellStyle name="Normal 5 4 8" xfId="488"/>
+    <cellStyle name="Normal 5 4 9" xfId="490"/>
     <cellStyle name="Normal 5 5" xfId="51"/>
     <cellStyle name="Normal 5 5 2" xfId="160"/>
     <cellStyle name="Normal 5 5 2 2" xfId="261"/>
@@ -1616,6 +1963,11 @@
     <cellStyle name="Normal 7 12" xfId="84"/>
     <cellStyle name="Normal 7 13" xfId="91"/>
     <cellStyle name="Normal 7 14" xfId="98"/>
+    <cellStyle name="Normal 7 15" xfId="477"/>
+    <cellStyle name="Normal 7 16" xfId="487"/>
+    <cellStyle name="Normal 7 17" xfId="489"/>
+    <cellStyle name="Normal 7 18" xfId="491"/>
+    <cellStyle name="Normal 7 19" xfId="492"/>
     <cellStyle name="Normal 7 2" xfId="34"/>
     <cellStyle name="Normal 7 3" xfId="50"/>
     <cellStyle name="Normal 7 4" xfId="24"/>
@@ -1934,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK466"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1943,12 +2295,12 @@
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="15.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="49" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="20" width="13.140625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="84.42578125" customWidth="1"/>
+    <col min="22" max="22" width="25" customWidth="1"/>
     <col min="28" max="28" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1962,10 +2314,10 @@
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="49" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2120,10 +2472,10 @@
       <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="49" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -2156,13 +2508,13 @@
       <c r="C3" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>107</v>
       </c>
       <c r="G3" s="25"/>
@@ -2178,89 +2530,89 @@
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47" t="str">
-        <f t="shared" ref="V3:V6" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
+      <c r="U3" s="61"/>
+      <c r="V3" s="68" t="str">
+        <f t="shared" ref="V3:V16" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('2', 'q3_4','frmcombobox', 'tblMainQues','3-4.mv¶vrKvi MÖnYKvix iAvBwW-bvg','3-4.ID nad Name of MT/FRA/FRO','','q5','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
-    <row r="4" spans="1:115" s="32" customFormat="1" ht="30.75">
-      <c r="A4" s="38">
+    <row r="4" spans="1:115" s="31" customFormat="1" ht="30.75">
+      <c r="A4" s="69">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="47" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47" t="str">
+      <c r="U4" s="61"/>
+      <c r="V4" s="68" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'q5','frmdate', 'tblMainQues','5.mv¶vrKvi MÖn‡Yi ZvwiL','5.Date of Data Collection','','q6','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="5" spans="1:115" s="17" customFormat="1" ht="141.75">
-      <c r="A5" s="38">
+      <c r="A5" s="69">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>112</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="40" t="s">
         <v>123</v>
       </c>
       <c r="I5" s="16"/>
@@ -2272,40 +2624,42 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47" t="str">
+      <c r="U5" s="61"/>
+      <c r="V5" s="68" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('4', 'q6','frmmultiplecheckcombo', 'tblMainQues','5.  †Kvb ai‡bi Mªy‡c A_ev ms¯’vq Avcwb AskMÖnb K‡ib?cÖvß mKj DËi wPwýZ Kiæb `j ev msMV‡bi aib ey‡S †bIqvi Rb¨ cÖ‡qvR‡b †cÖve Kiæb | KZ Nb Nb Avcwb AskMÖnb K‡ib?  `vMvwš^Z cÖkœ¸†jv wRÁvmv Kiæb|','5.MARK ALL MENTIONED PROBE IF NECESSARY TO IDENTIFY TYPE OF GROUP.  How often do you attend?(ASK ONLY FOR EACH MARKED)','','q7','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
-    <row r="6" spans="1:115" ht="105">
-      <c r="A6"/>
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:115" ht="94.5">
+      <c r="A6" s="69">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>106</v>
+      <c r="H6" s="50" t="s">
+        <v>134</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -2316,29 +2670,43 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="47" t="s">
+      <c r="R6" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="S6" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="47" t="s">
+      <c r="T6" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47" t="str">
+      <c r="U6" s="61"/>
+      <c r="V6" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('', 'q7','frmmultiplechoice', 'tblMainQues','7.GB ev”Pv (ev”Pvi bvg) hLb M‡f©/†c‡U wQj, ZLb Mf©Kvjxb †gwW‡Kj †PKAv‡ci Rb¨ Avcwb Kv‡K †`wL‡qwQ‡jb? (DËi nu¨v n‡j) Kv‡K †`wL‡qwQ‡jb?','7.When you were pregnant with this child (NAME), did you see anyone for an antenatal check?IF YES: Whom did you see?Anyone else?','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:115" ht="15">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" s="46"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="H7"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'q7','frmmultiplechoice', 'tblMainQues','7.GB ev”Pv (ev”Pvi bvg) hLb M‡f©/†c‡U wQj, ZLb Mf©Kvjxb †gwW‡Kj †PKAv‡ci Rb¨ Avcwb Kv‡K †`wL‡qwQ‡jb? (DËi nu¨v n‡j) Kv‡K †`wL‡qwQ‡jb?','7.When you were pregnant with this child (NAME), did you see anyone for an antenatal check?IF YES: Whom did you see?Anyone else?','','q8','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:115" ht="47.25">
+      <c r="A7" s="69">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>138</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -2348,20 +2716,43 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-    </row>
-    <row r="8" spans="1:115" ht="15">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8" s="46"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="H8"/>
+      <c r="R7" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="61"/>
+      <c r="V7" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'q8','frmnumeric', 'tblMainQues','8.GB ev”Pv‡`i g‡a¨ KZRb †g‡q   Avcbvi mv‡_ emevm Ki‡Q? ','8.How many of these girls (ages 5-12 years) currently live with you? ','','q9','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:115" ht="30">
+      <c r="A8" s="69">
+        <v>7</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>142</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2371,18 +2762,43 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:115" ht="15">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" s="46"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="H9"/>
+      <c r="R8" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="61"/>
+      <c r="V8" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'q9','frmnumerictwo', 'tblMainQues','9.`y‡Uv msL¨v BbccyU w`b ','9. Give two numbers as input','','q10','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:115" ht="150">
+      <c r="A9" s="69">
+        <v>8</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>153</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -2392,18 +2808,43 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
+      <c r="R9" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'q10','frmsinglechoice', 'tblMainQues','10.Avcwb hLb GB ev”Pv (ev”Pvi bvg) †K Mf©aviY Ki‡jb ZLb wK Avcbvi ¯^vgx †P‡qwQ‡jb †h Avcwb Mf©eZx ‡nvb A_ev wZwb Av‡iv †`wi Ki‡Z ‡P‡qwQ‡jb A_ev wZwb wK Avi †Kv‡bv ev”Pv wb‡Z Pvb wb? bvwK ‡KvbUv‡ZB Zvi AvcwË wQj bv?','10.At the time you became pregnant with this child (NAME), did your husband/partner want you to become pregnant then, did he want to wait until later, did he want no (more) children at all, or did he not mind either way?','','q11','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
     </row>
     <row r="10" spans="1:115" ht="15">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10" s="46"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10"/>
+      <c r="A10" s="69">
+        <v>9</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>153</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -2413,18 +2854,43 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:115" ht="15">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" s="46"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11"/>
+      <c r="R10" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="61"/>
+      <c r="V10" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'q10Other','frmtext', 'tblMainQues','99.Ab¨vb¨','99.OTHER','','q11','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:115" ht="30">
+      <c r="A11" s="69">
+        <v>10</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>160</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -2434,18 +2900,43 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-    </row>
-    <row r="12" spans="1:115" ht="15">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12" s="46"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="H12"/>
+      <c r="R11" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'q11','frmtext', 'tblMainQues','11.MÖv‡gi/GjvKvi bvg','11.COMMUNITY/VILLAGE/NEIGHBOURHOOD','','q12','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:115">
+      <c r="A12" s="69">
+        <v>11</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>164</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -2455,18 +2946,43 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-    </row>
-    <row r="13" spans="1:115" ht="15">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13" s="46"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="H13"/>
+      <c r="R12" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'q12','frmtime', 'tblMainQues','12.mgq','12.Time','','q13','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:115">
+      <c r="A13" s="69">
+        <v>12</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>168</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -2476,18 +2992,43 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-    </row>
-    <row r="14" spans="1:115" ht="15">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14" s="46"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="H14"/>
+      <c r="R13" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'q13','frmyeartomin', 'tblMainQues','13. eQi, gvm, w`b','13. Year, Month, Day','','q14','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:115" ht="136.5">
+      <c r="A14" s="69">
+        <v>13</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>190</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -2497,18 +3038,41 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-    </row>
-    <row r="15" spans="1:115" ht="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15" s="46"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="H15"/>
+      <c r="R14" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q14','frmmultiplecheckcombotwo', 'tblMainQues','14. MZ mvZ w`‡b Avcbvi wkï [bvg] Kqw`b GB Lvevi †L‡q‡Q [ ZvwjKvi Lvevi]? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb )','14.How many days in the last 7 days did [NAME] have [ITEM FROM LIST]?','','q15','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:115">
+      <c r="A15" s="69">
+        <v>14</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>193</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -2518,18 +3082,43 @@
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-    </row>
-    <row r="16" spans="1:115" ht="15">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" s="46"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="H16"/>
+      <c r="R15" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q15','gpsdatacollection', 'tblMainQues','','Location','','q16','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:115">
+      <c r="A16" s="69">
+        <v>15</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>106</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -2539,16 +3128,27 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-    </row>
-    <row r="17" spans="1:20" ht="15">
+      <c r="R16" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q16','frmcamera', 'tblMainQues','Qwe Zzjyb','Take Photo','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="46"/>
-      <c r="E17"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="52"/>
       <c r="F17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -2564,12 +3164,12 @@
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="1:20" ht="15">
+    <row r="18" spans="1:20">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="46"/>
-      <c r="E18"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="52"/>
       <c r="F18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -2585,12 +3185,12 @@
       <c r="S18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" ht="15">
+    <row r="19" spans="1:20">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="46"/>
-      <c r="E19"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="52"/>
       <c r="F19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -2606,12 +3206,12 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" ht="15">
+    <row r="20" spans="1:20">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="46"/>
-      <c r="E20"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="52"/>
       <c r="F20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -2627,12 +3227,12 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" ht="15">
+    <row r="21" spans="1:20">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="46"/>
-      <c r="E21"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="52"/>
       <c r="F21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -2648,12 +3248,12 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" ht="15">
+    <row r="22" spans="1:20">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="46"/>
-      <c r="E22"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="52"/>
       <c r="F22"/>
       <c r="H22"/>
       <c r="I22"/>
@@ -2669,12 +3269,12 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="1:20" ht="15">
+    <row r="23" spans="1:20">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="46"/>
-      <c r="E23"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="52"/>
       <c r="F23"/>
       <c r="H23"/>
       <c r="I23"/>
@@ -2690,12 +3290,12 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" ht="15">
+    <row r="24" spans="1:20">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="46"/>
-      <c r="E24"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="52"/>
       <c r="F24"/>
       <c r="H24"/>
       <c r="I24"/>
@@ -2711,12 +3311,12 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" ht="15">
+    <row r="25" spans="1:20">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="46"/>
-      <c r="E25"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="52"/>
       <c r="F25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -2732,12 +3332,12 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" ht="15">
+    <row r="26" spans="1:20">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="46"/>
-      <c r="E26"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="52"/>
       <c r="F26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -2753,12 +3353,12 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" ht="15">
+    <row r="27" spans="1:20">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="46"/>
-      <c r="E27"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="52"/>
       <c r="F27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -2774,12 +3374,12 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" ht="15">
+    <row r="28" spans="1:20">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="46"/>
-      <c r="E28"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="52"/>
       <c r="F28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -2795,12 +3395,12 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" ht="15">
+    <row r="29" spans="1:20">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="46"/>
-      <c r="E29"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="52"/>
       <c r="F29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -2816,12 +3416,12 @@
       <c r="S29"/>
       <c r="T29"/>
     </row>
-    <row r="30" spans="1:20" ht="15">
+    <row r="30" spans="1:20">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="46"/>
-      <c r="E30"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="52"/>
       <c r="F30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -2837,12 +3437,12 @@
       <c r="S30"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" ht="15">
+    <row r="31" spans="1:20">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="46"/>
-      <c r="E31"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="52"/>
       <c r="F31"/>
       <c r="H31"/>
       <c r="I31"/>
@@ -2858,12 +3458,12 @@
       <c r="S31"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:20" ht="15">
+    <row r="32" spans="1:20">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="46"/>
-      <c r="E32"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="52"/>
       <c r="F32"/>
       <c r="H32"/>
       <c r="I32"/>
@@ -2879,12 +3479,12 @@
       <c r="S32"/>
       <c r="T32"/>
     </row>
-    <row r="33" spans="1:20" ht="15">
+    <row r="33" spans="1:20">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33" s="46"/>
-      <c r="E33"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="52"/>
       <c r="F33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -2900,12 +3500,12 @@
       <c r="S33"/>
       <c r="T33"/>
     </row>
-    <row r="34" spans="1:20" ht="15">
+    <row r="34" spans="1:20">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34" s="46"/>
-      <c r="E34"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="52"/>
       <c r="F34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -2921,12 +3521,12 @@
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="1:20" ht="15">
+    <row r="35" spans="1:20">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35" s="46"/>
-      <c r="E35"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="52"/>
       <c r="F35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -2942,12 +3542,12 @@
       <c r="S35"/>
       <c r="T35"/>
     </row>
-    <row r="36" spans="1:20" ht="15">
+    <row r="36" spans="1:20">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36" s="46"/>
-      <c r="E36"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="52"/>
       <c r="F36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -2963,12 +3563,12 @@
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:20" ht="15">
+    <row r="37" spans="1:20">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="46"/>
-      <c r="E37"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="52"/>
       <c r="F37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -2984,12 +3584,12 @@
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:20" ht="15">
+    <row r="38" spans="1:20">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="46"/>
-      <c r="E38"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="52"/>
       <c r="F38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -3005,12 +3605,12 @@
       <c r="S38"/>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" ht="15">
+    <row r="39" spans="1:20">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39" s="46"/>
-      <c r="E39"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="52"/>
       <c r="F39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -3026,12 +3626,12 @@
       <c r="S39"/>
       <c r="T39"/>
     </row>
-    <row r="40" spans="1:20" ht="15">
+    <row r="40" spans="1:20">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40" s="46"/>
-      <c r="E40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="52"/>
       <c r="F40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -3047,12 +3647,12 @@
       <c r="S40"/>
       <c r="T40"/>
     </row>
-    <row r="41" spans="1:20" ht="15">
+    <row r="41" spans="1:20">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-      <c r="D41" s="46"/>
-      <c r="E41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="52"/>
       <c r="F41"/>
       <c r="H41"/>
       <c r="I41"/>
@@ -3068,12 +3668,12 @@
       <c r="S41"/>
       <c r="T41"/>
     </row>
-    <row r="42" spans="1:20" ht="15">
+    <row r="42" spans="1:20">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="46"/>
-      <c r="E42"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="52"/>
       <c r="F42"/>
       <c r="H42"/>
       <c r="I42"/>
@@ -3089,12 +3689,12 @@
       <c r="S42"/>
       <c r="T42"/>
     </row>
-    <row r="43" spans="1:20" ht="15">
+    <row r="43" spans="1:20">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="46"/>
-      <c r="E43"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="52"/>
       <c r="F43"/>
       <c r="H43"/>
       <c r="I43"/>
@@ -3110,12 +3710,12 @@
       <c r="S43"/>
       <c r="T43"/>
     </row>
-    <row r="44" spans="1:20" ht="15">
+    <row r="44" spans="1:20">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44" s="46"/>
-      <c r="E44"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="52"/>
       <c r="F44"/>
       <c r="H44"/>
       <c r="I44"/>
@@ -3131,12 +3731,12 @@
       <c r="S44"/>
       <c r="T44"/>
     </row>
-    <row r="45" spans="1:20" ht="15">
+    <row r="45" spans="1:20">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="46"/>
-      <c r="E45"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="52"/>
       <c r="F45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -3152,12 +3752,12 @@
       <c r="S45"/>
       <c r="T45"/>
     </row>
-    <row r="46" spans="1:20" ht="15">
+    <row r="46" spans="1:20">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="46"/>
-      <c r="E46"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="52"/>
       <c r="F46"/>
       <c r="H46"/>
       <c r="I46"/>
@@ -3173,12 +3773,12 @@
       <c r="S46"/>
       <c r="T46"/>
     </row>
-    <row r="47" spans="1:20" ht="15">
+    <row r="47" spans="1:20">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="46"/>
-      <c r="E47"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="52"/>
       <c r="F47"/>
       <c r="H47"/>
       <c r="I47"/>
@@ -3194,12 +3794,12 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" ht="15">
+    <row r="48" spans="1:20">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="46"/>
-      <c r="E48"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="52"/>
       <c r="F48"/>
       <c r="H48"/>
       <c r="I48"/>
@@ -3215,12 +3815,12 @@
       <c r="S48"/>
       <c r="T48"/>
     </row>
-    <row r="49" spans="1:20" ht="15">
+    <row r="49" spans="1:20">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="46"/>
-      <c r="E49"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="52"/>
       <c r="F49"/>
       <c r="H49"/>
       <c r="I49"/>
@@ -3236,12 +3836,12 @@
       <c r="S49"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" ht="15">
+    <row r="50" spans="1:20">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50" s="46"/>
-      <c r="E50"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="52"/>
       <c r="F50"/>
       <c r="H50"/>
       <c r="I50"/>
@@ -3257,12 +3857,12 @@
       <c r="S50"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" ht="15">
+    <row r="51" spans="1:20">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="46"/>
-      <c r="E51"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="52"/>
       <c r="F51"/>
       <c r="H51"/>
       <c r="I51"/>
@@ -3278,12 +3878,12 @@
       <c r="S51"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" ht="15">
+    <row r="52" spans="1:20">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="46"/>
-      <c r="E52"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="52"/>
       <c r="F52"/>
       <c r="H52"/>
       <c r="I52"/>
@@ -3299,12 +3899,12 @@
       <c r="S52"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" ht="15">
+    <row r="53" spans="1:20">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="46"/>
-      <c r="E53"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="52"/>
       <c r="F53"/>
       <c r="H53"/>
       <c r="I53"/>
@@ -3320,12 +3920,12 @@
       <c r="S53"/>
       <c r="T53"/>
     </row>
-    <row r="54" spans="1:20" ht="15">
+    <row r="54" spans="1:20">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" s="46"/>
-      <c r="E54"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="52"/>
       <c r="F54"/>
       <c r="H54"/>
       <c r="I54"/>
@@ -3341,12 +3941,12 @@
       <c r="S54"/>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" ht="15">
+    <row r="55" spans="1:20">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
-      <c r="D55" s="46"/>
-      <c r="E55"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="52"/>
       <c r="F55"/>
       <c r="H55"/>
       <c r="I55"/>
@@ -3362,12 +3962,12 @@
       <c r="S55"/>
       <c r="T55"/>
     </row>
-    <row r="56" spans="1:20" ht="15">
+    <row r="56" spans="1:20">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
-      <c r="D56" s="46"/>
-      <c r="E56"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="52"/>
       <c r="F56"/>
       <c r="H56"/>
       <c r="I56"/>
@@ -3383,12 +3983,12 @@
       <c r="S56"/>
       <c r="T56"/>
     </row>
-    <row r="57" spans="1:20" ht="15">
+    <row r="57" spans="1:20">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57" s="46"/>
-      <c r="E57"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="52"/>
       <c r="F57"/>
       <c r="H57"/>
       <c r="I57"/>
@@ -3404,12 +4004,12 @@
       <c r="S57"/>
       <c r="T57"/>
     </row>
-    <row r="58" spans="1:20" ht="15">
+    <row r="58" spans="1:20">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
-      <c r="D58" s="46"/>
-      <c r="E58"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="52"/>
       <c r="F58"/>
       <c r="H58"/>
       <c r="I58"/>
@@ -3425,12 +4025,12 @@
       <c r="S58"/>
       <c r="T58"/>
     </row>
-    <row r="59" spans="1:20" ht="15">
+    <row r="59" spans="1:20">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
-      <c r="D59" s="46"/>
-      <c r="E59"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="52"/>
       <c r="F59"/>
       <c r="H59"/>
       <c r="I59"/>
@@ -3446,12 +4046,12 @@
       <c r="S59"/>
       <c r="T59"/>
     </row>
-    <row r="60" spans="1:20" ht="15">
+    <row r="60" spans="1:20">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60" s="46"/>
-      <c r="E60"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="52"/>
       <c r="F60"/>
       <c r="H60"/>
       <c r="I60"/>
@@ -3467,12 +4067,12 @@
       <c r="S60"/>
       <c r="T60"/>
     </row>
-    <row r="61" spans="1:20" ht="15">
+    <row r="61" spans="1:20">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
-      <c r="D61" s="46"/>
-      <c r="E61"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="52"/>
       <c r="F61"/>
       <c r="H61"/>
       <c r="I61"/>
@@ -3488,12 +4088,12 @@
       <c r="S61"/>
       <c r="T61"/>
     </row>
-    <row r="62" spans="1:20" ht="15">
+    <row r="62" spans="1:20">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
-      <c r="D62" s="46"/>
-      <c r="E62"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="52"/>
       <c r="F62"/>
       <c r="H62"/>
       <c r="I62"/>
@@ -3509,12 +4109,12 @@
       <c r="S62"/>
       <c r="T62"/>
     </row>
-    <row r="63" spans="1:20" ht="15">
+    <row r="63" spans="1:20">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
-      <c r="D63" s="46"/>
-      <c r="E63"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="52"/>
       <c r="F63"/>
       <c r="H63"/>
       <c r="I63"/>
@@ -3530,12 +4130,12 @@
       <c r="S63"/>
       <c r="T63"/>
     </row>
-    <row r="64" spans="1:20" ht="15">
+    <row r="64" spans="1:20">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
-      <c r="D64" s="46"/>
-      <c r="E64"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="52"/>
       <c r="F64"/>
       <c r="H64"/>
       <c r="I64"/>
@@ -3551,12 +4151,12 @@
       <c r="S64"/>
       <c r="T64"/>
     </row>
-    <row r="65" spans="1:20" ht="15">
+    <row r="65" spans="1:20">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
-      <c r="D65" s="46"/>
-      <c r="E65"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="52"/>
       <c r="F65"/>
       <c r="H65"/>
       <c r="I65"/>
@@ -3572,12 +4172,12 @@
       <c r="S65"/>
       <c r="T65"/>
     </row>
-    <row r="66" spans="1:20" ht="15">
+    <row r="66" spans="1:20">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66" s="46"/>
-      <c r="E66"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="52"/>
       <c r="F66"/>
       <c r="H66"/>
       <c r="I66"/>
@@ -3593,12 +4193,12 @@
       <c r="S66"/>
       <c r="T66"/>
     </row>
-    <row r="67" spans="1:20" ht="15">
+    <row r="67" spans="1:20">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="46"/>
-      <c r="E67"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="52"/>
       <c r="F67"/>
       <c r="H67"/>
       <c r="I67"/>
@@ -3614,12 +4214,12 @@
       <c r="S67"/>
       <c r="T67"/>
     </row>
-    <row r="68" spans="1:20" ht="15">
+    <row r="68" spans="1:20">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
-      <c r="D68" s="46"/>
-      <c r="E68"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="52"/>
       <c r="F68"/>
       <c r="H68"/>
       <c r="I68"/>
@@ -3635,12 +4235,12 @@
       <c r="S68"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="1:20" ht="15">
+    <row r="69" spans="1:20">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
-      <c r="D69" s="46"/>
-      <c r="E69"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="52"/>
       <c r="F69"/>
       <c r="H69"/>
       <c r="I69"/>
@@ -3656,12 +4256,12 @@
       <c r="S69"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="1:20" ht="15">
+    <row r="70" spans="1:20">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
-      <c r="D70" s="46"/>
-      <c r="E70"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="52"/>
       <c r="F70"/>
       <c r="H70"/>
       <c r="I70"/>
@@ -3677,12 +4277,12 @@
       <c r="S70"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="1:20" ht="15">
+    <row r="71" spans="1:20">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
-      <c r="D71" s="46"/>
-      <c r="E71"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="52"/>
       <c r="F71"/>
       <c r="H71"/>
       <c r="I71"/>
@@ -3698,12 +4298,12 @@
       <c r="S71"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="1:20" ht="15">
+    <row r="72" spans="1:20">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
-      <c r="D72" s="46"/>
-      <c r="E72"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="52"/>
       <c r="F72"/>
       <c r="H72"/>
       <c r="I72"/>
@@ -3719,12 +4319,12 @@
       <c r="S72"/>
       <c r="T72"/>
     </row>
-    <row r="73" spans="1:20" ht="15">
+    <row r="73" spans="1:20">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
-      <c r="D73" s="46"/>
-      <c r="E73"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="52"/>
       <c r="F73"/>
       <c r="H73"/>
       <c r="I73"/>
@@ -3740,12 +4340,12 @@
       <c r="S73"/>
       <c r="T73"/>
     </row>
-    <row r="74" spans="1:20" ht="15">
+    <row r="74" spans="1:20">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
-      <c r="D74" s="46"/>
-      <c r="E74"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="52"/>
       <c r="F74"/>
       <c r="H74"/>
       <c r="I74"/>
@@ -3761,12 +4361,12 @@
       <c r="S74"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="1:20" ht="15">
+    <row r="75" spans="1:20">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
-      <c r="D75" s="46"/>
-      <c r="E75"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="52"/>
       <c r="F75"/>
       <c r="H75"/>
       <c r="I75"/>
@@ -3782,12 +4382,12 @@
       <c r="S75"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="1:20" ht="15">
+    <row r="76" spans="1:20">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
-      <c r="D76" s="46"/>
-      <c r="E76"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="52"/>
       <c r="F76"/>
       <c r="H76"/>
       <c r="I76"/>
@@ -3803,12 +4403,12 @@
       <c r="S76"/>
       <c r="T76"/>
     </row>
-    <row r="77" spans="1:20" ht="15">
+    <row r="77" spans="1:20">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
-      <c r="D77" s="46"/>
-      <c r="E77"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="52"/>
       <c r="F77"/>
       <c r="H77"/>
       <c r="I77"/>
@@ -3824,12 +4424,12 @@
       <c r="S77"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:20" ht="15">
+    <row r="78" spans="1:20">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
-      <c r="D78" s="46"/>
-      <c r="E78"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="52"/>
       <c r="F78"/>
       <c r="H78"/>
       <c r="I78"/>
@@ -3845,12 +4445,12 @@
       <c r="S78"/>
       <c r="T78"/>
     </row>
-    <row r="79" spans="1:20" ht="15">
+    <row r="79" spans="1:20">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
-      <c r="D79" s="46"/>
-      <c r="E79"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="52"/>
       <c r="F79"/>
       <c r="H79"/>
       <c r="I79"/>
@@ -3866,12 +4466,12 @@
       <c r="S79"/>
       <c r="T79"/>
     </row>
-    <row r="80" spans="1:20" ht="15">
+    <row r="80" spans="1:20">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
-      <c r="D80" s="46"/>
-      <c r="E80"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="52"/>
       <c r="F80"/>
       <c r="H80"/>
       <c r="I80"/>
@@ -3887,12 +4487,12 @@
       <c r="S80"/>
       <c r="T80"/>
     </row>
-    <row r="81" spans="1:20" ht="15">
+    <row r="81" spans="1:20">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
-      <c r="D81" s="46"/>
-      <c r="E81"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="52"/>
       <c r="F81"/>
       <c r="H81"/>
       <c r="I81"/>
@@ -3908,12 +4508,12 @@
       <c r="S81"/>
       <c r="T81"/>
     </row>
-    <row r="82" spans="1:20" ht="15">
+    <row r="82" spans="1:20">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
-      <c r="D82" s="46"/>
-      <c r="E82"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="52"/>
       <c r="F82"/>
       <c r="H82"/>
       <c r="I82"/>
@@ -3929,12 +4529,12 @@
       <c r="S82"/>
       <c r="T82"/>
     </row>
-    <row r="83" spans="1:20" ht="15">
+    <row r="83" spans="1:20">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
-      <c r="D83" s="46"/>
-      <c r="E83"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="52"/>
       <c r="F83"/>
       <c r="H83"/>
       <c r="I83"/>
@@ -3950,12 +4550,12 @@
       <c r="S83"/>
       <c r="T83"/>
     </row>
-    <row r="84" spans="1:20" ht="15">
+    <row r="84" spans="1:20">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="46"/>
-      <c r="E84"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="52"/>
       <c r="F84"/>
       <c r="H84"/>
       <c r="I84"/>
@@ -3971,12 +4571,12 @@
       <c r="S84"/>
       <c r="T84"/>
     </row>
-    <row r="85" spans="1:20" ht="15">
+    <row r="85" spans="1:20">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
-      <c r="D85" s="46"/>
-      <c r="E85"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="52"/>
       <c r="F85"/>
       <c r="H85"/>
       <c r="I85"/>
@@ -3992,12 +4592,12 @@
       <c r="S85"/>
       <c r="T85"/>
     </row>
-    <row r="86" spans="1:20" ht="15">
+    <row r="86" spans="1:20">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
-      <c r="D86" s="46"/>
-      <c r="E86"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="52"/>
       <c r="F86"/>
       <c r="H86"/>
       <c r="I86"/>
@@ -4013,12 +4613,12 @@
       <c r="S86"/>
       <c r="T86"/>
     </row>
-    <row r="87" spans="1:20" ht="15">
+    <row r="87" spans="1:20">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
-      <c r="D87" s="46"/>
-      <c r="E87"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="52"/>
       <c r="F87"/>
       <c r="H87"/>
       <c r="I87"/>
@@ -4034,12 +4634,12 @@
       <c r="S87"/>
       <c r="T87"/>
     </row>
-    <row r="88" spans="1:20" ht="15">
+    <row r="88" spans="1:20">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
-      <c r="D88" s="46"/>
-      <c r="E88"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="52"/>
       <c r="F88"/>
       <c r="H88"/>
       <c r="I88"/>
@@ -4055,12 +4655,12 @@
       <c r="S88"/>
       <c r="T88"/>
     </row>
-    <row r="89" spans="1:20" ht="15">
+    <row r="89" spans="1:20">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
-      <c r="D89" s="46"/>
-      <c r="E89"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="52"/>
       <c r="F89"/>
       <c r="H89"/>
       <c r="I89"/>
@@ -4076,12 +4676,12 @@
       <c r="S89"/>
       <c r="T89"/>
     </row>
-    <row r="90" spans="1:20" ht="15">
+    <row r="90" spans="1:20">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
-      <c r="D90" s="46"/>
-      <c r="E90"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="52"/>
       <c r="F90"/>
       <c r="H90"/>
       <c r="I90"/>
@@ -4097,12 +4697,12 @@
       <c r="S90"/>
       <c r="T90"/>
     </row>
-    <row r="91" spans="1:20" ht="15">
+    <row r="91" spans="1:20">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
-      <c r="D91" s="46"/>
-      <c r="E91"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="52"/>
       <c r="F91"/>
       <c r="H91"/>
       <c r="I91"/>
@@ -4118,12 +4718,12 @@
       <c r="S91"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="1:20" ht="15">
+    <row r="92" spans="1:20">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
-      <c r="D92" s="46"/>
-      <c r="E92"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="52"/>
       <c r="F92"/>
       <c r="H92"/>
       <c r="I92"/>
@@ -4139,12 +4739,12 @@
       <c r="S92"/>
       <c r="T92"/>
     </row>
-    <row r="93" spans="1:20" ht="15">
+    <row r="93" spans="1:20">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
-      <c r="D93" s="46"/>
-      <c r="E93"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="52"/>
       <c r="F93"/>
       <c r="H93"/>
       <c r="I93"/>
@@ -4160,12 +4760,12 @@
       <c r="S93"/>
       <c r="T93"/>
     </row>
-    <row r="94" spans="1:20" ht="15">
+    <row r="94" spans="1:20">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
-      <c r="D94" s="46"/>
-      <c r="E94"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="52"/>
       <c r="F94"/>
       <c r="H94"/>
       <c r="I94"/>
@@ -4181,12 +4781,12 @@
       <c r="S94"/>
       <c r="T94"/>
     </row>
-    <row r="95" spans="1:20" ht="15">
+    <row r="95" spans="1:20">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
-      <c r="D95" s="46"/>
-      <c r="E95"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="52"/>
       <c r="F95"/>
       <c r="H95"/>
       <c r="I95"/>
@@ -4202,12 +4802,12 @@
       <c r="S95"/>
       <c r="T95"/>
     </row>
-    <row r="96" spans="1:20" ht="15">
+    <row r="96" spans="1:20">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
-      <c r="D96" s="46"/>
-      <c r="E96"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="52"/>
       <c r="F96"/>
       <c r="H96"/>
       <c r="I96"/>
@@ -4223,12 +4823,12 @@
       <c r="S96"/>
       <c r="T96"/>
     </row>
-    <row r="97" spans="1:20" ht="15">
+    <row r="97" spans="1:20">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
-      <c r="D97" s="46"/>
-      <c r="E97"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="52"/>
       <c r="F97"/>
       <c r="H97"/>
       <c r="I97"/>
@@ -4244,12 +4844,12 @@
       <c r="S97"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:20" ht="15">
+    <row r="98" spans="1:20">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
-      <c r="D98" s="46"/>
-      <c r="E98"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="52"/>
       <c r="F98"/>
       <c r="H98"/>
       <c r="I98"/>
@@ -4265,12 +4865,12 @@
       <c r="S98"/>
       <c r="T98"/>
     </row>
-    <row r="99" spans="1:20" ht="15">
+    <row r="99" spans="1:20">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
-      <c r="D99" s="46"/>
-      <c r="E99"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="52"/>
       <c r="F99"/>
       <c r="H99"/>
       <c r="I99"/>
@@ -4286,12 +4886,12 @@
       <c r="S99"/>
       <c r="T99"/>
     </row>
-    <row r="100" spans="1:20" ht="15">
+    <row r="100" spans="1:20">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
-      <c r="D100" s="46"/>
-      <c r="E100"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="52"/>
       <c r="F100"/>
       <c r="H100"/>
       <c r="I100"/>
@@ -4307,12 +4907,12 @@
       <c r="S100"/>
       <c r="T100"/>
     </row>
-    <row r="101" spans="1:20" ht="15">
+    <row r="101" spans="1:20">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
-      <c r="D101" s="46"/>
-      <c r="E101"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="52"/>
       <c r="F101"/>
       <c r="H101"/>
       <c r="I101"/>
@@ -4328,12 +4928,12 @@
       <c r="S101"/>
       <c r="T101"/>
     </row>
-    <row r="102" spans="1:20" ht="15">
+    <row r="102" spans="1:20">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
-      <c r="D102" s="46"/>
-      <c r="E102"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="52"/>
       <c r="F102"/>
       <c r="H102"/>
       <c r="I102"/>
@@ -4349,12 +4949,12 @@
       <c r="S102"/>
       <c r="T102"/>
     </row>
-    <row r="103" spans="1:20" ht="15">
+    <row r="103" spans="1:20">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
-      <c r="D103" s="46"/>
-      <c r="E103"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="52"/>
       <c r="F103"/>
       <c r="H103"/>
       <c r="I103"/>
@@ -4370,12 +4970,12 @@
       <c r="S103"/>
       <c r="T103"/>
     </row>
-    <row r="104" spans="1:20" ht="15">
+    <row r="104" spans="1:20">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
-      <c r="D104" s="46"/>
-      <c r="E104"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="52"/>
       <c r="F104"/>
       <c r="H104"/>
       <c r="I104"/>
@@ -4391,12 +4991,12 @@
       <c r="S104"/>
       <c r="T104"/>
     </row>
-    <row r="105" spans="1:20" ht="15">
+    <row r="105" spans="1:20">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
-      <c r="D105" s="46"/>
-      <c r="E105"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="52"/>
       <c r="F105"/>
       <c r="H105"/>
       <c r="I105"/>
@@ -4412,12 +5012,12 @@
       <c r="S105"/>
       <c r="T105"/>
     </row>
-    <row r="106" spans="1:20" ht="15">
+    <row r="106" spans="1:20">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
-      <c r="D106" s="46"/>
-      <c r="E106"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="52"/>
       <c r="F106"/>
       <c r="H106"/>
       <c r="I106"/>
@@ -4433,12 +5033,12 @@
       <c r="S106"/>
       <c r="T106"/>
     </row>
-    <row r="107" spans="1:20" ht="15">
+    <row r="107" spans="1:20">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
-      <c r="D107" s="46"/>
-      <c r="E107"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="52"/>
       <c r="F107"/>
       <c r="H107"/>
       <c r="I107"/>
@@ -4454,12 +5054,12 @@
       <c r="S107"/>
       <c r="T107"/>
     </row>
-    <row r="108" spans="1:20" ht="15">
+    <row r="108" spans="1:20">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
-      <c r="D108" s="46"/>
-      <c r="E108"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="52"/>
       <c r="F108"/>
       <c r="H108"/>
       <c r="I108"/>
@@ -4475,12 +5075,12 @@
       <c r="S108"/>
       <c r="T108"/>
     </row>
-    <row r="109" spans="1:20" ht="15">
+    <row r="109" spans="1:20">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
-      <c r="D109" s="46"/>
-      <c r="E109"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="52"/>
       <c r="F109"/>
       <c r="H109"/>
       <c r="I109"/>
@@ -4496,12 +5096,12 @@
       <c r="S109"/>
       <c r="T109"/>
     </row>
-    <row r="110" spans="1:20" ht="15">
+    <row r="110" spans="1:20">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
-      <c r="D110" s="46"/>
-      <c r="E110"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="52"/>
       <c r="F110"/>
       <c r="H110"/>
       <c r="I110"/>
@@ -4517,12 +5117,12 @@
       <c r="S110"/>
       <c r="T110"/>
     </row>
-    <row r="111" spans="1:20" ht="15">
+    <row r="111" spans="1:20">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
-      <c r="D111" s="46"/>
-      <c r="E111"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="52"/>
       <c r="F111"/>
       <c r="H111"/>
       <c r="I111"/>
@@ -4538,12 +5138,12 @@
       <c r="S111"/>
       <c r="T111"/>
     </row>
-    <row r="112" spans="1:20" ht="15">
+    <row r="112" spans="1:20">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
-      <c r="D112" s="46"/>
-      <c r="E112"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="52"/>
       <c r="F112"/>
       <c r="H112"/>
       <c r="I112"/>
@@ -4559,12 +5159,12 @@
       <c r="S112"/>
       <c r="T112"/>
     </row>
-    <row r="113" spans="1:20" ht="15">
+    <row r="113" spans="1:20">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
-      <c r="D113" s="46"/>
-      <c r="E113"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="52"/>
       <c r="F113"/>
       <c r="H113"/>
       <c r="I113"/>
@@ -4580,12 +5180,12 @@
       <c r="S113"/>
       <c r="T113"/>
     </row>
-    <row r="114" spans="1:20" ht="15">
+    <row r="114" spans="1:20">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
-      <c r="D114" s="46"/>
-      <c r="E114"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="52"/>
       <c r="F114"/>
       <c r="H114"/>
       <c r="I114"/>
@@ -4601,12 +5201,12 @@
       <c r="S114"/>
       <c r="T114"/>
     </row>
-    <row r="115" spans="1:20" ht="15">
+    <row r="115" spans="1:20">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
-      <c r="D115" s="46"/>
-      <c r="E115"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="52"/>
       <c r="F115"/>
       <c r="H115"/>
       <c r="I115"/>
@@ -4622,12 +5222,12 @@
       <c r="S115"/>
       <c r="T115"/>
     </row>
-    <row r="116" spans="1:20" ht="15">
+    <row r="116" spans="1:20">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
-      <c r="D116" s="46"/>
-      <c r="E116"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="52"/>
       <c r="F116"/>
       <c r="H116"/>
       <c r="I116"/>
@@ -4643,12 +5243,12 @@
       <c r="S116"/>
       <c r="T116"/>
     </row>
-    <row r="117" spans="1:20" ht="15">
+    <row r="117" spans="1:20">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
-      <c r="D117" s="46"/>
-      <c r="E117"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="52"/>
       <c r="F117"/>
       <c r="H117"/>
       <c r="I117"/>
@@ -4664,12 +5264,12 @@
       <c r="S117"/>
       <c r="T117"/>
     </row>
-    <row r="118" spans="1:20" ht="15">
+    <row r="118" spans="1:20">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
-      <c r="D118" s="46"/>
-      <c r="E118"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="52"/>
       <c r="F118"/>
       <c r="H118"/>
       <c r="I118"/>
@@ -4685,12 +5285,12 @@
       <c r="S118"/>
       <c r="T118"/>
     </row>
-    <row r="119" spans="1:20" ht="15">
+    <row r="119" spans="1:20">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
-      <c r="D119" s="46"/>
-      <c r="E119"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="52"/>
       <c r="F119"/>
       <c r="H119"/>
       <c r="I119"/>
@@ -4706,12 +5306,12 @@
       <c r="S119"/>
       <c r="T119"/>
     </row>
-    <row r="120" spans="1:20" ht="15">
+    <row r="120" spans="1:20">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
-      <c r="D120" s="46"/>
-      <c r="E120"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="52"/>
       <c r="F120"/>
       <c r="H120"/>
       <c r="I120"/>
@@ -4727,12 +5327,12 @@
       <c r="S120"/>
       <c r="T120"/>
     </row>
-    <row r="121" spans="1:20" ht="15">
+    <row r="121" spans="1:20">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
-      <c r="D121" s="46"/>
-      <c r="E121"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="52"/>
       <c r="F121"/>
       <c r="H121"/>
       <c r="I121"/>
@@ -4748,12 +5348,12 @@
       <c r="S121"/>
       <c r="T121"/>
     </row>
-    <row r="122" spans="1:20" ht="15">
+    <row r="122" spans="1:20">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
-      <c r="D122" s="46"/>
-      <c r="E122"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="52"/>
       <c r="F122"/>
       <c r="H122"/>
       <c r="I122"/>
@@ -4769,12 +5369,12 @@
       <c r="S122"/>
       <c r="T122"/>
     </row>
-    <row r="123" spans="1:20" ht="15">
+    <row r="123" spans="1:20">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
-      <c r="D123" s="46"/>
-      <c r="E123"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="52"/>
       <c r="F123"/>
       <c r="H123"/>
       <c r="I123"/>
@@ -4790,12 +5390,12 @@
       <c r="S123"/>
       <c r="T123"/>
     </row>
-    <row r="124" spans="1:20" ht="15">
+    <row r="124" spans="1:20">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
-      <c r="D124" s="46"/>
-      <c r="E124"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="52"/>
       <c r="F124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -4811,12 +5411,12 @@
       <c r="S124"/>
       <c r="T124"/>
     </row>
-    <row r="125" spans="1:20" ht="15">
+    <row r="125" spans="1:20">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
-      <c r="D125" s="46"/>
-      <c r="E125"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="52"/>
       <c r="F125"/>
       <c r="H125"/>
       <c r="I125"/>
@@ -4832,12 +5432,12 @@
       <c r="S125"/>
       <c r="T125"/>
     </row>
-    <row r="126" spans="1:20" ht="15">
+    <row r="126" spans="1:20">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
-      <c r="D126" s="46"/>
-      <c r="E126"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="52"/>
       <c r="F126"/>
       <c r="H126"/>
       <c r="I126"/>
@@ -4853,12 +5453,12 @@
       <c r="S126"/>
       <c r="T126"/>
     </row>
-    <row r="127" spans="1:20" ht="15">
+    <row r="127" spans="1:20">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
-      <c r="D127" s="46"/>
-      <c r="E127"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="52"/>
       <c r="F127"/>
       <c r="H127"/>
       <c r="I127"/>
@@ -4874,12 +5474,12 @@
       <c r="S127"/>
       <c r="T127"/>
     </row>
-    <row r="128" spans="1:20" ht="15">
+    <row r="128" spans="1:20">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
-      <c r="D128" s="46"/>
-      <c r="E128"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="52"/>
       <c r="F128"/>
       <c r="H128"/>
       <c r="I128"/>
@@ -4895,12 +5495,12 @@
       <c r="S128"/>
       <c r="T128"/>
     </row>
-    <row r="129" spans="1:20" ht="15">
+    <row r="129" spans="1:20">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
-      <c r="D129" s="46"/>
-      <c r="E129"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="52"/>
       <c r="F129"/>
       <c r="H129"/>
       <c r="I129"/>
@@ -4916,12 +5516,12 @@
       <c r="S129"/>
       <c r="T129"/>
     </row>
-    <row r="130" spans="1:20" ht="15">
+    <row r="130" spans="1:20">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
-      <c r="D130" s="46"/>
-      <c r="E130"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="52"/>
       <c r="F130"/>
       <c r="H130"/>
       <c r="I130"/>
@@ -4937,12 +5537,12 @@
       <c r="S130"/>
       <c r="T130"/>
     </row>
-    <row r="131" spans="1:20" ht="15">
+    <row r="131" spans="1:20">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
-      <c r="D131" s="46"/>
-      <c r="E131"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="52"/>
       <c r="F131"/>
       <c r="H131"/>
       <c r="I131"/>
@@ -4958,12 +5558,12 @@
       <c r="S131"/>
       <c r="T131"/>
     </row>
-    <row r="132" spans="1:20" ht="15">
+    <row r="132" spans="1:20">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
-      <c r="D132" s="46"/>
-      <c r="E132"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="52"/>
       <c r="F132"/>
       <c r="H132"/>
       <c r="I132"/>
@@ -4979,12 +5579,12 @@
       <c r="S132"/>
       <c r="T132"/>
     </row>
-    <row r="133" spans="1:20" ht="15">
+    <row r="133" spans="1:20">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
-      <c r="D133" s="46"/>
-      <c r="E133"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="52"/>
       <c r="F133"/>
       <c r="H133"/>
       <c r="I133"/>
@@ -5000,12 +5600,12 @@
       <c r="S133"/>
       <c r="T133"/>
     </row>
-    <row r="134" spans="1:20" ht="15">
+    <row r="134" spans="1:20">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
-      <c r="D134" s="46"/>
-      <c r="E134"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="52"/>
       <c r="F134"/>
       <c r="H134"/>
       <c r="I134"/>
@@ -5021,12 +5621,12 @@
       <c r="S134"/>
       <c r="T134"/>
     </row>
-    <row r="135" spans="1:20" ht="15">
+    <row r="135" spans="1:20">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
-      <c r="D135" s="46"/>
-      <c r="E135"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="52"/>
       <c r="F135"/>
       <c r="H135"/>
       <c r="I135"/>
@@ -5042,12 +5642,12 @@
       <c r="S135"/>
       <c r="T135"/>
     </row>
-    <row r="136" spans="1:20" ht="15">
+    <row r="136" spans="1:20">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
-      <c r="D136" s="46"/>
-      <c r="E136"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="52"/>
       <c r="F136"/>
       <c r="H136"/>
       <c r="I136"/>
@@ -5063,12 +5663,12 @@
       <c r="S136"/>
       <c r="T136"/>
     </row>
-    <row r="137" spans="1:20" ht="15">
+    <row r="137" spans="1:20">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
-      <c r="D137" s="46"/>
-      <c r="E137"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="52"/>
       <c r="F137"/>
       <c r="H137"/>
       <c r="I137"/>
@@ -5084,12 +5684,12 @@
       <c r="S137"/>
       <c r="T137"/>
     </row>
-    <row r="138" spans="1:20" ht="15">
+    <row r="138" spans="1:20">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
-      <c r="D138" s="46"/>
-      <c r="E138"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="52"/>
       <c r="F138"/>
       <c r="H138"/>
       <c r="I138"/>
@@ -5105,12 +5705,12 @@
       <c r="S138"/>
       <c r="T138"/>
     </row>
-    <row r="139" spans="1:20" ht="15">
+    <row r="139" spans="1:20">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
-      <c r="D139" s="46"/>
-      <c r="E139"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="52"/>
       <c r="F139"/>
       <c r="H139"/>
       <c r="I139"/>
@@ -5126,12 +5726,12 @@
       <c r="S139"/>
       <c r="T139"/>
     </row>
-    <row r="140" spans="1:20" ht="15">
+    <row r="140" spans="1:20">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
-      <c r="D140" s="46"/>
-      <c r="E140"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="52"/>
       <c r="F140"/>
       <c r="H140"/>
       <c r="I140"/>
@@ -5147,12 +5747,12 @@
       <c r="S140"/>
       <c r="T140"/>
     </row>
-    <row r="141" spans="1:20" ht="15">
+    <row r="141" spans="1:20">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
-      <c r="D141" s="46"/>
-      <c r="E141"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="52"/>
       <c r="F141"/>
       <c r="H141"/>
       <c r="I141"/>
@@ -5168,12 +5768,12 @@
       <c r="S141"/>
       <c r="T141"/>
     </row>
-    <row r="142" spans="1:20" ht="15">
+    <row r="142" spans="1:20">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
-      <c r="D142" s="46"/>
-      <c r="E142"/>
+      <c r="D142" s="41"/>
+      <c r="E142" s="52"/>
       <c r="F142"/>
       <c r="H142"/>
       <c r="I142"/>
@@ -5189,12 +5789,12 @@
       <c r="S142"/>
       <c r="T142"/>
     </row>
-    <row r="143" spans="1:20" ht="15">
+    <row r="143" spans="1:20">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
-      <c r="D143" s="46"/>
-      <c r="E143"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="52"/>
       <c r="F143"/>
       <c r="H143"/>
       <c r="I143"/>
@@ -5210,12 +5810,12 @@
       <c r="S143"/>
       <c r="T143"/>
     </row>
-    <row r="144" spans="1:20" ht="15">
+    <row r="144" spans="1:20">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
-      <c r="D144" s="46"/>
-      <c r="E144"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="52"/>
       <c r="F144"/>
       <c r="H144"/>
       <c r="I144"/>
@@ -5231,12 +5831,12 @@
       <c r="S144"/>
       <c r="T144"/>
     </row>
-    <row r="145" spans="1:20" ht="15">
+    <row r="145" spans="1:20">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
-      <c r="D145" s="46"/>
-      <c r="E145"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="52"/>
       <c r="F145"/>
       <c r="H145"/>
       <c r="I145"/>
@@ -5252,12 +5852,12 @@
       <c r="S145"/>
       <c r="T145"/>
     </row>
-    <row r="146" spans="1:20" ht="15">
+    <row r="146" spans="1:20">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
-      <c r="D146" s="46"/>
-      <c r="E146"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="52"/>
       <c r="F146"/>
       <c r="H146"/>
       <c r="I146"/>
@@ -5273,12 +5873,12 @@
       <c r="S146"/>
       <c r="T146"/>
     </row>
-    <row r="147" spans="1:20" ht="15">
+    <row r="147" spans="1:20">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
-      <c r="D147" s="46"/>
-      <c r="E147"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="52"/>
       <c r="F147"/>
       <c r="H147"/>
       <c r="I147"/>
@@ -5294,12 +5894,12 @@
       <c r="S147"/>
       <c r="T147"/>
     </row>
-    <row r="148" spans="1:20" ht="15">
+    <row r="148" spans="1:20">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
-      <c r="D148" s="46"/>
-      <c r="E148"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="52"/>
       <c r="F148"/>
       <c r="H148"/>
       <c r="I148"/>
@@ -5315,12 +5915,12 @@
       <c r="S148"/>
       <c r="T148"/>
     </row>
-    <row r="149" spans="1:20" ht="15">
+    <row r="149" spans="1:20">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
-      <c r="D149" s="46"/>
-      <c r="E149"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="52"/>
       <c r="F149"/>
       <c r="H149"/>
       <c r="I149"/>
@@ -5336,12 +5936,12 @@
       <c r="S149"/>
       <c r="T149"/>
     </row>
-    <row r="150" spans="1:20" ht="15">
+    <row r="150" spans="1:20">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
-      <c r="D150" s="46"/>
-      <c r="E150"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="52"/>
       <c r="F150"/>
       <c r="H150"/>
       <c r="I150"/>
@@ -5357,12 +5957,12 @@
       <c r="S150"/>
       <c r="T150"/>
     </row>
-    <row r="151" spans="1:20" ht="15">
+    <row r="151" spans="1:20">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
-      <c r="D151" s="46"/>
-      <c r="E151"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="52"/>
       <c r="F151"/>
       <c r="H151"/>
       <c r="I151"/>
@@ -5378,12 +5978,12 @@
       <c r="S151"/>
       <c r="T151"/>
     </row>
-    <row r="152" spans="1:20" ht="15">
+    <row r="152" spans="1:20">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
-      <c r="D152" s="46"/>
-      <c r="E152"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="52"/>
       <c r="F152"/>
       <c r="H152"/>
       <c r="I152"/>
@@ -5399,12 +5999,12 @@
       <c r="S152"/>
       <c r="T152"/>
     </row>
-    <row r="153" spans="1:20" ht="15">
+    <row r="153" spans="1:20">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
-      <c r="D153" s="46"/>
-      <c r="E153"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="52"/>
       <c r="F153"/>
       <c r="H153"/>
       <c r="I153"/>
@@ -5420,12 +6020,12 @@
       <c r="S153"/>
       <c r="T153"/>
     </row>
-    <row r="154" spans="1:20" ht="15">
+    <row r="154" spans="1:20">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
-      <c r="D154" s="46"/>
-      <c r="E154"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="52"/>
       <c r="F154"/>
       <c r="H154"/>
       <c r="I154"/>
@@ -5441,12 +6041,12 @@
       <c r="S154"/>
       <c r="T154"/>
     </row>
-    <row r="155" spans="1:20" ht="15">
+    <row r="155" spans="1:20">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
-      <c r="D155" s="46"/>
-      <c r="E155"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="52"/>
       <c r="F155"/>
       <c r="H155"/>
       <c r="I155"/>
@@ -5462,12 +6062,12 @@
       <c r="S155"/>
       <c r="T155"/>
     </row>
-    <row r="156" spans="1:20" ht="15">
+    <row r="156" spans="1:20">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
-      <c r="D156" s="46"/>
-      <c r="E156"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="52"/>
       <c r="F156"/>
       <c r="H156"/>
       <c r="I156"/>
@@ -5483,12 +6083,12 @@
       <c r="S156"/>
       <c r="T156"/>
     </row>
-    <row r="157" spans="1:20" ht="15">
+    <row r="157" spans="1:20">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
-      <c r="D157" s="46"/>
-      <c r="E157"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="52"/>
       <c r="F157"/>
       <c r="H157"/>
       <c r="I157"/>
@@ -5504,12 +6104,12 @@
       <c r="S157"/>
       <c r="T157"/>
     </row>
-    <row r="158" spans="1:20" ht="15">
+    <row r="158" spans="1:20">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
-      <c r="D158" s="46"/>
-      <c r="E158"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="52"/>
       <c r="F158"/>
       <c r="H158"/>
       <c r="I158"/>
@@ -5525,12 +6125,12 @@
       <c r="S158"/>
       <c r="T158"/>
     </row>
-    <row r="159" spans="1:20" ht="15">
+    <row r="159" spans="1:20">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
-      <c r="D159" s="46"/>
-      <c r="E159"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="52"/>
       <c r="F159"/>
       <c r="H159"/>
       <c r="I159"/>
@@ -5546,12 +6146,12 @@
       <c r="S159"/>
       <c r="T159"/>
     </row>
-    <row r="160" spans="1:20" ht="15">
+    <row r="160" spans="1:20">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
-      <c r="D160" s="46"/>
-      <c r="E160"/>
+      <c r="D160" s="41"/>
+      <c r="E160" s="52"/>
       <c r="F160"/>
       <c r="H160"/>
       <c r="I160"/>
@@ -5567,12 +6167,12 @@
       <c r="S160"/>
       <c r="T160"/>
     </row>
-    <row r="161" spans="1:20" ht="15">
+    <row r="161" spans="1:20">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
-      <c r="D161" s="46"/>
-      <c r="E161"/>
+      <c r="D161" s="41"/>
+      <c r="E161" s="52"/>
       <c r="F161"/>
       <c r="H161"/>
       <c r="I161"/>
@@ -5588,12 +6188,12 @@
       <c r="S161"/>
       <c r="T161"/>
     </row>
-    <row r="162" spans="1:20" ht="15">
+    <row r="162" spans="1:20">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
-      <c r="D162" s="46"/>
-      <c r="E162"/>
+      <c r="D162" s="41"/>
+      <c r="E162" s="52"/>
       <c r="F162"/>
       <c r="H162"/>
       <c r="I162"/>
@@ -5609,12 +6209,12 @@
       <c r="S162"/>
       <c r="T162"/>
     </row>
-    <row r="163" spans="1:20" ht="15">
+    <row r="163" spans="1:20">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
-      <c r="D163" s="46"/>
-      <c r="E163"/>
+      <c r="D163" s="41"/>
+      <c r="E163" s="52"/>
       <c r="F163"/>
       <c r="H163"/>
       <c r="I163"/>
@@ -5630,12 +6230,12 @@
       <c r="S163"/>
       <c r="T163"/>
     </row>
-    <row r="164" spans="1:20" ht="15">
+    <row r="164" spans="1:20">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
-      <c r="D164" s="46"/>
-      <c r="E164"/>
+      <c r="D164" s="41"/>
+      <c r="E164" s="52"/>
       <c r="F164"/>
       <c r="H164"/>
       <c r="I164"/>
@@ -5651,12 +6251,12 @@
       <c r="S164"/>
       <c r="T164"/>
     </row>
-    <row r="165" spans="1:20" ht="15">
+    <row r="165" spans="1:20">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="46"/>
-      <c r="E165"/>
+      <c r="D165" s="41"/>
+      <c r="E165" s="52"/>
       <c r="F165"/>
       <c r="H165"/>
       <c r="I165"/>
@@ -5672,12 +6272,12 @@
       <c r="S165"/>
       <c r="T165"/>
     </row>
-    <row r="166" spans="1:20" ht="15">
+    <row r="166" spans="1:20">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="46"/>
-      <c r="E166"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="52"/>
       <c r="F166"/>
       <c r="H166"/>
       <c r="I166"/>
@@ -5693,12 +6293,12 @@
       <c r="S166"/>
       <c r="T166"/>
     </row>
-    <row r="167" spans="1:20" ht="15">
+    <row r="167" spans="1:20">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="46"/>
-      <c r="E167"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="52"/>
       <c r="F167"/>
       <c r="H167"/>
       <c r="I167"/>
@@ -5714,12 +6314,12 @@
       <c r="S167"/>
       <c r="T167"/>
     </row>
-    <row r="168" spans="1:20" ht="15">
+    <row r="168" spans="1:20">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="46"/>
-      <c r="E168"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="52"/>
       <c r="F168"/>
       <c r="H168"/>
       <c r="I168"/>
@@ -5735,12 +6335,12 @@
       <c r="S168"/>
       <c r="T168"/>
     </row>
-    <row r="169" spans="1:20" ht="15">
+    <row r="169" spans="1:20">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
-      <c r="D169" s="46"/>
-      <c r="E169"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="52"/>
       <c r="F169"/>
       <c r="H169"/>
       <c r="I169"/>
@@ -5756,12 +6356,12 @@
       <c r="S169"/>
       <c r="T169"/>
     </row>
-    <row r="170" spans="1:20" ht="15">
+    <row r="170" spans="1:20">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
-      <c r="D170" s="46"/>
-      <c r="E170"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="52"/>
       <c r="F170"/>
       <c r="H170"/>
       <c r="I170"/>
@@ -5777,12 +6377,12 @@
       <c r="S170"/>
       <c r="T170"/>
     </row>
-    <row r="171" spans="1:20" ht="15">
+    <row r="171" spans="1:20">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
-      <c r="D171" s="46"/>
-      <c r="E171"/>
+      <c r="D171" s="41"/>
+      <c r="E171" s="52"/>
       <c r="F171"/>
       <c r="H171"/>
       <c r="I171"/>
@@ -5798,12 +6398,12 @@
       <c r="S171"/>
       <c r="T171"/>
     </row>
-    <row r="172" spans="1:20" ht="15">
+    <row r="172" spans="1:20">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
-      <c r="D172" s="46"/>
-      <c r="E172"/>
+      <c r="D172" s="41"/>
+      <c r="E172" s="52"/>
       <c r="F172"/>
       <c r="H172"/>
       <c r="I172"/>
@@ -5819,12 +6419,12 @@
       <c r="S172"/>
       <c r="T172"/>
     </row>
-    <row r="173" spans="1:20" ht="15">
+    <row r="173" spans="1:20">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
-      <c r="D173" s="46"/>
-      <c r="E173"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="52"/>
       <c r="F173"/>
       <c r="H173"/>
       <c r="I173"/>
@@ -5840,12 +6440,12 @@
       <c r="S173"/>
       <c r="T173"/>
     </row>
-    <row r="174" spans="1:20" ht="15">
+    <row r="174" spans="1:20">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
-      <c r="D174" s="46"/>
-      <c r="E174"/>
+      <c r="D174" s="41"/>
+      <c r="E174" s="52"/>
       <c r="F174"/>
       <c r="H174"/>
       <c r="I174"/>
@@ -5861,12 +6461,12 @@
       <c r="S174"/>
       <c r="T174"/>
     </row>
-    <row r="175" spans="1:20" ht="15">
+    <row r="175" spans="1:20">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
-      <c r="D175" s="46"/>
-      <c r="E175"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="52"/>
       <c r="F175"/>
       <c r="H175"/>
       <c r="I175"/>
@@ -5882,12 +6482,12 @@
       <c r="S175"/>
       <c r="T175"/>
     </row>
-    <row r="176" spans="1:20" ht="15">
+    <row r="176" spans="1:20">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
-      <c r="D176" s="46"/>
-      <c r="E176"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="52"/>
       <c r="F176"/>
       <c r="H176"/>
       <c r="I176"/>
@@ -5903,12 +6503,12 @@
       <c r="S176"/>
       <c r="T176"/>
     </row>
-    <row r="177" spans="1:20" ht="15">
+    <row r="177" spans="1:20">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
-      <c r="D177" s="46"/>
-      <c r="E177"/>
+      <c r="D177" s="41"/>
+      <c r="E177" s="52"/>
       <c r="F177"/>
       <c r="H177"/>
       <c r="I177"/>
@@ -5924,12 +6524,12 @@
       <c r="S177"/>
       <c r="T177"/>
     </row>
-    <row r="178" spans="1:20" ht="15">
+    <row r="178" spans="1:20">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
-      <c r="D178" s="46"/>
-      <c r="E178"/>
+      <c r="D178" s="41"/>
+      <c r="E178" s="52"/>
       <c r="F178"/>
       <c r="H178"/>
       <c r="I178"/>
@@ -5945,12 +6545,12 @@
       <c r="S178"/>
       <c r="T178"/>
     </row>
-    <row r="179" spans="1:20" ht="15">
+    <row r="179" spans="1:20">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
-      <c r="D179" s="46"/>
-      <c r="E179"/>
+      <c r="D179" s="41"/>
+      <c r="E179" s="52"/>
       <c r="F179"/>
       <c r="H179"/>
       <c r="I179"/>
@@ -5966,12 +6566,12 @@
       <c r="S179"/>
       <c r="T179"/>
     </row>
-    <row r="180" spans="1:20" ht="15">
+    <row r="180" spans="1:20">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
-      <c r="D180" s="46"/>
-      <c r="E180"/>
+      <c r="D180" s="41"/>
+      <c r="E180" s="52"/>
       <c r="F180"/>
       <c r="H180"/>
       <c r="I180"/>
@@ -5987,12 +6587,12 @@
       <c r="S180"/>
       <c r="T180"/>
     </row>
-    <row r="181" spans="1:20" ht="15">
+    <row r="181" spans="1:20">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
-      <c r="D181" s="46"/>
-      <c r="E181"/>
+      <c r="D181" s="41"/>
+      <c r="E181" s="52"/>
       <c r="F181"/>
       <c r="H181"/>
       <c r="I181"/>
@@ -6008,12 +6608,12 @@
       <c r="S181"/>
       <c r="T181"/>
     </row>
-    <row r="182" spans="1:20" ht="15">
+    <row r="182" spans="1:20">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
-      <c r="D182" s="46"/>
-      <c r="E182"/>
+      <c r="D182" s="41"/>
+      <c r="E182" s="52"/>
       <c r="F182"/>
       <c r="H182"/>
       <c r="I182"/>
@@ -6029,12 +6629,12 @@
       <c r="S182"/>
       <c r="T182"/>
     </row>
-    <row r="183" spans="1:20" ht="15">
+    <row r="183" spans="1:20">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
-      <c r="D183" s="46"/>
-      <c r="E183"/>
+      <c r="D183" s="41"/>
+      <c r="E183" s="52"/>
       <c r="F183"/>
       <c r="H183"/>
       <c r="I183"/>
@@ -6050,12 +6650,12 @@
       <c r="S183"/>
       <c r="T183"/>
     </row>
-    <row r="184" spans="1:20" ht="15">
+    <row r="184" spans="1:20">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
-      <c r="D184" s="46"/>
-      <c r="E184"/>
+      <c r="D184" s="41"/>
+      <c r="E184" s="52"/>
       <c r="F184"/>
       <c r="H184"/>
       <c r="I184"/>
@@ -6071,12 +6671,12 @@
       <c r="S184"/>
       <c r="T184"/>
     </row>
-    <row r="185" spans="1:20" ht="15">
+    <row r="185" spans="1:20">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
-      <c r="D185" s="46"/>
-      <c r="E185"/>
+      <c r="D185" s="41"/>
+      <c r="E185" s="52"/>
       <c r="F185"/>
       <c r="H185"/>
       <c r="I185"/>
@@ -6092,12 +6692,12 @@
       <c r="S185"/>
       <c r="T185"/>
     </row>
-    <row r="186" spans="1:20" ht="15">
+    <row r="186" spans="1:20">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
-      <c r="D186" s="46"/>
-      <c r="E186"/>
+      <c r="D186" s="41"/>
+      <c r="E186" s="52"/>
       <c r="F186"/>
       <c r="H186"/>
       <c r="I186"/>
@@ -6113,12 +6713,12 @@
       <c r="S186"/>
       <c r="T186"/>
     </row>
-    <row r="187" spans="1:20" ht="15">
+    <row r="187" spans="1:20">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
-      <c r="D187" s="46"/>
-      <c r="E187"/>
+      <c r="D187" s="41"/>
+      <c r="E187" s="52"/>
       <c r="F187"/>
       <c r="H187"/>
       <c r="I187"/>
@@ -6134,12 +6734,12 @@
       <c r="S187"/>
       <c r="T187"/>
     </row>
-    <row r="188" spans="1:20" ht="15">
+    <row r="188" spans="1:20">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
-      <c r="D188" s="46"/>
-      <c r="E188"/>
+      <c r="D188" s="41"/>
+      <c r="E188" s="52"/>
       <c r="F188"/>
       <c r="H188"/>
       <c r="I188"/>
@@ -6155,12 +6755,12 @@
       <c r="S188"/>
       <c r="T188"/>
     </row>
-    <row r="189" spans="1:20" ht="15">
+    <row r="189" spans="1:20">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
-      <c r="D189" s="46"/>
-      <c r="E189"/>
+      <c r="D189" s="41"/>
+      <c r="E189" s="52"/>
       <c r="F189"/>
       <c r="H189"/>
       <c r="I189"/>
@@ -6176,12 +6776,12 @@
       <c r="S189"/>
       <c r="T189"/>
     </row>
-    <row r="190" spans="1:20" ht="15">
+    <row r="190" spans="1:20">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
-      <c r="D190" s="46"/>
-      <c r="E190"/>
+      <c r="D190" s="41"/>
+      <c r="E190" s="52"/>
       <c r="F190"/>
       <c r="H190"/>
       <c r="I190"/>
@@ -6197,12 +6797,12 @@
       <c r="S190"/>
       <c r="T190"/>
     </row>
-    <row r="191" spans="1:20" ht="15">
+    <row r="191" spans="1:20">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
-      <c r="D191" s="46"/>
-      <c r="E191"/>
+      <c r="D191" s="41"/>
+      <c r="E191" s="52"/>
       <c r="F191"/>
       <c r="H191"/>
       <c r="I191"/>
@@ -6218,12 +6818,12 @@
       <c r="S191"/>
       <c r="T191"/>
     </row>
-    <row r="192" spans="1:20" ht="15">
+    <row r="192" spans="1:20">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
-      <c r="D192" s="46"/>
-      <c r="E192"/>
+      <c r="D192" s="41"/>
+      <c r="E192" s="52"/>
       <c r="F192"/>
       <c r="H192"/>
       <c r="I192"/>
@@ -6239,12 +6839,12 @@
       <c r="S192"/>
       <c r="T192"/>
     </row>
-    <row r="193" spans="1:20" ht="15">
+    <row r="193" spans="1:20">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
-      <c r="D193" s="46"/>
-      <c r="E193"/>
+      <c r="D193" s="41"/>
+      <c r="E193" s="52"/>
       <c r="F193"/>
       <c r="H193"/>
       <c r="I193"/>
@@ -6260,12 +6860,12 @@
       <c r="S193"/>
       <c r="T193"/>
     </row>
-    <row r="194" spans="1:20" ht="15">
+    <row r="194" spans="1:20">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
-      <c r="D194" s="46"/>
-      <c r="E194"/>
+      <c r="D194" s="41"/>
+      <c r="E194" s="52"/>
       <c r="F194"/>
       <c r="H194"/>
       <c r="I194"/>
@@ -6281,12 +6881,12 @@
       <c r="S194"/>
       <c r="T194"/>
     </row>
-    <row r="195" spans="1:20" ht="15">
+    <row r="195" spans="1:20">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
-      <c r="D195" s="46"/>
-      <c r="E195"/>
+      <c r="D195" s="41"/>
+      <c r="E195" s="52"/>
       <c r="F195"/>
       <c r="H195"/>
       <c r="I195"/>
@@ -6302,12 +6902,12 @@
       <c r="S195"/>
       <c r="T195"/>
     </row>
-    <row r="196" spans="1:20" ht="15">
+    <row r="196" spans="1:20">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
-      <c r="D196" s="46"/>
-      <c r="E196"/>
+      <c r="D196" s="41"/>
+      <c r="E196" s="52"/>
       <c r="F196"/>
       <c r="H196"/>
       <c r="I196"/>
@@ -6323,12 +6923,12 @@
       <c r="S196"/>
       <c r="T196"/>
     </row>
-    <row r="197" spans="1:20" ht="15">
+    <row r="197" spans="1:20">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
-      <c r="D197" s="46"/>
-      <c r="E197"/>
+      <c r="D197" s="41"/>
+      <c r="E197" s="52"/>
       <c r="F197"/>
       <c r="H197"/>
       <c r="I197"/>
@@ -6344,12 +6944,12 @@
       <c r="S197"/>
       <c r="T197"/>
     </row>
-    <row r="198" spans="1:20" ht="15">
+    <row r="198" spans="1:20">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
-      <c r="D198" s="46"/>
-      <c r="E198"/>
+      <c r="D198" s="41"/>
+      <c r="E198" s="52"/>
       <c r="F198"/>
       <c r="H198"/>
       <c r="I198"/>
@@ -6365,12 +6965,12 @@
       <c r="S198"/>
       <c r="T198"/>
     </row>
-    <row r="199" spans="1:20" ht="15">
+    <row r="199" spans="1:20">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
-      <c r="D199" s="46"/>
-      <c r="E199"/>
+      <c r="D199" s="41"/>
+      <c r="E199" s="52"/>
       <c r="F199"/>
       <c r="H199"/>
       <c r="I199"/>
@@ -6386,12 +6986,12 @@
       <c r="S199"/>
       <c r="T199"/>
     </row>
-    <row r="200" spans="1:20" ht="15">
+    <row r="200" spans="1:20">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
-      <c r="D200" s="46"/>
-      <c r="E200"/>
+      <c r="D200" s="41"/>
+      <c r="E200" s="52"/>
       <c r="F200"/>
       <c r="H200"/>
       <c r="I200"/>
@@ -6407,12 +7007,12 @@
       <c r="S200"/>
       <c r="T200"/>
     </row>
-    <row r="201" spans="1:20" ht="15">
+    <row r="201" spans="1:20">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
-      <c r="D201" s="46"/>
-      <c r="E201"/>
+      <c r="D201" s="41"/>
+      <c r="E201" s="52"/>
       <c r="F201"/>
       <c r="H201"/>
       <c r="I201"/>
@@ -6428,12 +7028,12 @@
       <c r="S201"/>
       <c r="T201"/>
     </row>
-    <row r="202" spans="1:20" ht="15">
+    <row r="202" spans="1:20">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="46"/>
-      <c r="E202"/>
+      <c r="D202" s="41"/>
+      <c r="E202" s="52"/>
       <c r="F202"/>
       <c r="H202"/>
       <c r="I202"/>
@@ -6449,12 +7049,12 @@
       <c r="S202"/>
       <c r="T202"/>
     </row>
-    <row r="203" spans="1:20" ht="15">
+    <row r="203" spans="1:20">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="46"/>
-      <c r="E203"/>
+      <c r="D203" s="41"/>
+      <c r="E203" s="52"/>
       <c r="F203"/>
       <c r="H203"/>
       <c r="I203"/>
@@ -6470,12 +7070,12 @@
       <c r="S203"/>
       <c r="T203"/>
     </row>
-    <row r="204" spans="1:20" ht="15">
+    <row r="204" spans="1:20">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="46"/>
-      <c r="E204"/>
+      <c r="D204" s="41"/>
+      <c r="E204" s="52"/>
       <c r="F204"/>
       <c r="H204"/>
       <c r="I204"/>
@@ -6491,12 +7091,12 @@
       <c r="S204"/>
       <c r="T204"/>
     </row>
-    <row r="205" spans="1:20" ht="15">
+    <row r="205" spans="1:20">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="46"/>
-      <c r="E205"/>
+      <c r="D205" s="41"/>
+      <c r="E205" s="52"/>
       <c r="F205"/>
       <c r="H205"/>
       <c r="I205"/>
@@ -6512,12 +7112,12 @@
       <c r="S205"/>
       <c r="T205"/>
     </row>
-    <row r="206" spans="1:20" ht="15">
+    <row r="206" spans="1:20">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="46"/>
-      <c r="E206"/>
+      <c r="D206" s="41"/>
+      <c r="E206" s="52"/>
       <c r="F206"/>
       <c r="H206"/>
       <c r="I206"/>
@@ -6533,12 +7133,12 @@
       <c r="S206"/>
       <c r="T206"/>
     </row>
-    <row r="207" spans="1:20" ht="15">
+    <row r="207" spans="1:20">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
-      <c r="D207" s="46"/>
-      <c r="E207"/>
+      <c r="D207" s="41"/>
+      <c r="E207" s="52"/>
       <c r="F207"/>
       <c r="H207"/>
       <c r="I207"/>
@@ -6554,12 +7154,12 @@
       <c r="S207"/>
       <c r="T207"/>
     </row>
-    <row r="208" spans="1:20" ht="15">
+    <row r="208" spans="1:20">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
-      <c r="D208" s="46"/>
-      <c r="E208"/>
+      <c r="D208" s="41"/>
+      <c r="E208" s="52"/>
       <c r="F208"/>
       <c r="H208"/>
       <c r="I208"/>
@@ -6575,12 +7175,12 @@
       <c r="S208"/>
       <c r="T208"/>
     </row>
-    <row r="209" spans="1:20" ht="15">
+    <row r="209" spans="1:20">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
-      <c r="D209" s="46"/>
-      <c r="E209"/>
+      <c r="D209" s="41"/>
+      <c r="E209" s="52"/>
       <c r="F209"/>
       <c r="H209"/>
       <c r="I209"/>
@@ -6596,12 +7196,12 @@
       <c r="S209"/>
       <c r="T209"/>
     </row>
-    <row r="210" spans="1:20" ht="15">
+    <row r="210" spans="1:20">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
-      <c r="D210" s="46"/>
-      <c r="E210"/>
+      <c r="D210" s="41"/>
+      <c r="E210" s="52"/>
       <c r="F210"/>
       <c r="H210"/>
       <c r="I210"/>
@@ -6617,12 +7217,12 @@
       <c r="S210"/>
       <c r="T210"/>
     </row>
-    <row r="211" spans="1:20" ht="15">
+    <row r="211" spans="1:20">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
-      <c r="D211" s="46"/>
-      <c r="E211"/>
+      <c r="D211" s="41"/>
+      <c r="E211" s="52"/>
       <c r="F211"/>
       <c r="H211"/>
       <c r="I211"/>
@@ -6638,12 +7238,12 @@
       <c r="S211"/>
       <c r="T211"/>
     </row>
-    <row r="212" spans="1:20" ht="15">
+    <row r="212" spans="1:20">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
-      <c r="D212" s="46"/>
-      <c r="E212"/>
+      <c r="D212" s="41"/>
+      <c r="E212" s="52"/>
       <c r="F212"/>
       <c r="H212"/>
       <c r="I212"/>
@@ -6659,12 +7259,12 @@
       <c r="S212"/>
       <c r="T212"/>
     </row>
-    <row r="213" spans="1:20" ht="15">
+    <row r="213" spans="1:20">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
-      <c r="D213" s="46"/>
-      <c r="E213"/>
+      <c r="D213" s="41"/>
+      <c r="E213" s="52"/>
       <c r="F213"/>
       <c r="H213"/>
       <c r="I213"/>
@@ -6680,12 +7280,12 @@
       <c r="S213"/>
       <c r="T213"/>
     </row>
-    <row r="214" spans="1:20" ht="15">
+    <row r="214" spans="1:20">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
-      <c r="D214" s="46"/>
-      <c r="E214"/>
+      <c r="D214" s="41"/>
+      <c r="E214" s="52"/>
       <c r="F214"/>
       <c r="H214"/>
       <c r="I214"/>
@@ -6701,12 +7301,12 @@
       <c r="S214"/>
       <c r="T214"/>
     </row>
-    <row r="215" spans="1:20" ht="15">
+    <row r="215" spans="1:20">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
-      <c r="D215" s="46"/>
-      <c r="E215"/>
+      <c r="D215" s="41"/>
+      <c r="E215" s="52"/>
       <c r="F215"/>
       <c r="H215"/>
       <c r="I215"/>
@@ -6722,12 +7322,12 @@
       <c r="S215"/>
       <c r="T215"/>
     </row>
-    <row r="216" spans="1:20" ht="15">
+    <row r="216" spans="1:20">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
-      <c r="D216" s="46"/>
-      <c r="E216"/>
+      <c r="D216" s="41"/>
+      <c r="E216" s="52"/>
       <c r="F216"/>
       <c r="H216"/>
       <c r="I216"/>
@@ -6743,12 +7343,12 @@
       <c r="S216"/>
       <c r="T216"/>
     </row>
-    <row r="217" spans="1:20" ht="15">
+    <row r="217" spans="1:20">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
-      <c r="D217" s="46"/>
-      <c r="E217"/>
+      <c r="D217" s="41"/>
+      <c r="E217" s="52"/>
       <c r="F217"/>
       <c r="H217"/>
       <c r="I217"/>
@@ -6764,12 +7364,12 @@
       <c r="S217"/>
       <c r="T217"/>
     </row>
-    <row r="218" spans="1:20" ht="15">
+    <row r="218" spans="1:20">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
-      <c r="D218" s="46"/>
-      <c r="E218"/>
+      <c r="D218" s="41"/>
+      <c r="E218" s="52"/>
       <c r="F218"/>
       <c r="H218"/>
       <c r="I218"/>
@@ -6785,12 +7385,12 @@
       <c r="S218"/>
       <c r="T218"/>
     </row>
-    <row r="219" spans="1:20" ht="15">
+    <row r="219" spans="1:20">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
-      <c r="D219" s="46"/>
-      <c r="E219"/>
+      <c r="D219" s="41"/>
+      <c r="E219" s="52"/>
       <c r="F219"/>
       <c r="H219"/>
       <c r="I219"/>
@@ -6806,12 +7406,12 @@
       <c r="S219"/>
       <c r="T219"/>
     </row>
-    <row r="220" spans="1:20" ht="15">
+    <row r="220" spans="1:20">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
-      <c r="D220" s="46"/>
-      <c r="E220"/>
+      <c r="D220" s="41"/>
+      <c r="E220" s="52"/>
       <c r="F220"/>
       <c r="H220"/>
       <c r="I220"/>
@@ -6827,12 +7427,12 @@
       <c r="S220"/>
       <c r="T220"/>
     </row>
-    <row r="221" spans="1:20" ht="15">
+    <row r="221" spans="1:20">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
-      <c r="D221" s="46"/>
-      <c r="E221"/>
+      <c r="D221" s="41"/>
+      <c r="E221" s="52"/>
       <c r="F221"/>
       <c r="H221"/>
       <c r="I221"/>
@@ -6848,12 +7448,12 @@
       <c r="S221"/>
       <c r="T221"/>
     </row>
-    <row r="222" spans="1:20" ht="15">
+    <row r="222" spans="1:20">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
-      <c r="D222" s="46"/>
-      <c r="E222"/>
+      <c r="D222" s="41"/>
+      <c r="E222" s="52"/>
       <c r="F222"/>
       <c r="H222"/>
       <c r="I222"/>
@@ -6869,12 +7469,12 @@
       <c r="S222"/>
       <c r="T222"/>
     </row>
-    <row r="223" spans="1:20" ht="15">
+    <row r="223" spans="1:20">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
-      <c r="D223" s="46"/>
-      <c r="E223"/>
+      <c r="D223" s="41"/>
+      <c r="E223" s="52"/>
       <c r="F223"/>
       <c r="H223"/>
       <c r="I223"/>
@@ -6890,12 +7490,12 @@
       <c r="S223"/>
       <c r="T223"/>
     </row>
-    <row r="224" spans="1:20" ht="15">
+    <row r="224" spans="1:20">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
-      <c r="D224" s="46"/>
-      <c r="E224"/>
+      <c r="D224" s="41"/>
+      <c r="E224" s="52"/>
       <c r="F224"/>
       <c r="H224"/>
       <c r="I224"/>
@@ -6911,12 +7511,12 @@
       <c r="S224"/>
       <c r="T224"/>
     </row>
-    <row r="225" spans="1:20" ht="15">
+    <row r="225" spans="1:20">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
-      <c r="D225" s="46"/>
-      <c r="E225"/>
+      <c r="D225" s="41"/>
+      <c r="E225" s="52"/>
       <c r="F225"/>
       <c r="H225"/>
       <c r="I225"/>
@@ -6932,12 +7532,12 @@
       <c r="S225"/>
       <c r="T225"/>
     </row>
-    <row r="226" spans="1:20" ht="15">
+    <row r="226" spans="1:20">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
-      <c r="D226" s="46"/>
-      <c r="E226"/>
+      <c r="D226" s="41"/>
+      <c r="E226" s="52"/>
       <c r="F226"/>
       <c r="H226"/>
       <c r="I226"/>
@@ -6953,12 +7553,12 @@
       <c r="S226"/>
       <c r="T226"/>
     </row>
-    <row r="227" spans="1:20" ht="15">
+    <row r="227" spans="1:20">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
-      <c r="D227" s="46"/>
-      <c r="E227"/>
+      <c r="D227" s="41"/>
+      <c r="E227" s="52"/>
       <c r="F227"/>
       <c r="H227"/>
       <c r="I227"/>
@@ -6974,12 +7574,12 @@
       <c r="S227"/>
       <c r="T227"/>
     </row>
-    <row r="228" spans="1:20" ht="15">
+    <row r="228" spans="1:20">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
-      <c r="D228" s="46"/>
-      <c r="E228"/>
+      <c r="D228" s="41"/>
+      <c r="E228" s="52"/>
       <c r="F228"/>
       <c r="H228"/>
       <c r="I228"/>
@@ -6995,12 +7595,12 @@
       <c r="S228"/>
       <c r="T228"/>
     </row>
-    <row r="229" spans="1:20" ht="15">
+    <row r="229" spans="1:20">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
-      <c r="D229" s="46"/>
-      <c r="E229"/>
+      <c r="D229" s="41"/>
+      <c r="E229" s="52"/>
       <c r="F229"/>
       <c r="H229"/>
       <c r="I229"/>
@@ -7016,12 +7616,12 @@
       <c r="S229"/>
       <c r="T229"/>
     </row>
-    <row r="230" spans="1:20" ht="15">
+    <row r="230" spans="1:20">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
-      <c r="D230" s="46"/>
-      <c r="E230"/>
+      <c r="D230" s="41"/>
+      <c r="E230" s="52"/>
       <c r="F230"/>
       <c r="H230"/>
       <c r="I230"/>
@@ -7037,12 +7637,12 @@
       <c r="S230"/>
       <c r="T230"/>
     </row>
-    <row r="231" spans="1:20" ht="15">
+    <row r="231" spans="1:20">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
-      <c r="D231" s="46"/>
-      <c r="E231"/>
+      <c r="D231" s="41"/>
+      <c r="E231" s="52"/>
       <c r="F231"/>
       <c r="H231"/>
       <c r="I231"/>
@@ -7058,12 +7658,12 @@
       <c r="S231"/>
       <c r="T231"/>
     </row>
-    <row r="232" spans="1:20" ht="15">
+    <row r="232" spans="1:20">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
-      <c r="D232" s="46"/>
-      <c r="E232"/>
+      <c r="D232" s="41"/>
+      <c r="E232" s="52"/>
       <c r="F232"/>
       <c r="H232"/>
       <c r="I232"/>
@@ -7079,12 +7679,12 @@
       <c r="S232"/>
       <c r="T232"/>
     </row>
-    <row r="233" spans="1:20" ht="15">
+    <row r="233" spans="1:20">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
-      <c r="D233" s="46"/>
-      <c r="E233"/>
+      <c r="D233" s="41"/>
+      <c r="E233" s="52"/>
       <c r="F233"/>
       <c r="H233"/>
       <c r="I233"/>
@@ -7100,12 +7700,12 @@
       <c r="S233"/>
       <c r="T233"/>
     </row>
-    <row r="234" spans="1:20" ht="15">
+    <row r="234" spans="1:20">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
-      <c r="D234" s="46"/>
-      <c r="E234"/>
+      <c r="D234" s="41"/>
+      <c r="E234" s="52"/>
       <c r="F234"/>
       <c r="H234"/>
       <c r="I234"/>
@@ -7121,12 +7721,12 @@
       <c r="S234"/>
       <c r="T234"/>
     </row>
-    <row r="235" spans="1:20" ht="15">
+    <row r="235" spans="1:20">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
-      <c r="D235" s="46"/>
-      <c r="E235"/>
+      <c r="D235" s="41"/>
+      <c r="E235" s="52"/>
       <c r="F235"/>
       <c r="H235"/>
       <c r="I235"/>
@@ -7142,12 +7742,12 @@
       <c r="S235"/>
       <c r="T235"/>
     </row>
-    <row r="236" spans="1:20" ht="15">
+    <row r="236" spans="1:20">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="46"/>
-      <c r="E236"/>
+      <c r="D236" s="41"/>
+      <c r="E236" s="52"/>
       <c r="F236"/>
       <c r="H236"/>
       <c r="I236"/>
@@ -7163,12 +7763,12 @@
       <c r="S236"/>
       <c r="T236"/>
     </row>
-    <row r="237" spans="1:20" ht="15">
+    <row r="237" spans="1:20">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="46"/>
-      <c r="E237"/>
+      <c r="D237" s="41"/>
+      <c r="E237" s="52"/>
       <c r="F237"/>
       <c r="H237"/>
       <c r="I237"/>
@@ -7184,12 +7784,12 @@
       <c r="S237"/>
       <c r="T237"/>
     </row>
-    <row r="238" spans="1:20" ht="15">
+    <row r="238" spans="1:20">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="46"/>
-      <c r="E238"/>
+      <c r="D238" s="41"/>
+      <c r="E238" s="52"/>
       <c r="F238"/>
       <c r="H238"/>
       <c r="I238"/>
@@ -7205,12 +7805,12 @@
       <c r="S238"/>
       <c r="T238"/>
     </row>
-    <row r="239" spans="1:20" ht="15">
+    <row r="239" spans="1:20">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
-      <c r="D239" s="46"/>
-      <c r="E239"/>
+      <c r="D239" s="41"/>
+      <c r="E239" s="52"/>
       <c r="F239"/>
       <c r="H239"/>
       <c r="I239"/>
@@ -7226,12 +7826,12 @@
       <c r="S239"/>
       <c r="T239"/>
     </row>
-    <row r="240" spans="1:20" ht="15">
+    <row r="240" spans="1:20">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
-      <c r="D240" s="46"/>
-      <c r="E240"/>
+      <c r="D240" s="41"/>
+      <c r="E240" s="52"/>
       <c r="F240"/>
       <c r="H240"/>
       <c r="I240"/>
@@ -7247,12 +7847,12 @@
       <c r="S240"/>
       <c r="T240"/>
     </row>
-    <row r="241" spans="1:20" ht="15">
+    <row r="241" spans="1:20">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
-      <c r="D241" s="46"/>
-      <c r="E241"/>
+      <c r="D241" s="41"/>
+      <c r="E241" s="52"/>
       <c r="F241"/>
       <c r="H241"/>
       <c r="I241"/>
@@ -7268,12 +7868,12 @@
       <c r="S241"/>
       <c r="T241"/>
     </row>
-    <row r="242" spans="1:20" ht="15">
+    <row r="242" spans="1:20">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
-      <c r="D242" s="46"/>
-      <c r="E242"/>
+      <c r="D242" s="41"/>
+      <c r="E242" s="52"/>
       <c r="F242"/>
       <c r="H242"/>
       <c r="I242"/>
@@ -7289,12 +7889,12 @@
       <c r="S242"/>
       <c r="T242"/>
     </row>
-    <row r="243" spans="1:20" ht="15">
+    <row r="243" spans="1:20">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
-      <c r="D243" s="46"/>
-      <c r="E243"/>
+      <c r="D243" s="41"/>
+      <c r="E243" s="52"/>
       <c r="F243"/>
       <c r="H243"/>
       <c r="I243"/>
@@ -7310,12 +7910,12 @@
       <c r="S243"/>
       <c r="T243"/>
     </row>
-    <row r="244" spans="1:20" ht="15">
+    <row r="244" spans="1:20">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
-      <c r="D244" s="46"/>
-      <c r="E244"/>
+      <c r="D244" s="41"/>
+      <c r="E244" s="52"/>
       <c r="F244"/>
       <c r="H244"/>
       <c r="I244"/>
@@ -7331,12 +7931,12 @@
       <c r="S244"/>
       <c r="T244"/>
     </row>
-    <row r="245" spans="1:20" ht="15">
+    <row r="245" spans="1:20">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
-      <c r="D245" s="46"/>
-      <c r="E245"/>
+      <c r="D245" s="41"/>
+      <c r="E245" s="52"/>
       <c r="F245"/>
       <c r="H245"/>
       <c r="I245"/>
@@ -7352,12 +7952,12 @@
       <c r="S245"/>
       <c r="T245"/>
     </row>
-    <row r="246" spans="1:20" ht="15">
+    <row r="246" spans="1:20">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
-      <c r="D246" s="46"/>
-      <c r="E246"/>
+      <c r="D246" s="41"/>
+      <c r="E246" s="52"/>
       <c r="F246"/>
       <c r="H246"/>
       <c r="I246"/>
@@ -7373,12 +7973,12 @@
       <c r="S246"/>
       <c r="T246"/>
     </row>
-    <row r="247" spans="1:20" ht="15">
+    <row r="247" spans="1:20">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
-      <c r="D247" s="46"/>
-      <c r="E247"/>
+      <c r="D247" s="41"/>
+      <c r="E247" s="52"/>
       <c r="F247"/>
       <c r="H247"/>
       <c r="I247"/>
@@ -7394,12 +7994,12 @@
       <c r="S247"/>
       <c r="T247"/>
     </row>
-    <row r="248" spans="1:20" ht="15">
+    <row r="248" spans="1:20">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
-      <c r="D248" s="46"/>
-      <c r="E248"/>
+      <c r="D248" s="41"/>
+      <c r="E248" s="52"/>
       <c r="F248"/>
       <c r="H248"/>
       <c r="I248"/>
@@ -7415,12 +8015,12 @@
       <c r="S248"/>
       <c r="T248"/>
     </row>
-    <row r="249" spans="1:20" ht="15">
+    <row r="249" spans="1:20">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
-      <c r="D249" s="46"/>
-      <c r="E249"/>
+      <c r="D249" s="41"/>
+      <c r="E249" s="52"/>
       <c r="F249"/>
       <c r="H249"/>
       <c r="I249"/>
@@ -7436,12 +8036,12 @@
       <c r="S249"/>
       <c r="T249"/>
     </row>
-    <row r="250" spans="1:20" ht="15">
+    <row r="250" spans="1:20">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
-      <c r="D250" s="46"/>
-      <c r="E250"/>
+      <c r="D250" s="41"/>
+      <c r="E250" s="52"/>
       <c r="F250"/>
       <c r="H250"/>
       <c r="I250"/>
@@ -7457,12 +8057,12 @@
       <c r="S250"/>
       <c r="T250"/>
     </row>
-    <row r="251" spans="1:20" ht="15">
+    <row r="251" spans="1:20">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
-      <c r="D251" s="46"/>
-      <c r="E251"/>
+      <c r="D251" s="41"/>
+      <c r="E251" s="52"/>
       <c r="F251"/>
       <c r="H251"/>
       <c r="I251"/>
@@ -7478,12 +8078,12 @@
       <c r="S251"/>
       <c r="T251"/>
     </row>
-    <row r="252" spans="1:20" ht="15">
+    <row r="252" spans="1:20">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
-      <c r="D252" s="46"/>
-      <c r="E252"/>
+      <c r="D252" s="41"/>
+      <c r="E252" s="52"/>
       <c r="F252"/>
       <c r="H252"/>
       <c r="I252"/>
@@ -7499,12 +8099,12 @@
       <c r="S252"/>
       <c r="T252"/>
     </row>
-    <row r="253" spans="1:20" ht="15">
+    <row r="253" spans="1:20">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
-      <c r="D253" s="46"/>
-      <c r="E253"/>
+      <c r="D253" s="41"/>
+      <c r="E253" s="52"/>
       <c r="F253"/>
       <c r="H253"/>
       <c r="I253"/>
@@ -7520,12 +8120,12 @@
       <c r="S253"/>
       <c r="T253"/>
     </row>
-    <row r="254" spans="1:20" ht="15">
+    <row r="254" spans="1:20">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
-      <c r="D254" s="46"/>
-      <c r="E254"/>
+      <c r="D254" s="41"/>
+      <c r="E254" s="52"/>
       <c r="F254"/>
       <c r="H254"/>
       <c r="I254"/>
@@ -7541,12 +8141,12 @@
       <c r="S254"/>
       <c r="T254"/>
     </row>
-    <row r="255" spans="1:20" ht="15">
+    <row r="255" spans="1:20">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
-      <c r="D255" s="46"/>
-      <c r="E255"/>
+      <c r="D255" s="41"/>
+      <c r="E255" s="52"/>
       <c r="F255"/>
       <c r="H255"/>
       <c r="I255"/>
@@ -7562,12 +8162,12 @@
       <c r="S255"/>
       <c r="T255"/>
     </row>
-    <row r="256" spans="1:20" ht="15">
+    <row r="256" spans="1:20">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
-      <c r="D256" s="46"/>
-      <c r="E256"/>
+      <c r="D256" s="41"/>
+      <c r="E256" s="52"/>
       <c r="F256"/>
       <c r="H256"/>
       <c r="I256"/>
@@ -7583,12 +8183,12 @@
       <c r="S256"/>
       <c r="T256"/>
     </row>
-    <row r="257" spans="1:20" ht="15">
+    <row r="257" spans="1:20">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
-      <c r="D257" s="46"/>
-      <c r="E257"/>
+      <c r="D257" s="41"/>
+      <c r="E257" s="52"/>
       <c r="F257"/>
       <c r="H257"/>
       <c r="I257"/>
@@ -7604,12 +8204,12 @@
       <c r="S257"/>
       <c r="T257"/>
     </row>
-    <row r="258" spans="1:20" ht="15">
+    <row r="258" spans="1:20">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
-      <c r="D258" s="46"/>
-      <c r="E258"/>
+      <c r="D258" s="41"/>
+      <c r="E258" s="52"/>
       <c r="F258"/>
       <c r="H258"/>
       <c r="I258"/>
@@ -7625,12 +8225,12 @@
       <c r="S258"/>
       <c r="T258"/>
     </row>
-    <row r="259" spans="1:20" ht="15">
+    <row r="259" spans="1:20">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
-      <c r="D259" s="46"/>
-      <c r="E259"/>
+      <c r="D259" s="41"/>
+      <c r="E259" s="52"/>
       <c r="F259"/>
       <c r="H259"/>
       <c r="I259"/>
@@ -7646,12 +8246,12 @@
       <c r="S259"/>
       <c r="T259"/>
     </row>
-    <row r="260" spans="1:20" ht="15">
+    <row r="260" spans="1:20">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
-      <c r="D260" s="46"/>
-      <c r="E260"/>
+      <c r="D260" s="41"/>
+      <c r="E260" s="52"/>
       <c r="F260"/>
       <c r="H260"/>
       <c r="I260"/>
@@ -7667,12 +8267,12 @@
       <c r="S260"/>
       <c r="T260"/>
     </row>
-    <row r="261" spans="1:20" ht="15">
+    <row r="261" spans="1:20">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="46"/>
-      <c r="E261"/>
+      <c r="D261" s="41"/>
+      <c r="E261" s="52"/>
       <c r="F261"/>
       <c r="H261"/>
       <c r="I261"/>
@@ -7688,12 +8288,12 @@
       <c r="S261"/>
       <c r="T261"/>
     </row>
-    <row r="262" spans="1:20" ht="15">
+    <row r="262" spans="1:20">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
-      <c r="D262" s="46"/>
-      <c r="E262"/>
+      <c r="D262" s="41"/>
+      <c r="E262" s="52"/>
       <c r="F262"/>
       <c r="H262"/>
       <c r="I262"/>
@@ -7709,12 +8309,12 @@
       <c r="S262"/>
       <c r="T262"/>
     </row>
-    <row r="263" spans="1:20" ht="15">
+    <row r="263" spans="1:20">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
-      <c r="D263" s="46"/>
-      <c r="E263"/>
+      <c r="D263" s="41"/>
+      <c r="E263" s="52"/>
       <c r="F263"/>
       <c r="H263"/>
       <c r="I263"/>
@@ -7730,12 +8330,12 @@
       <c r="S263"/>
       <c r="T263"/>
     </row>
-    <row r="264" spans="1:20" ht="15">
+    <row r="264" spans="1:20">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
-      <c r="D264" s="46"/>
-      <c r="E264"/>
+      <c r="D264" s="41"/>
+      <c r="E264" s="52"/>
       <c r="F264"/>
       <c r="H264"/>
       <c r="I264"/>
@@ -7751,12 +8351,12 @@
       <c r="S264"/>
       <c r="T264"/>
     </row>
-    <row r="265" spans="1:20" ht="15">
+    <row r="265" spans="1:20">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
-      <c r="D265" s="46"/>
-      <c r="E265"/>
+      <c r="D265" s="41"/>
+      <c r="E265" s="52"/>
       <c r="F265"/>
       <c r="H265"/>
       <c r="I265"/>
@@ -7772,12 +8372,12 @@
       <c r="S265"/>
       <c r="T265"/>
     </row>
-    <row r="266" spans="1:20" ht="15">
+    <row r="266" spans="1:20">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
-      <c r="D266" s="46"/>
-      <c r="E266"/>
+      <c r="D266" s="41"/>
+      <c r="E266" s="52"/>
       <c r="F266"/>
       <c r="H266"/>
       <c r="I266"/>
@@ -7793,12 +8393,12 @@
       <c r="S266"/>
       <c r="T266"/>
     </row>
-    <row r="267" spans="1:20" ht="15">
+    <row r="267" spans="1:20">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
-      <c r="D267" s="46"/>
-      <c r="E267"/>
+      <c r="D267" s="41"/>
+      <c r="E267" s="52"/>
       <c r="F267"/>
       <c r="H267"/>
       <c r="I267"/>
@@ -7814,12 +8414,12 @@
       <c r="S267"/>
       <c r="T267"/>
     </row>
-    <row r="268" spans="1:20" ht="15">
+    <row r="268" spans="1:20">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
-      <c r="D268" s="46"/>
-      <c r="E268"/>
+      <c r="D268" s="41"/>
+      <c r="E268" s="52"/>
       <c r="F268"/>
       <c r="H268"/>
       <c r="I268"/>
@@ -7835,12 +8435,12 @@
       <c r="S268"/>
       <c r="T268"/>
     </row>
-    <row r="269" spans="1:20" ht="15">
+    <row r="269" spans="1:20">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
-      <c r="D269" s="46"/>
-      <c r="E269"/>
+      <c r="D269" s="41"/>
+      <c r="E269" s="52"/>
       <c r="F269"/>
       <c r="H269"/>
       <c r="I269"/>
@@ -7856,12 +8456,12 @@
       <c r="S269"/>
       <c r="T269"/>
     </row>
-    <row r="270" spans="1:20" ht="15">
+    <row r="270" spans="1:20">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
-      <c r="D270" s="46"/>
-      <c r="E270"/>
+      <c r="D270" s="41"/>
+      <c r="E270" s="52"/>
       <c r="F270"/>
       <c r="H270"/>
       <c r="I270"/>
@@ -7877,12 +8477,12 @@
       <c r="S270"/>
       <c r="T270"/>
     </row>
-    <row r="271" spans="1:20" ht="15">
+    <row r="271" spans="1:20">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
-      <c r="D271" s="46"/>
-      <c r="E271"/>
+      <c r="D271" s="41"/>
+      <c r="E271" s="52"/>
       <c r="F271"/>
       <c r="H271"/>
       <c r="I271"/>
@@ -7898,12 +8498,12 @@
       <c r="S271"/>
       <c r="T271"/>
     </row>
-    <row r="272" spans="1:20" ht="15">
+    <row r="272" spans="1:20">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
-      <c r="D272" s="46"/>
-      <c r="E272"/>
+      <c r="D272" s="41"/>
+      <c r="E272" s="52"/>
       <c r="F272"/>
       <c r="H272"/>
       <c r="I272"/>
@@ -7919,12 +8519,12 @@
       <c r="S272"/>
       <c r="T272"/>
     </row>
-    <row r="273" spans="1:20" ht="15">
+    <row r="273" spans="1:20">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
-      <c r="D273" s="46"/>
-      <c r="E273"/>
+      <c r="D273" s="41"/>
+      <c r="E273" s="52"/>
       <c r="F273"/>
       <c r="H273"/>
       <c r="I273"/>
@@ -7940,12 +8540,12 @@
       <c r="S273"/>
       <c r="T273"/>
     </row>
-    <row r="274" spans="1:20" ht="15">
+    <row r="274" spans="1:20">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
-      <c r="D274" s="46"/>
-      <c r="E274"/>
+      <c r="D274" s="41"/>
+      <c r="E274" s="52"/>
       <c r="F274"/>
       <c r="H274"/>
       <c r="I274"/>
@@ -7961,12 +8561,12 @@
       <c r="S274"/>
       <c r="T274"/>
     </row>
-    <row r="275" spans="1:20" ht="15">
+    <row r="275" spans="1:20">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
-      <c r="D275" s="46"/>
-      <c r="E275"/>
+      <c r="D275" s="41"/>
+      <c r="E275" s="52"/>
       <c r="F275"/>
       <c r="H275"/>
       <c r="I275"/>
@@ -7982,12 +8582,12 @@
       <c r="S275"/>
       <c r="T275"/>
     </row>
-    <row r="276" spans="1:20" ht="15">
+    <row r="276" spans="1:20">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
-      <c r="D276" s="46"/>
-      <c r="E276"/>
+      <c r="D276" s="41"/>
+      <c r="E276" s="52"/>
       <c r="F276"/>
       <c r="H276"/>
       <c r="I276"/>
@@ -8003,12 +8603,12 @@
       <c r="S276"/>
       <c r="T276"/>
     </row>
-    <row r="277" spans="1:20" ht="15">
+    <row r="277" spans="1:20">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
-      <c r="D277" s="46"/>
-      <c r="E277"/>
+      <c r="D277" s="41"/>
+      <c r="E277" s="52"/>
       <c r="F277"/>
       <c r="H277"/>
       <c r="I277"/>
@@ -8024,12 +8624,12 @@
       <c r="S277"/>
       <c r="T277"/>
     </row>
-    <row r="278" spans="1:20" ht="15">
+    <row r="278" spans="1:20">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
-      <c r="D278" s="46"/>
-      <c r="E278"/>
+      <c r="D278" s="41"/>
+      <c r="E278" s="52"/>
       <c r="F278"/>
       <c r="H278"/>
       <c r="I278"/>
@@ -8045,12 +8645,12 @@
       <c r="S278"/>
       <c r="T278"/>
     </row>
-    <row r="279" spans="1:20" ht="15">
+    <row r="279" spans="1:20">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
-      <c r="D279" s="46"/>
-      <c r="E279"/>
+      <c r="D279" s="41"/>
+      <c r="E279" s="52"/>
       <c r="F279"/>
       <c r="H279"/>
       <c r="I279"/>
@@ -8066,12 +8666,12 @@
       <c r="S279"/>
       <c r="T279"/>
     </row>
-    <row r="280" spans="1:20" ht="15">
+    <row r="280" spans="1:20">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
-      <c r="D280" s="46"/>
-      <c r="E280"/>
+      <c r="D280" s="41"/>
+      <c r="E280" s="52"/>
       <c r="F280"/>
       <c r="H280"/>
       <c r="I280"/>
@@ -8087,12 +8687,12 @@
       <c r="S280"/>
       <c r="T280"/>
     </row>
-    <row r="281" spans="1:20" ht="15">
+    <row r="281" spans="1:20">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
-      <c r="D281" s="46"/>
-      <c r="E281"/>
+      <c r="D281" s="41"/>
+      <c r="E281" s="52"/>
       <c r="F281"/>
       <c r="H281"/>
       <c r="I281"/>
@@ -8108,12 +8708,12 @@
       <c r="S281"/>
       <c r="T281"/>
     </row>
-    <row r="282" spans="1:20" ht="15">
+    <row r="282" spans="1:20">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
-      <c r="D282" s="46"/>
-      <c r="E282"/>
+      <c r="D282" s="41"/>
+      <c r="E282" s="52"/>
       <c r="F282"/>
       <c r="H282"/>
       <c r="I282"/>
@@ -8129,12 +8729,12 @@
       <c r="S282"/>
       <c r="T282"/>
     </row>
-    <row r="283" spans="1:20" ht="15">
+    <row r="283" spans="1:20">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
-      <c r="D283" s="46"/>
-      <c r="E283"/>
+      <c r="D283" s="41"/>
+      <c r="E283" s="52"/>
       <c r="F283"/>
       <c r="H283"/>
       <c r="I283"/>
@@ -8150,12 +8750,12 @@
       <c r="S283"/>
       <c r="T283"/>
     </row>
-    <row r="284" spans="1:20" ht="15">
+    <row r="284" spans="1:20">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
-      <c r="D284" s="46"/>
-      <c r="E284"/>
+      <c r="D284" s="41"/>
+      <c r="E284" s="52"/>
       <c r="F284"/>
       <c r="H284"/>
       <c r="I284"/>
@@ -8171,12 +8771,12 @@
       <c r="S284"/>
       <c r="T284"/>
     </row>
-    <row r="285" spans="1:20" ht="15">
+    <row r="285" spans="1:20">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
-      <c r="D285" s="46"/>
-      <c r="E285"/>
+      <c r="D285" s="41"/>
+      <c r="E285" s="52"/>
       <c r="F285"/>
       <c r="H285"/>
       <c r="I285"/>
@@ -8192,12 +8792,12 @@
       <c r="S285"/>
       <c r="T285"/>
     </row>
-    <row r="286" spans="1:20" ht="15">
+    <row r="286" spans="1:20">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
-      <c r="D286" s="46"/>
-      <c r="E286"/>
+      <c r="D286" s="41"/>
+      <c r="E286" s="52"/>
       <c r="F286"/>
       <c r="H286"/>
       <c r="I286"/>
@@ -8213,12 +8813,12 @@
       <c r="S286"/>
       <c r="T286"/>
     </row>
-    <row r="287" spans="1:20" ht="15">
+    <row r="287" spans="1:20">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="46"/>
-      <c r="E287"/>
+      <c r="D287" s="41"/>
+      <c r="E287" s="52"/>
       <c r="F287"/>
       <c r="H287"/>
       <c r="I287"/>
@@ -8234,12 +8834,12 @@
       <c r="S287"/>
       <c r="T287"/>
     </row>
-    <row r="288" spans="1:20" ht="15">
+    <row r="288" spans="1:20">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
-      <c r="D288" s="46"/>
-      <c r="E288"/>
+      <c r="D288" s="41"/>
+      <c r="E288" s="52"/>
       <c r="F288"/>
       <c r="H288"/>
       <c r="I288"/>
@@ -8255,12 +8855,12 @@
       <c r="S288"/>
       <c r="T288"/>
     </row>
-    <row r="289" spans="1:20" ht="15">
+    <row r="289" spans="1:20">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
-      <c r="D289" s="46"/>
-      <c r="E289"/>
+      <c r="D289" s="41"/>
+      <c r="E289" s="52"/>
       <c r="F289"/>
       <c r="H289"/>
       <c r="I289"/>
@@ -8276,12 +8876,12 @@
       <c r="S289"/>
       <c r="T289"/>
     </row>
-    <row r="290" spans="1:20" ht="15">
+    <row r="290" spans="1:20">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
-      <c r="D290" s="46"/>
-      <c r="E290"/>
+      <c r="D290" s="41"/>
+      <c r="E290" s="52"/>
       <c r="F290"/>
       <c r="H290"/>
       <c r="I290"/>
@@ -8297,12 +8897,12 @@
       <c r="S290"/>
       <c r="T290"/>
     </row>
-    <row r="291" spans="1:20" ht="15">
+    <row r="291" spans="1:20">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
-      <c r="D291" s="46"/>
-      <c r="E291"/>
+      <c r="D291" s="41"/>
+      <c r="E291" s="52"/>
       <c r="F291"/>
       <c r="H291"/>
       <c r="I291"/>
@@ -8318,12 +8918,12 @@
       <c r="S291"/>
       <c r="T291"/>
     </row>
-    <row r="292" spans="1:20" ht="15">
+    <row r="292" spans="1:20">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
-      <c r="D292" s="46"/>
-      <c r="E292"/>
+      <c r="D292" s="41"/>
+      <c r="E292" s="52"/>
       <c r="F292"/>
       <c r="H292"/>
       <c r="I292"/>
@@ -8339,12 +8939,12 @@
       <c r="S292"/>
       <c r="T292"/>
     </row>
-    <row r="293" spans="1:20" ht="15">
+    <row r="293" spans="1:20">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
-      <c r="D293" s="46"/>
-      <c r="E293"/>
+      <c r="D293" s="41"/>
+      <c r="E293" s="52"/>
       <c r="F293"/>
       <c r="H293"/>
       <c r="I293"/>
@@ -8360,12 +8960,12 @@
       <c r="S293"/>
       <c r="T293"/>
     </row>
-    <row r="294" spans="1:20" ht="15">
+    <row r="294" spans="1:20">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
-      <c r="D294" s="46"/>
-      <c r="E294"/>
+      <c r="D294" s="41"/>
+      <c r="E294" s="52"/>
       <c r="F294"/>
       <c r="H294"/>
       <c r="I294"/>
@@ -8381,12 +8981,12 @@
       <c r="S294"/>
       <c r="T294"/>
     </row>
-    <row r="295" spans="1:20" ht="15">
+    <row r="295" spans="1:20">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
-      <c r="D295" s="46"/>
-      <c r="E295"/>
+      <c r="D295" s="41"/>
+      <c r="E295" s="52"/>
       <c r="F295"/>
       <c r="H295"/>
       <c r="I295"/>
@@ -8402,12 +9002,12 @@
       <c r="S295"/>
       <c r="T295"/>
     </row>
-    <row r="296" spans="1:20" ht="15">
+    <row r="296" spans="1:20">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
-      <c r="D296" s="46"/>
-      <c r="E296"/>
+      <c r="D296" s="41"/>
+      <c r="E296" s="52"/>
       <c r="F296"/>
       <c r="H296"/>
       <c r="I296"/>
@@ -8423,12 +9023,12 @@
       <c r="S296"/>
       <c r="T296"/>
     </row>
-    <row r="297" spans="1:20" ht="15">
+    <row r="297" spans="1:20">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
-      <c r="D297" s="46"/>
-      <c r="E297"/>
+      <c r="D297" s="41"/>
+      <c r="E297" s="52"/>
       <c r="F297"/>
       <c r="H297"/>
       <c r="I297"/>
@@ -8444,12 +9044,12 @@
       <c r="S297"/>
       <c r="T297"/>
     </row>
-    <row r="298" spans="1:20" ht="15">
+    <row r="298" spans="1:20">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
-      <c r="D298" s="46"/>
-      <c r="E298"/>
+      <c r="D298" s="41"/>
+      <c r="E298" s="52"/>
       <c r="F298"/>
       <c r="H298"/>
       <c r="I298"/>
@@ -8465,12 +9065,12 @@
       <c r="S298"/>
       <c r="T298"/>
     </row>
-    <row r="299" spans="1:20" ht="15">
+    <row r="299" spans="1:20">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
-      <c r="D299" s="46"/>
-      <c r="E299"/>
+      <c r="D299" s="41"/>
+      <c r="E299" s="52"/>
       <c r="F299"/>
       <c r="H299"/>
       <c r="I299"/>
@@ -8486,12 +9086,12 @@
       <c r="S299"/>
       <c r="T299"/>
     </row>
-    <row r="300" spans="1:20" ht="15">
+    <row r="300" spans="1:20">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
-      <c r="D300" s="46"/>
-      <c r="E300"/>
+      <c r="D300" s="41"/>
+      <c r="E300" s="52"/>
       <c r="F300"/>
       <c r="H300"/>
       <c r="I300"/>
@@ -8507,12 +9107,12 @@
       <c r="S300"/>
       <c r="T300"/>
     </row>
-    <row r="301" spans="1:20" ht="15">
+    <row r="301" spans="1:20">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
-      <c r="D301" s="46"/>
-      <c r="E301"/>
+      <c r="D301" s="41"/>
+      <c r="E301" s="52"/>
       <c r="F301"/>
       <c r="H301"/>
       <c r="I301"/>
@@ -8528,12 +9128,12 @@
       <c r="S301"/>
       <c r="T301"/>
     </row>
-    <row r="302" spans="1:20" ht="15">
+    <row r="302" spans="1:20">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
-      <c r="D302" s="46"/>
-      <c r="E302"/>
+      <c r="D302" s="41"/>
+      <c r="E302" s="52"/>
       <c r="F302"/>
       <c r="H302"/>
       <c r="I302"/>
@@ -8549,12 +9149,12 @@
       <c r="S302"/>
       <c r="T302"/>
     </row>
-    <row r="303" spans="1:20" ht="15">
+    <row r="303" spans="1:20">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
-      <c r="D303" s="46"/>
-      <c r="E303"/>
+      <c r="D303" s="41"/>
+      <c r="E303" s="52"/>
       <c r="F303"/>
       <c r="H303"/>
       <c r="I303"/>
@@ -8570,12 +9170,12 @@
       <c r="S303"/>
       <c r="T303"/>
     </row>
-    <row r="304" spans="1:20" ht="15">
+    <row r="304" spans="1:20">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
-      <c r="D304" s="46"/>
-      <c r="E304"/>
+      <c r="D304" s="41"/>
+      <c r="E304" s="52"/>
       <c r="F304"/>
       <c r="H304"/>
       <c r="I304"/>
@@ -8591,12 +9191,12 @@
       <c r="S304"/>
       <c r="T304"/>
     </row>
-    <row r="305" spans="1:20" ht="15">
+    <row r="305" spans="1:20">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
-      <c r="D305" s="46"/>
-      <c r="E305"/>
+      <c r="D305" s="41"/>
+      <c r="E305" s="52"/>
       <c r="F305"/>
       <c r="H305"/>
       <c r="I305"/>
@@ -8612,12 +9212,12 @@
       <c r="S305"/>
       <c r="T305"/>
     </row>
-    <row r="306" spans="1:20" ht="15">
+    <row r="306" spans="1:20">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
-      <c r="D306" s="46"/>
-      <c r="E306"/>
+      <c r="D306" s="41"/>
+      <c r="E306" s="52"/>
       <c r="F306"/>
       <c r="H306"/>
       <c r="I306"/>
@@ -8633,12 +9233,12 @@
       <c r="S306"/>
       <c r="T306"/>
     </row>
-    <row r="307" spans="1:20" ht="15">
+    <row r="307" spans="1:20">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
-      <c r="D307" s="46"/>
-      <c r="E307"/>
+      <c r="D307" s="41"/>
+      <c r="E307" s="52"/>
       <c r="F307"/>
       <c r="H307"/>
       <c r="I307"/>
@@ -8654,12 +9254,12 @@
       <c r="S307"/>
       <c r="T307"/>
     </row>
-    <row r="308" spans="1:20" ht="15">
+    <row r="308" spans="1:20">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
-      <c r="D308" s="46"/>
-      <c r="E308"/>
+      <c r="D308" s="41"/>
+      <c r="E308" s="52"/>
       <c r="F308"/>
       <c r="H308"/>
       <c r="I308"/>
@@ -8675,12 +9275,12 @@
       <c r="S308"/>
       <c r="T308"/>
     </row>
-    <row r="309" spans="1:20" ht="15">
+    <row r="309" spans="1:20">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
-      <c r="D309" s="46"/>
-      <c r="E309"/>
+      <c r="D309" s="41"/>
+      <c r="E309" s="52"/>
       <c r="F309"/>
       <c r="H309"/>
       <c r="I309"/>
@@ -8696,12 +9296,12 @@
       <c r="S309"/>
       <c r="T309"/>
     </row>
-    <row r="310" spans="1:20" ht="15">
+    <row r="310" spans="1:20">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="46"/>
-      <c r="E310"/>
+      <c r="D310" s="41"/>
+      <c r="E310" s="52"/>
       <c r="F310"/>
       <c r="H310"/>
       <c r="I310"/>
@@ -8717,12 +9317,12 @@
       <c r="S310"/>
       <c r="T310"/>
     </row>
-    <row r="311" spans="1:20" ht="15">
+    <row r="311" spans="1:20">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
-      <c r="D311" s="46"/>
-      <c r="E311"/>
+      <c r="D311" s="41"/>
+      <c r="E311" s="52"/>
       <c r="F311"/>
       <c r="H311"/>
       <c r="I311"/>
@@ -8738,12 +9338,12 @@
       <c r="S311"/>
       <c r="T311"/>
     </row>
-    <row r="312" spans="1:20" ht="15">
+    <row r="312" spans="1:20">
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
-      <c r="D312" s="46"/>
-      <c r="E312"/>
+      <c r="D312" s="41"/>
+      <c r="E312" s="52"/>
       <c r="F312"/>
       <c r="H312"/>
       <c r="I312"/>
@@ -8759,12 +9359,12 @@
       <c r="S312"/>
       <c r="T312"/>
     </row>
-    <row r="313" spans="1:20" ht="15">
+    <row r="313" spans="1:20">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
-      <c r="D313" s="46"/>
-      <c r="E313"/>
+      <c r="D313" s="41"/>
+      <c r="E313" s="52"/>
       <c r="F313"/>
       <c r="H313"/>
       <c r="I313"/>
@@ -8780,12 +9380,12 @@
       <c r="S313"/>
       <c r="T313"/>
     </row>
-    <row r="314" spans="1:20" ht="15">
+    <row r="314" spans="1:20">
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
-      <c r="D314" s="46"/>
-      <c r="E314"/>
+      <c r="D314" s="41"/>
+      <c r="E314" s="52"/>
       <c r="F314"/>
       <c r="H314"/>
       <c r="I314"/>
@@ -8801,12 +9401,12 @@
       <c r="S314"/>
       <c r="T314"/>
     </row>
-    <row r="315" spans="1:20" ht="15">
+    <row r="315" spans="1:20">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
-      <c r="D315" s="46"/>
-      <c r="E315"/>
+      <c r="D315" s="41"/>
+      <c r="E315" s="52"/>
       <c r="F315"/>
       <c r="H315"/>
       <c r="I315"/>
@@ -8822,12 +9422,12 @@
       <c r="S315"/>
       <c r="T315"/>
     </row>
-    <row r="316" spans="1:20" ht="15">
+    <row r="316" spans="1:20">
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
-      <c r="D316" s="46"/>
-      <c r="E316"/>
+      <c r="D316" s="41"/>
+      <c r="E316" s="52"/>
       <c r="F316"/>
       <c r="H316"/>
       <c r="I316"/>
@@ -8843,12 +9443,12 @@
       <c r="S316"/>
       <c r="T316"/>
     </row>
-    <row r="317" spans="1:20" ht="15">
+    <row r="317" spans="1:20">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
-      <c r="D317" s="46"/>
-      <c r="E317"/>
+      <c r="D317" s="41"/>
+      <c r="E317" s="52"/>
       <c r="F317"/>
       <c r="H317"/>
       <c r="I317"/>
@@ -8864,12 +9464,12 @@
       <c r="S317"/>
       <c r="T317"/>
     </row>
-    <row r="318" spans="1:20" ht="15">
+    <row r="318" spans="1:20">
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
-      <c r="D318" s="46"/>
-      <c r="E318"/>
+      <c r="D318" s="41"/>
+      <c r="E318" s="52"/>
       <c r="F318"/>
       <c r="H318"/>
       <c r="I318"/>
@@ -8885,12 +9485,12 @@
       <c r="S318"/>
       <c r="T318"/>
     </row>
-    <row r="319" spans="1:20" ht="15">
+    <row r="319" spans="1:20">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
-      <c r="D319" s="46"/>
-      <c r="E319"/>
+      <c r="D319" s="41"/>
+      <c r="E319" s="52"/>
       <c r="F319"/>
       <c r="H319"/>
       <c r="I319"/>
@@ -8906,12 +9506,12 @@
       <c r="S319"/>
       <c r="T319"/>
     </row>
-    <row r="320" spans="1:20" ht="15">
+    <row r="320" spans="1:20">
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
-      <c r="D320" s="46"/>
-      <c r="E320"/>
+      <c r="D320" s="41"/>
+      <c r="E320" s="52"/>
       <c r="F320"/>
       <c r="H320"/>
       <c r="I320"/>
@@ -8927,12 +9527,12 @@
       <c r="S320"/>
       <c r="T320"/>
     </row>
-    <row r="321" spans="1:20" ht="15">
+    <row r="321" spans="1:20">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
-      <c r="D321" s="46"/>
-      <c r="E321"/>
+      <c r="D321" s="41"/>
+      <c r="E321" s="52"/>
       <c r="F321"/>
       <c r="H321"/>
       <c r="I321"/>
@@ -8948,12 +9548,12 @@
       <c r="S321"/>
       <c r="T321"/>
     </row>
-    <row r="322" spans="1:20" ht="15">
+    <row r="322" spans="1:20">
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
-      <c r="D322" s="46"/>
-      <c r="E322"/>
+      <c r="D322" s="41"/>
+      <c r="E322" s="52"/>
       <c r="F322"/>
       <c r="H322"/>
       <c r="I322"/>
@@ -8969,12 +9569,12 @@
       <c r="S322"/>
       <c r="T322"/>
     </row>
-    <row r="323" spans="1:20" ht="15">
+    <row r="323" spans="1:20">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
-      <c r="D323" s="46"/>
-      <c r="E323"/>
+      <c r="D323" s="41"/>
+      <c r="E323" s="52"/>
       <c r="F323"/>
       <c r="H323"/>
       <c r="I323"/>
@@ -8990,12 +9590,12 @@
       <c r="S323"/>
       <c r="T323"/>
     </row>
-    <row r="324" spans="1:20" ht="15">
+    <row r="324" spans="1:20">
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
-      <c r="D324" s="46"/>
-      <c r="E324"/>
+      <c r="D324" s="41"/>
+      <c r="E324" s="52"/>
       <c r="F324"/>
       <c r="H324"/>
       <c r="I324"/>
@@ -9011,12 +9611,12 @@
       <c r="S324"/>
       <c r="T324"/>
     </row>
-    <row r="325" spans="1:20" ht="15">
+    <row r="325" spans="1:20">
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
-      <c r="D325" s="46"/>
-      <c r="E325"/>
+      <c r="D325" s="41"/>
+      <c r="E325" s="52"/>
       <c r="F325"/>
       <c r="H325"/>
       <c r="I325"/>
@@ -9032,12 +9632,12 @@
       <c r="S325"/>
       <c r="T325"/>
     </row>
-    <row r="326" spans="1:20" ht="15">
+    <row r="326" spans="1:20">
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
-      <c r="D326" s="46"/>
-      <c r="E326"/>
+      <c r="D326" s="41"/>
+      <c r="E326" s="52"/>
       <c r="F326"/>
       <c r="H326"/>
       <c r="I326"/>
@@ -9053,12 +9653,12 @@
       <c r="S326"/>
       <c r="T326"/>
     </row>
-    <row r="327" spans="1:20" ht="15">
+    <row r="327" spans="1:20">
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
-      <c r="D327" s="46"/>
-      <c r="E327"/>
+      <c r="D327" s="41"/>
+      <c r="E327" s="52"/>
       <c r="F327"/>
       <c r="H327"/>
       <c r="I327"/>
@@ -9074,12 +9674,12 @@
       <c r="S327"/>
       <c r="T327"/>
     </row>
-    <row r="328" spans="1:20" ht="15">
+    <row r="328" spans="1:20">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
-      <c r="D328" s="46"/>
-      <c r="E328"/>
+      <c r="D328" s="41"/>
+      <c r="E328" s="52"/>
       <c r="F328"/>
       <c r="H328"/>
       <c r="I328"/>
@@ -9095,12 +9695,12 @@
       <c r="S328"/>
       <c r="T328"/>
     </row>
-    <row r="329" spans="1:20" ht="15">
+    <row r="329" spans="1:20">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
-      <c r="D329" s="46"/>
-      <c r="E329"/>
+      <c r="D329" s="41"/>
+      <c r="E329" s="52"/>
       <c r="F329"/>
       <c r="H329"/>
       <c r="I329"/>
@@ -9116,12 +9716,12 @@
       <c r="S329"/>
       <c r="T329"/>
     </row>
-    <row r="330" spans="1:20" ht="15">
+    <row r="330" spans="1:20">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
-      <c r="D330" s="46"/>
-      <c r="E330"/>
+      <c r="D330" s="41"/>
+      <c r="E330" s="52"/>
       <c r="F330"/>
       <c r="H330"/>
       <c r="I330"/>
@@ -9137,12 +9737,12 @@
       <c r="S330"/>
       <c r="T330"/>
     </row>
-    <row r="331" spans="1:20" ht="15">
+    <row r="331" spans="1:20">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
-      <c r="D331" s="46"/>
-      <c r="E331"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="52"/>
       <c r="F331"/>
       <c r="H331"/>
       <c r="I331"/>
@@ -9158,12 +9758,12 @@
       <c r="S331"/>
       <c r="T331"/>
     </row>
-    <row r="332" spans="1:20" ht="15">
+    <row r="332" spans="1:20">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
-      <c r="D332" s="46"/>
-      <c r="E332"/>
+      <c r="D332" s="41"/>
+      <c r="E332" s="52"/>
       <c r="F332"/>
       <c r="H332"/>
       <c r="I332"/>
@@ -9179,12 +9779,12 @@
       <c r="S332"/>
       <c r="T332"/>
     </row>
-    <row r="333" spans="1:20" ht="15">
+    <row r="333" spans="1:20">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="46"/>
-      <c r="E333"/>
+      <c r="D333" s="41"/>
+      <c r="E333" s="52"/>
       <c r="F333"/>
       <c r="H333"/>
       <c r="I333"/>
@@ -9200,12 +9800,12 @@
       <c r="S333"/>
       <c r="T333"/>
     </row>
-    <row r="334" spans="1:20" ht="15">
+    <row r="334" spans="1:20">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
-      <c r="D334" s="46"/>
-      <c r="E334"/>
+      <c r="D334" s="41"/>
+      <c r="E334" s="52"/>
       <c r="F334"/>
       <c r="H334"/>
       <c r="I334"/>
@@ -9221,12 +9821,12 @@
       <c r="S334"/>
       <c r="T334"/>
     </row>
-    <row r="335" spans="1:20" ht="15">
+    <row r="335" spans="1:20">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
-      <c r="D335" s="46"/>
-      <c r="E335"/>
+      <c r="D335" s="41"/>
+      <c r="E335" s="52"/>
       <c r="F335"/>
       <c r="H335"/>
       <c r="I335"/>
@@ -9242,12 +9842,12 @@
       <c r="S335"/>
       <c r="T335"/>
     </row>
-    <row r="336" spans="1:20" ht="15">
+    <row r="336" spans="1:20">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
-      <c r="D336" s="46"/>
-      <c r="E336"/>
+      <c r="D336" s="41"/>
+      <c r="E336" s="52"/>
       <c r="F336"/>
       <c r="H336"/>
       <c r="I336"/>
@@ -9263,12 +9863,12 @@
       <c r="S336"/>
       <c r="T336"/>
     </row>
-    <row r="337" spans="1:20" ht="15">
+    <row r="337" spans="1:20">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
-      <c r="D337" s="46"/>
-      <c r="E337"/>
+      <c r="D337" s="41"/>
+      <c r="E337" s="52"/>
       <c r="F337"/>
       <c r="H337"/>
       <c r="I337"/>
@@ -9284,12 +9884,12 @@
       <c r="S337"/>
       <c r="T337"/>
     </row>
-    <row r="338" spans="1:20" ht="15">
+    <row r="338" spans="1:20">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
-      <c r="D338" s="46"/>
-      <c r="E338"/>
+      <c r="D338" s="41"/>
+      <c r="E338" s="52"/>
       <c r="F338"/>
       <c r="H338"/>
       <c r="I338"/>
@@ -9305,12 +9905,12 @@
       <c r="S338"/>
       <c r="T338"/>
     </row>
-    <row r="339" spans="1:20" ht="15">
+    <row r="339" spans="1:20">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
-      <c r="D339" s="46"/>
-      <c r="E339"/>
+      <c r="D339" s="41"/>
+      <c r="E339" s="52"/>
       <c r="F339"/>
       <c r="H339"/>
       <c r="I339"/>
@@ -9326,12 +9926,12 @@
       <c r="S339"/>
       <c r="T339"/>
     </row>
-    <row r="340" spans="1:20" ht="15">
+    <row r="340" spans="1:20">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
-      <c r="D340" s="46"/>
-      <c r="E340"/>
+      <c r="D340" s="41"/>
+      <c r="E340" s="52"/>
       <c r="F340"/>
       <c r="H340"/>
       <c r="I340"/>
@@ -9347,12 +9947,12 @@
       <c r="S340"/>
       <c r="T340"/>
     </row>
-    <row r="341" spans="1:20" ht="15">
+    <row r="341" spans="1:20">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
-      <c r="D341" s="46"/>
-      <c r="E341"/>
+      <c r="D341" s="41"/>
+      <c r="E341" s="52"/>
       <c r="F341"/>
       <c r="H341"/>
       <c r="I341"/>
@@ -9368,12 +9968,12 @@
       <c r="S341"/>
       <c r="T341"/>
     </row>
-    <row r="342" spans="1:20" ht="15">
+    <row r="342" spans="1:20">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
-      <c r="D342" s="46"/>
-      <c r="E342"/>
+      <c r="D342" s="41"/>
+      <c r="E342" s="52"/>
       <c r="F342"/>
       <c r="H342"/>
       <c r="I342"/>
@@ -9389,12 +9989,12 @@
       <c r="S342"/>
       <c r="T342"/>
     </row>
-    <row r="343" spans="1:20" ht="15">
+    <row r="343" spans="1:20">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
-      <c r="D343" s="46"/>
-      <c r="E343"/>
+      <c r="D343" s="41"/>
+      <c r="E343" s="52"/>
       <c r="F343"/>
       <c r="H343"/>
       <c r="I343"/>
@@ -9410,12 +10010,12 @@
       <c r="S343"/>
       <c r="T343"/>
     </row>
-    <row r="344" spans="1:20" ht="15">
+    <row r="344" spans="1:20">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
-      <c r="D344" s="46"/>
-      <c r="E344"/>
+      <c r="D344" s="41"/>
+      <c r="E344" s="52"/>
       <c r="F344"/>
       <c r="H344"/>
       <c r="I344"/>
@@ -9431,12 +10031,12 @@
       <c r="S344"/>
       <c r="T344"/>
     </row>
-    <row r="345" spans="1:20" ht="15">
+    <row r="345" spans="1:20">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
-      <c r="D345" s="46"/>
-      <c r="E345"/>
+      <c r="D345" s="41"/>
+      <c r="E345" s="52"/>
       <c r="F345"/>
       <c r="H345"/>
       <c r="I345"/>
@@ -9452,12 +10052,12 @@
       <c r="S345"/>
       <c r="T345"/>
     </row>
-    <row r="346" spans="1:20" ht="15">
+    <row r="346" spans="1:20">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
-      <c r="D346" s="46"/>
-      <c r="E346"/>
+      <c r="D346" s="41"/>
+      <c r="E346" s="52"/>
       <c r="F346"/>
       <c r="H346"/>
       <c r="I346"/>
@@ -9473,12 +10073,12 @@
       <c r="S346"/>
       <c r="T346"/>
     </row>
-    <row r="347" spans="1:20" ht="15">
+    <row r="347" spans="1:20">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
-      <c r="D347" s="46"/>
-      <c r="E347"/>
+      <c r="D347" s="41"/>
+      <c r="E347" s="52"/>
       <c r="F347"/>
       <c r="H347"/>
       <c r="I347"/>
@@ -9494,12 +10094,12 @@
       <c r="S347"/>
       <c r="T347"/>
     </row>
-    <row r="348" spans="1:20" ht="15">
+    <row r="348" spans="1:20">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
-      <c r="D348" s="46"/>
-      <c r="E348"/>
+      <c r="D348" s="41"/>
+      <c r="E348" s="52"/>
       <c r="F348"/>
       <c r="H348"/>
       <c r="I348"/>
@@ -9515,12 +10115,12 @@
       <c r="S348"/>
       <c r="T348"/>
     </row>
-    <row r="349" spans="1:20" ht="15">
+    <row r="349" spans="1:20">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
-      <c r="D349" s="46"/>
-      <c r="E349"/>
+      <c r="D349" s="41"/>
+      <c r="E349" s="52"/>
       <c r="F349"/>
       <c r="H349"/>
       <c r="I349"/>
@@ -9536,12 +10136,12 @@
       <c r="S349"/>
       <c r="T349"/>
     </row>
-    <row r="350" spans="1:20" ht="15">
+    <row r="350" spans="1:20">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
-      <c r="D350" s="46"/>
-      <c r="E350"/>
+      <c r="D350" s="41"/>
+      <c r="E350" s="52"/>
       <c r="F350"/>
       <c r="H350"/>
       <c r="I350"/>
@@ -9557,12 +10157,12 @@
       <c r="S350"/>
       <c r="T350"/>
     </row>
-    <row r="351" spans="1:20" ht="15">
+    <row r="351" spans="1:20">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
-      <c r="D351" s="46"/>
-      <c r="E351"/>
+      <c r="D351" s="41"/>
+      <c r="E351" s="52"/>
       <c r="F351"/>
       <c r="H351"/>
       <c r="I351"/>
@@ -9578,12 +10178,12 @@
       <c r="S351"/>
       <c r="T351"/>
     </row>
-    <row r="352" spans="1:20" ht="15">
+    <row r="352" spans="1:20">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
-      <c r="D352" s="46"/>
-      <c r="E352"/>
+      <c r="D352" s="41"/>
+      <c r="E352" s="52"/>
       <c r="F352"/>
       <c r="H352"/>
       <c r="I352"/>
@@ -9599,12 +10199,12 @@
       <c r="S352"/>
       <c r="T352"/>
     </row>
-    <row r="353" spans="1:20" ht="15">
+    <row r="353" spans="1:20">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
-      <c r="D353" s="46"/>
-      <c r="E353"/>
+      <c r="D353" s="41"/>
+      <c r="E353" s="52"/>
       <c r="F353"/>
       <c r="H353"/>
       <c r="I353"/>
@@ -9620,12 +10220,12 @@
       <c r="S353"/>
       <c r="T353"/>
     </row>
-    <row r="354" spans="1:20" ht="15">
+    <row r="354" spans="1:20">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
-      <c r="D354" s="46"/>
-      <c r="E354"/>
+      <c r="D354" s="41"/>
+      <c r="E354" s="52"/>
       <c r="F354"/>
       <c r="H354"/>
       <c r="I354"/>
@@ -9641,12 +10241,12 @@
       <c r="S354"/>
       <c r="T354"/>
     </row>
-    <row r="355" spans="1:20" ht="15">
+    <row r="355" spans="1:20">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
-      <c r="D355" s="46"/>
-      <c r="E355"/>
+      <c r="D355" s="41"/>
+      <c r="E355" s="52"/>
       <c r="F355"/>
       <c r="H355"/>
       <c r="I355"/>
@@ -9662,12 +10262,12 @@
       <c r="S355"/>
       <c r="T355"/>
     </row>
-    <row r="356" spans="1:20" ht="15">
+    <row r="356" spans="1:20">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="46"/>
-      <c r="E356"/>
+      <c r="D356" s="41"/>
+      <c r="E356" s="52"/>
       <c r="F356"/>
       <c r="H356"/>
       <c r="I356"/>
@@ -9683,12 +10283,12 @@
       <c r="S356"/>
       <c r="T356"/>
     </row>
-    <row r="357" spans="1:20" ht="15">
+    <row r="357" spans="1:20">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
-      <c r="D357" s="46"/>
-      <c r="E357"/>
+      <c r="D357" s="41"/>
+      <c r="E357" s="52"/>
       <c r="F357"/>
       <c r="H357"/>
       <c r="I357"/>
@@ -9704,12 +10304,12 @@
       <c r="S357"/>
       <c r="T357"/>
     </row>
-    <row r="358" spans="1:20" ht="15">
+    <row r="358" spans="1:20">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
-      <c r="D358" s="46"/>
-      <c r="E358"/>
+      <c r="D358" s="41"/>
+      <c r="E358" s="52"/>
       <c r="F358"/>
       <c r="H358"/>
       <c r="I358"/>
@@ -9725,12 +10325,12 @@
       <c r="S358"/>
       <c r="T358"/>
     </row>
-    <row r="359" spans="1:20" ht="15">
+    <row r="359" spans="1:20">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
-      <c r="D359" s="46"/>
-      <c r="E359"/>
+      <c r="D359" s="41"/>
+      <c r="E359" s="52"/>
       <c r="F359"/>
       <c r="H359"/>
       <c r="I359"/>
@@ -9746,12 +10346,12 @@
       <c r="S359"/>
       <c r="T359"/>
     </row>
-    <row r="360" spans="1:20" ht="15">
+    <row r="360" spans="1:20">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
-      <c r="D360" s="46"/>
-      <c r="E360"/>
+      <c r="D360" s="41"/>
+      <c r="E360" s="52"/>
       <c r="F360"/>
       <c r="H360"/>
       <c r="I360"/>
@@ -9767,12 +10367,12 @@
       <c r="S360"/>
       <c r="T360"/>
     </row>
-    <row r="361" spans="1:20" ht="15">
+    <row r="361" spans="1:20">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
-      <c r="D361" s="46"/>
-      <c r="E361"/>
+      <c r="D361" s="41"/>
+      <c r="E361" s="52"/>
       <c r="F361"/>
       <c r="H361"/>
       <c r="I361"/>
@@ -9788,12 +10388,12 @@
       <c r="S361"/>
       <c r="T361"/>
     </row>
-    <row r="362" spans="1:20" ht="15">
+    <row r="362" spans="1:20">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
-      <c r="D362" s="46"/>
-      <c r="E362"/>
+      <c r="D362" s="41"/>
+      <c r="E362" s="52"/>
       <c r="F362"/>
       <c r="H362"/>
       <c r="I362"/>
@@ -9809,12 +10409,12 @@
       <c r="S362"/>
       <c r="T362"/>
     </row>
-    <row r="363" spans="1:20" ht="15">
+    <row r="363" spans="1:20">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
-      <c r="D363" s="46"/>
-      <c r="E363"/>
+      <c r="D363" s="41"/>
+      <c r="E363" s="52"/>
       <c r="F363"/>
       <c r="H363"/>
       <c r="I363"/>
@@ -9830,12 +10430,12 @@
       <c r="S363"/>
       <c r="T363"/>
     </row>
-    <row r="364" spans="1:20" ht="15">
+    <row r="364" spans="1:20">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
-      <c r="D364" s="46"/>
-      <c r="E364"/>
+      <c r="D364" s="41"/>
+      <c r="E364" s="52"/>
       <c r="F364"/>
       <c r="H364"/>
       <c r="I364"/>
@@ -9851,12 +10451,12 @@
       <c r="S364"/>
       <c r="T364"/>
     </row>
-    <row r="365" spans="1:20" ht="15">
+    <row r="365" spans="1:20">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
-      <c r="D365" s="46"/>
-      <c r="E365"/>
+      <c r="D365" s="41"/>
+      <c r="E365" s="52"/>
       <c r="F365"/>
       <c r="H365"/>
       <c r="I365"/>
@@ -9872,12 +10472,12 @@
       <c r="S365"/>
       <c r="T365"/>
     </row>
-    <row r="366" spans="1:20" ht="15">
+    <row r="366" spans="1:20">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
-      <c r="D366" s="46"/>
-      <c r="E366"/>
+      <c r="D366" s="41"/>
+      <c r="E366" s="52"/>
       <c r="F366"/>
       <c r="H366"/>
       <c r="I366"/>
@@ -9893,12 +10493,12 @@
       <c r="S366"/>
       <c r="T366"/>
     </row>
-    <row r="367" spans="1:20" ht="15">
+    <row r="367" spans="1:20">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
-      <c r="D367" s="46"/>
-      <c r="E367"/>
+      <c r="D367" s="41"/>
+      <c r="E367" s="52"/>
       <c r="F367"/>
       <c r="H367"/>
       <c r="I367"/>
@@ -9914,12 +10514,12 @@
       <c r="S367"/>
       <c r="T367"/>
     </row>
-    <row r="368" spans="1:20" ht="15">
+    <row r="368" spans="1:20">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
-      <c r="D368" s="46"/>
-      <c r="E368"/>
+      <c r="D368" s="41"/>
+      <c r="E368" s="52"/>
       <c r="F368"/>
       <c r="H368"/>
       <c r="I368"/>
@@ -9935,12 +10535,12 @@
       <c r="S368"/>
       <c r="T368"/>
     </row>
-    <row r="369" spans="1:20" ht="15">
+    <row r="369" spans="1:20">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
-      <c r="D369" s="46"/>
-      <c r="E369"/>
+      <c r="D369" s="41"/>
+      <c r="E369" s="52"/>
       <c r="F369"/>
       <c r="H369"/>
       <c r="I369"/>
@@ -9956,12 +10556,12 @@
       <c r="S369"/>
       <c r="T369"/>
     </row>
-    <row r="370" spans="1:20" ht="15">
+    <row r="370" spans="1:20">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
-      <c r="D370" s="46"/>
-      <c r="E370"/>
+      <c r="D370" s="41"/>
+      <c r="E370" s="52"/>
       <c r="F370"/>
       <c r="H370"/>
       <c r="I370"/>
@@ -9977,12 +10577,12 @@
       <c r="S370"/>
       <c r="T370"/>
     </row>
-    <row r="371" spans="1:20" ht="15">
+    <row r="371" spans="1:20">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
-      <c r="D371" s="46"/>
-      <c r="E371"/>
+      <c r="D371" s="41"/>
+      <c r="E371" s="52"/>
       <c r="F371"/>
       <c r="H371"/>
       <c r="I371"/>
@@ -9998,12 +10598,12 @@
       <c r="S371"/>
       <c r="T371"/>
     </row>
-    <row r="372" spans="1:20" ht="15">
+    <row r="372" spans="1:20">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
-      <c r="D372" s="46"/>
-      <c r="E372"/>
+      <c r="D372" s="41"/>
+      <c r="E372" s="52"/>
       <c r="F372"/>
       <c r="H372"/>
       <c r="I372"/>
@@ -10019,12 +10619,12 @@
       <c r="S372"/>
       <c r="T372"/>
     </row>
-    <row r="373" spans="1:20" ht="15">
+    <row r="373" spans="1:20">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
-      <c r="D373" s="46"/>
-      <c r="E373"/>
+      <c r="D373" s="41"/>
+      <c r="E373" s="52"/>
       <c r="F373"/>
       <c r="H373"/>
       <c r="I373"/>
@@ -10040,12 +10640,12 @@
       <c r="S373"/>
       <c r="T373"/>
     </row>
-    <row r="374" spans="1:20" ht="15">
+    <row r="374" spans="1:20">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
-      <c r="D374" s="46"/>
-      <c r="E374"/>
+      <c r="D374" s="41"/>
+      <c r="E374" s="52"/>
       <c r="F374"/>
       <c r="H374"/>
       <c r="I374"/>
@@ -10061,12 +10661,12 @@
       <c r="S374"/>
       <c r="T374"/>
     </row>
-    <row r="375" spans="1:20" ht="15">
+    <row r="375" spans="1:20">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
-      <c r="D375" s="46"/>
-      <c r="E375"/>
+      <c r="D375" s="41"/>
+      <c r="E375" s="52"/>
       <c r="F375"/>
       <c r="H375"/>
       <c r="I375"/>
@@ -10082,12 +10682,12 @@
       <c r="S375"/>
       <c r="T375"/>
     </row>
-    <row r="376" spans="1:20" ht="15">
+    <row r="376" spans="1:20">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
-      <c r="D376" s="46"/>
-      <c r="E376"/>
+      <c r="D376" s="41"/>
+      <c r="E376" s="52"/>
       <c r="F376"/>
       <c r="H376"/>
       <c r="I376"/>
@@ -10103,12 +10703,12 @@
       <c r="S376"/>
       <c r="T376"/>
     </row>
-    <row r="377" spans="1:20" ht="15">
+    <row r="377" spans="1:20">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
-      <c r="D377" s="46"/>
-      <c r="E377"/>
+      <c r="D377" s="41"/>
+      <c r="E377" s="52"/>
       <c r="F377"/>
       <c r="H377"/>
       <c r="I377"/>
@@ -10124,12 +10724,12 @@
       <c r="S377"/>
       <c r="T377"/>
     </row>
-    <row r="378" spans="1:20" ht="15">
+    <row r="378" spans="1:20">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
-      <c r="D378" s="46"/>
-      <c r="E378"/>
+      <c r="D378" s="41"/>
+      <c r="E378" s="52"/>
       <c r="F378"/>
       <c r="H378"/>
       <c r="I378"/>
@@ -10145,12 +10745,12 @@
       <c r="S378"/>
       <c r="T378"/>
     </row>
-    <row r="379" spans="1:20" ht="15">
+    <row r="379" spans="1:20">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="46"/>
-      <c r="E379"/>
+      <c r="D379" s="41"/>
+      <c r="E379" s="52"/>
       <c r="F379"/>
       <c r="H379"/>
       <c r="I379"/>
@@ -10166,12 +10766,12 @@
       <c r="S379"/>
       <c r="T379"/>
     </row>
-    <row r="380" spans="1:20" ht="15">
+    <row r="380" spans="1:20">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
-      <c r="D380" s="46"/>
-      <c r="E380"/>
+      <c r="D380" s="41"/>
+      <c r="E380" s="52"/>
       <c r="F380"/>
       <c r="H380"/>
       <c r="I380"/>
@@ -10187,12 +10787,12 @@
       <c r="S380"/>
       <c r="T380"/>
     </row>
-    <row r="381" spans="1:20" ht="15">
+    <row r="381" spans="1:20">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
-      <c r="D381" s="46"/>
-      <c r="E381"/>
+      <c r="D381" s="41"/>
+      <c r="E381" s="52"/>
       <c r="F381"/>
       <c r="H381"/>
       <c r="I381"/>
@@ -10208,12 +10808,12 @@
       <c r="S381"/>
       <c r="T381"/>
     </row>
-    <row r="382" spans="1:20" ht="15">
+    <row r="382" spans="1:20">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
-      <c r="D382" s="46"/>
-      <c r="E382"/>
+      <c r="D382" s="41"/>
+      <c r="E382" s="52"/>
       <c r="F382"/>
       <c r="H382"/>
       <c r="I382"/>
@@ -10229,12 +10829,12 @@
       <c r="S382"/>
       <c r="T382"/>
     </row>
-    <row r="383" spans="1:20" ht="15">
+    <row r="383" spans="1:20">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
-      <c r="D383" s="46"/>
-      <c r="E383"/>
+      <c r="D383" s="41"/>
+      <c r="E383" s="52"/>
       <c r="F383"/>
       <c r="H383"/>
       <c r="I383"/>
@@ -10250,12 +10850,12 @@
       <c r="S383"/>
       <c r="T383"/>
     </row>
-    <row r="384" spans="1:20" ht="15">
+    <row r="384" spans="1:20">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
-      <c r="D384" s="46"/>
-      <c r="E384"/>
+      <c r="D384" s="41"/>
+      <c r="E384" s="52"/>
       <c r="F384"/>
       <c r="H384"/>
       <c r="I384"/>
@@ -10271,12 +10871,12 @@
       <c r="S384"/>
       <c r="T384"/>
     </row>
-    <row r="385" spans="1:20" ht="15">
+    <row r="385" spans="1:20">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
-      <c r="D385" s="46"/>
-      <c r="E385"/>
+      <c r="D385" s="41"/>
+      <c r="E385" s="52"/>
       <c r="F385"/>
       <c r="H385"/>
       <c r="I385"/>
@@ -10292,12 +10892,12 @@
       <c r="S385"/>
       <c r="T385"/>
     </row>
-    <row r="386" spans="1:20" ht="15">
+    <row r="386" spans="1:20">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
-      <c r="D386" s="46"/>
-      <c r="E386"/>
+      <c r="D386" s="41"/>
+      <c r="E386" s="52"/>
       <c r="F386"/>
       <c r="H386"/>
       <c r="I386"/>
@@ -10313,12 +10913,12 @@
       <c r="S386"/>
       <c r="T386"/>
     </row>
-    <row r="387" spans="1:20" ht="15">
+    <row r="387" spans="1:20">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
-      <c r="D387" s="46"/>
-      <c r="E387"/>
+      <c r="D387" s="41"/>
+      <c r="E387" s="52"/>
       <c r="F387"/>
       <c r="H387"/>
       <c r="I387"/>
@@ -10334,12 +10934,12 @@
       <c r="S387"/>
       <c r="T387"/>
     </row>
-    <row r="388" spans="1:20" ht="15">
+    <row r="388" spans="1:20">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
-      <c r="D388" s="46"/>
-      <c r="E388"/>
+      <c r="D388" s="41"/>
+      <c r="E388" s="52"/>
       <c r="F388"/>
       <c r="H388"/>
       <c r="I388"/>
@@ -10355,12 +10955,12 @@
       <c r="S388"/>
       <c r="T388"/>
     </row>
-    <row r="389" spans="1:20" ht="15">
+    <row r="389" spans="1:20">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
-      <c r="D389" s="46"/>
-      <c r="E389"/>
+      <c r="D389" s="41"/>
+      <c r="E389" s="52"/>
       <c r="F389"/>
       <c r="H389"/>
       <c r="I389"/>
@@ -10376,12 +10976,12 @@
       <c r="S389"/>
       <c r="T389"/>
     </row>
-    <row r="390" spans="1:20" ht="15">
+    <row r="390" spans="1:20">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
-      <c r="D390" s="46"/>
-      <c r="E390"/>
+      <c r="D390" s="41"/>
+      <c r="E390" s="52"/>
       <c r="F390"/>
       <c r="H390"/>
       <c r="I390"/>
@@ -10397,12 +10997,12 @@
       <c r="S390"/>
       <c r="T390"/>
     </row>
-    <row r="391" spans="1:20" ht="15">
+    <row r="391" spans="1:20">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
-      <c r="D391" s="46"/>
-      <c r="E391"/>
+      <c r="D391" s="41"/>
+      <c r="E391" s="52"/>
       <c r="F391"/>
       <c r="H391"/>
       <c r="I391"/>
@@ -10418,12 +11018,12 @@
       <c r="S391"/>
       <c r="T391"/>
     </row>
-    <row r="392" spans="1:20" ht="15">
+    <row r="392" spans="1:20">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
-      <c r="D392" s="46"/>
-      <c r="E392"/>
+      <c r="D392" s="41"/>
+      <c r="E392" s="52"/>
       <c r="F392"/>
       <c r="H392"/>
       <c r="I392"/>
@@ -10439,12 +11039,12 @@
       <c r="S392"/>
       <c r="T392"/>
     </row>
-    <row r="393" spans="1:20" ht="15">
+    <row r="393" spans="1:20">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
-      <c r="D393" s="46"/>
-      <c r="E393"/>
+      <c r="D393" s="41"/>
+      <c r="E393" s="52"/>
       <c r="F393"/>
       <c r="H393"/>
       <c r="I393"/>
@@ -10460,12 +11060,12 @@
       <c r="S393"/>
       <c r="T393"/>
     </row>
-    <row r="394" spans="1:20" ht="15">
+    <row r="394" spans="1:20">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
-      <c r="D394" s="46"/>
-      <c r="E394"/>
+      <c r="D394" s="41"/>
+      <c r="E394" s="52"/>
       <c r="F394"/>
       <c r="H394"/>
       <c r="I394"/>
@@ -10481,12 +11081,12 @@
       <c r="S394"/>
       <c r="T394"/>
     </row>
-    <row r="395" spans="1:20" ht="15">
+    <row r="395" spans="1:20">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
-      <c r="D395" s="46"/>
-      <c r="E395"/>
+      <c r="D395" s="41"/>
+      <c r="E395" s="52"/>
       <c r="F395"/>
       <c r="H395"/>
       <c r="I395"/>
@@ -10502,12 +11102,12 @@
       <c r="S395"/>
       <c r="T395"/>
     </row>
-    <row r="396" spans="1:20" ht="15">
+    <row r="396" spans="1:20">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
-      <c r="D396" s="46"/>
-      <c r="E396"/>
+      <c r="D396" s="41"/>
+      <c r="E396" s="52"/>
       <c r="F396"/>
       <c r="H396"/>
       <c r="I396"/>
@@ -10523,12 +11123,12 @@
       <c r="S396"/>
       <c r="T396"/>
     </row>
-    <row r="397" spans="1:20" ht="15">
+    <row r="397" spans="1:20">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
-      <c r="D397" s="46"/>
-      <c r="E397"/>
+      <c r="D397" s="41"/>
+      <c r="E397" s="52"/>
       <c r="F397"/>
       <c r="H397"/>
       <c r="I397"/>
@@ -10544,12 +11144,12 @@
       <c r="S397"/>
       <c r="T397"/>
     </row>
-    <row r="398" spans="1:20" ht="15">
+    <row r="398" spans="1:20">
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398"/>
-      <c r="D398" s="46"/>
-      <c r="E398"/>
+      <c r="D398" s="41"/>
+      <c r="E398" s="52"/>
       <c r="F398"/>
       <c r="H398"/>
       <c r="I398"/>
@@ -10565,12 +11165,12 @@
       <c r="S398"/>
       <c r="T398"/>
     </row>
-    <row r="399" spans="1:20" ht="15">
+    <row r="399" spans="1:20">
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399"/>
-      <c r="D399" s="46"/>
-      <c r="E399"/>
+      <c r="D399" s="41"/>
+      <c r="E399" s="52"/>
       <c r="F399"/>
       <c r="H399"/>
       <c r="I399"/>
@@ -10586,12 +11186,12 @@
       <c r="S399"/>
       <c r="T399"/>
     </row>
-    <row r="400" spans="1:20" ht="15">
+    <row r="400" spans="1:20">
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400"/>
-      <c r="D400" s="46"/>
-      <c r="E400"/>
+      <c r="D400" s="41"/>
+      <c r="E400" s="52"/>
       <c r="F400"/>
       <c r="H400"/>
       <c r="I400"/>
@@ -10607,12 +11207,12 @@
       <c r="S400"/>
       <c r="T400"/>
     </row>
-    <row r="401" spans="1:20" ht="15">
+    <row r="401" spans="1:20">
       <c r="A401"/>
       <c r="B401"/>
       <c r="C401"/>
-      <c r="D401" s="46"/>
-      <c r="E401"/>
+      <c r="D401" s="41"/>
+      <c r="E401" s="52"/>
       <c r="F401"/>
       <c r="H401"/>
       <c r="I401"/>
@@ -10628,12 +11228,12 @@
       <c r="S401"/>
       <c r="T401"/>
     </row>
-    <row r="402" spans="1:20" ht="15">
+    <row r="402" spans="1:20">
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="46"/>
-      <c r="E402"/>
+      <c r="D402" s="41"/>
+      <c r="E402" s="52"/>
       <c r="F402"/>
       <c r="H402"/>
       <c r="I402"/>
@@ -10649,12 +11249,12 @@
       <c r="S402"/>
       <c r="T402"/>
     </row>
-    <row r="403" spans="1:20" ht="15">
+    <row r="403" spans="1:20">
       <c r="A403"/>
       <c r="B403"/>
       <c r="C403"/>
-      <c r="D403" s="46"/>
-      <c r="E403"/>
+      <c r="D403" s="41"/>
+      <c r="E403" s="52"/>
       <c r="F403"/>
       <c r="H403"/>
       <c r="I403"/>
@@ -10670,12 +11270,12 @@
       <c r="S403"/>
       <c r="T403"/>
     </row>
-    <row r="404" spans="1:20" ht="15">
+    <row r="404" spans="1:20">
       <c r="A404"/>
       <c r="B404"/>
       <c r="C404"/>
-      <c r="D404" s="46"/>
-      <c r="E404"/>
+      <c r="D404" s="41"/>
+      <c r="E404" s="52"/>
       <c r="F404"/>
       <c r="H404"/>
       <c r="I404"/>
@@ -10691,12 +11291,12 @@
       <c r="S404"/>
       <c r="T404"/>
     </row>
-    <row r="405" spans="1:20" ht="15">
+    <row r="405" spans="1:20">
       <c r="A405"/>
       <c r="B405"/>
       <c r="C405"/>
-      <c r="D405" s="46"/>
-      <c r="E405"/>
+      <c r="D405" s="41"/>
+      <c r="E405" s="52"/>
       <c r="F405"/>
       <c r="H405"/>
       <c r="I405"/>
@@ -10712,12 +11312,12 @@
       <c r="S405"/>
       <c r="T405"/>
     </row>
-    <row r="406" spans="1:20" ht="15">
+    <row r="406" spans="1:20">
       <c r="A406"/>
       <c r="B406"/>
       <c r="C406"/>
-      <c r="D406" s="46"/>
-      <c r="E406"/>
+      <c r="D406" s="41"/>
+      <c r="E406" s="52"/>
       <c r="F406"/>
       <c r="H406"/>
       <c r="I406"/>
@@ -10733,12 +11333,12 @@
       <c r="S406"/>
       <c r="T406"/>
     </row>
-    <row r="407" spans="1:20" ht="15">
+    <row r="407" spans="1:20">
       <c r="A407"/>
       <c r="B407"/>
       <c r="C407"/>
-      <c r="D407" s="46"/>
-      <c r="E407"/>
+      <c r="D407" s="41"/>
+      <c r="E407" s="52"/>
       <c r="F407"/>
       <c r="H407"/>
       <c r="I407"/>
@@ -10754,12 +11354,12 @@
       <c r="S407"/>
       <c r="T407"/>
     </row>
-    <row r="408" spans="1:20" ht="15">
+    <row r="408" spans="1:20">
       <c r="A408"/>
       <c r="B408"/>
       <c r="C408"/>
-      <c r="D408" s="46"/>
-      <c r="E408"/>
+      <c r="D408" s="41"/>
+      <c r="E408" s="52"/>
       <c r="F408"/>
       <c r="H408"/>
       <c r="I408"/>
@@ -10775,12 +11375,12 @@
       <c r="S408"/>
       <c r="T408"/>
     </row>
-    <row r="409" spans="1:20" ht="15">
+    <row r="409" spans="1:20">
       <c r="A409"/>
       <c r="B409"/>
       <c r="C409"/>
-      <c r="D409" s="46"/>
-      <c r="E409"/>
+      <c r="D409" s="41"/>
+      <c r="E409" s="52"/>
       <c r="F409"/>
       <c r="H409"/>
       <c r="I409"/>
@@ -10796,12 +11396,12 @@
       <c r="S409"/>
       <c r="T409"/>
     </row>
-    <row r="410" spans="1:20" ht="15">
+    <row r="410" spans="1:20">
       <c r="A410"/>
       <c r="B410"/>
       <c r="C410"/>
-      <c r="D410" s="46"/>
-      <c r="E410"/>
+      <c r="D410" s="41"/>
+      <c r="E410" s="52"/>
       <c r="F410"/>
       <c r="H410"/>
       <c r="I410"/>
@@ -10817,12 +11417,12 @@
       <c r="S410"/>
       <c r="T410"/>
     </row>
-    <row r="411" spans="1:20" ht="15">
+    <row r="411" spans="1:20">
       <c r="A411"/>
       <c r="B411"/>
       <c r="C411"/>
-      <c r="D411" s="46"/>
-      <c r="E411"/>
+      <c r="D411" s="41"/>
+      <c r="E411" s="52"/>
       <c r="F411"/>
       <c r="H411"/>
       <c r="I411"/>
@@ -10838,12 +11438,12 @@
       <c r="S411"/>
       <c r="T411"/>
     </row>
-    <row r="412" spans="1:20" ht="15">
+    <row r="412" spans="1:20">
       <c r="A412"/>
       <c r="B412"/>
       <c r="C412"/>
-      <c r="D412" s="46"/>
-      <c r="E412"/>
+      <c r="D412" s="41"/>
+      <c r="E412" s="52"/>
       <c r="F412"/>
       <c r="H412"/>
       <c r="I412"/>
@@ -10859,12 +11459,12 @@
       <c r="S412"/>
       <c r="T412"/>
     </row>
-    <row r="413" spans="1:20" ht="15">
+    <row r="413" spans="1:20">
       <c r="A413"/>
       <c r="B413"/>
       <c r="C413"/>
-      <c r="D413" s="46"/>
-      <c r="E413"/>
+      <c r="D413" s="41"/>
+      <c r="E413" s="52"/>
       <c r="F413"/>
       <c r="H413"/>
       <c r="I413"/>
@@ -10880,12 +11480,12 @@
       <c r="S413"/>
       <c r="T413"/>
     </row>
-    <row r="414" spans="1:20" ht="15">
+    <row r="414" spans="1:20">
       <c r="A414"/>
       <c r="B414"/>
       <c r="C414"/>
-      <c r="D414" s="46"/>
-      <c r="E414"/>
+      <c r="D414" s="41"/>
+      <c r="E414" s="52"/>
       <c r="F414"/>
       <c r="H414"/>
       <c r="I414"/>
@@ -10901,12 +11501,12 @@
       <c r="S414"/>
       <c r="T414"/>
     </row>
-    <row r="415" spans="1:20" ht="15">
+    <row r="415" spans="1:20">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
-      <c r="D415" s="46"/>
-      <c r="E415"/>
+      <c r="D415" s="41"/>
+      <c r="E415" s="52"/>
       <c r="F415"/>
       <c r="H415"/>
       <c r="I415"/>
@@ -10922,12 +11522,12 @@
       <c r="S415"/>
       <c r="T415"/>
     </row>
-    <row r="416" spans="1:20" ht="15">
+    <row r="416" spans="1:20">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
-      <c r="D416" s="46"/>
-      <c r="E416"/>
+      <c r="D416" s="41"/>
+      <c r="E416" s="52"/>
       <c r="F416"/>
       <c r="H416"/>
       <c r="I416"/>
@@ -10943,12 +11543,12 @@
       <c r="S416"/>
       <c r="T416"/>
     </row>
-    <row r="417" spans="1:20" ht="15">
+    <row r="417" spans="1:20">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
-      <c r="D417" s="46"/>
-      <c r="E417"/>
+      <c r="D417" s="41"/>
+      <c r="E417" s="52"/>
       <c r="F417"/>
       <c r="H417"/>
       <c r="I417"/>
@@ -10964,12 +11564,12 @@
       <c r="S417"/>
       <c r="T417"/>
     </row>
-    <row r="418" spans="1:20" ht="15">
+    <row r="418" spans="1:20">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
-      <c r="D418" s="46"/>
-      <c r="E418"/>
+      <c r="D418" s="41"/>
+      <c r="E418" s="52"/>
       <c r="F418"/>
       <c r="H418"/>
       <c r="I418"/>
@@ -10985,12 +11585,12 @@
       <c r="S418"/>
       <c r="T418"/>
     </row>
-    <row r="419" spans="1:20" ht="15">
+    <row r="419" spans="1:20">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
-      <c r="D419" s="46"/>
-      <c r="E419"/>
+      <c r="D419" s="41"/>
+      <c r="E419" s="52"/>
       <c r="F419"/>
       <c r="H419"/>
       <c r="I419"/>
@@ -11006,12 +11606,12 @@
       <c r="S419"/>
       <c r="T419"/>
     </row>
-    <row r="420" spans="1:20" ht="15">
+    <row r="420" spans="1:20">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
-      <c r="D420" s="46"/>
-      <c r="E420"/>
+      <c r="D420" s="41"/>
+      <c r="E420" s="52"/>
       <c r="F420"/>
       <c r="H420"/>
       <c r="I420"/>
@@ -11027,12 +11627,12 @@
       <c r="S420"/>
       <c r="T420"/>
     </row>
-    <row r="421" spans="1:20" ht="15">
+    <row r="421" spans="1:20">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
-      <c r="D421" s="46"/>
-      <c r="E421"/>
+      <c r="D421" s="41"/>
+      <c r="E421" s="52"/>
       <c r="F421"/>
       <c r="H421"/>
       <c r="I421"/>
@@ -11048,12 +11648,12 @@
       <c r="S421"/>
       <c r="T421"/>
     </row>
-    <row r="422" spans="1:20" ht="15">
+    <row r="422" spans="1:20">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
-      <c r="D422" s="46"/>
-      <c r="E422"/>
+      <c r="D422" s="41"/>
+      <c r="E422" s="52"/>
       <c r="F422"/>
       <c r="H422"/>
       <c r="I422"/>
@@ -11069,12 +11669,12 @@
       <c r="S422"/>
       <c r="T422"/>
     </row>
-    <row r="423" spans="1:20" ht="15">
+    <row r="423" spans="1:20">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
-      <c r="D423" s="46"/>
-      <c r="E423"/>
+      <c r="D423" s="41"/>
+      <c r="E423" s="52"/>
       <c r="F423"/>
       <c r="H423"/>
       <c r="I423"/>
@@ -11090,12 +11690,12 @@
       <c r="S423"/>
       <c r="T423"/>
     </row>
-    <row r="424" spans="1:20" ht="15">
+    <row r="424" spans="1:20">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
-      <c r="D424" s="46"/>
-      <c r="E424"/>
+      <c r="D424" s="41"/>
+      <c r="E424" s="52"/>
       <c r="F424"/>
       <c r="H424"/>
       <c r="I424"/>
@@ -11111,12 +11711,12 @@
       <c r="S424"/>
       <c r="T424"/>
     </row>
-    <row r="425" spans="1:20" ht="15">
+    <row r="425" spans="1:20">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
-      <c r="D425" s="46"/>
-      <c r="E425"/>
+      <c r="D425" s="41"/>
+      <c r="E425" s="52"/>
       <c r="F425"/>
       <c r="H425"/>
       <c r="I425"/>
@@ -11132,12 +11732,12 @@
       <c r="S425"/>
       <c r="T425"/>
     </row>
-    <row r="426" spans="1:20" ht="15">
+    <row r="426" spans="1:20">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
-      <c r="D426" s="46"/>
-      <c r="E426"/>
+      <c r="D426" s="41"/>
+      <c r="E426" s="52"/>
       <c r="F426"/>
       <c r="H426"/>
       <c r="I426"/>
@@ -11153,12 +11753,12 @@
       <c r="S426"/>
       <c r="T426"/>
     </row>
-    <row r="427" spans="1:20" ht="15">
+    <row r="427" spans="1:20">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
-      <c r="D427" s="46"/>
-      <c r="E427"/>
+      <c r="D427" s="41"/>
+      <c r="E427" s="52"/>
       <c r="F427"/>
       <c r="H427"/>
       <c r="I427"/>
@@ -11174,12 +11774,12 @@
       <c r="S427"/>
       <c r="T427"/>
     </row>
-    <row r="428" spans="1:20" ht="15">
+    <row r="428" spans="1:20">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
-      <c r="D428" s="46"/>
-      <c r="E428"/>
+      <c r="D428" s="41"/>
+      <c r="E428" s="52"/>
       <c r="F428"/>
       <c r="H428"/>
       <c r="I428"/>
@@ -11195,12 +11795,12 @@
       <c r="S428"/>
       <c r="T428"/>
     </row>
-    <row r="429" spans="1:20" ht="15">
+    <row r="429" spans="1:20">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
-      <c r="D429" s="46"/>
-      <c r="E429"/>
+      <c r="D429" s="41"/>
+      <c r="E429" s="52"/>
       <c r="F429"/>
       <c r="H429"/>
       <c r="I429"/>
@@ -11216,12 +11816,12 @@
       <c r="S429"/>
       <c r="T429"/>
     </row>
-    <row r="430" spans="1:20" ht="15">
+    <row r="430" spans="1:20">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
-      <c r="D430" s="46"/>
-      <c r="E430"/>
+      <c r="D430" s="41"/>
+      <c r="E430" s="52"/>
       <c r="F430"/>
       <c r="H430"/>
       <c r="I430"/>
@@ -11237,12 +11837,12 @@
       <c r="S430"/>
       <c r="T430"/>
     </row>
-    <row r="431" spans="1:20" ht="15">
+    <row r="431" spans="1:20">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
-      <c r="D431" s="46"/>
-      <c r="E431"/>
+      <c r="D431" s="41"/>
+      <c r="E431" s="52"/>
       <c r="F431"/>
       <c r="H431"/>
       <c r="I431"/>
@@ -11258,12 +11858,12 @@
       <c r="S431"/>
       <c r="T431"/>
     </row>
-    <row r="432" spans="1:20" ht="15">
+    <row r="432" spans="1:20">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
-      <c r="D432" s="46"/>
-      <c r="E432"/>
+      <c r="D432" s="41"/>
+      <c r="E432" s="52"/>
       <c r="F432"/>
       <c r="H432"/>
       <c r="I432"/>
@@ -11279,12 +11879,12 @@
       <c r="S432"/>
       <c r="T432"/>
     </row>
-    <row r="433" spans="1:20" ht="15">
+    <row r="433" spans="1:20">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
-      <c r="D433" s="46"/>
-      <c r="E433"/>
+      <c r="D433" s="41"/>
+      <c r="E433" s="52"/>
       <c r="F433"/>
       <c r="H433"/>
       <c r="I433"/>
@@ -11300,12 +11900,12 @@
       <c r="S433"/>
       <c r="T433"/>
     </row>
-    <row r="434" spans="1:20" ht="15">
+    <row r="434" spans="1:20">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
-      <c r="D434" s="46"/>
-      <c r="E434"/>
+      <c r="D434" s="41"/>
+      <c r="E434" s="52"/>
       <c r="F434"/>
       <c r="H434"/>
       <c r="I434"/>
@@ -11321,12 +11921,12 @@
       <c r="S434"/>
       <c r="T434"/>
     </row>
-    <row r="435" spans="1:20" ht="15">
+    <row r="435" spans="1:20">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
-      <c r="D435" s="46"/>
-      <c r="E435"/>
+      <c r="D435" s="41"/>
+      <c r="E435" s="52"/>
       <c r="F435"/>
       <c r="H435"/>
       <c r="I435"/>
@@ -11342,12 +11942,12 @@
       <c r="S435"/>
       <c r="T435"/>
     </row>
-    <row r="436" spans="1:20" ht="15">
+    <row r="436" spans="1:20">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
-      <c r="D436" s="46"/>
-      <c r="E436"/>
+      <c r="D436" s="41"/>
+      <c r="E436" s="52"/>
       <c r="F436"/>
       <c r="H436"/>
       <c r="I436"/>
@@ -11363,12 +11963,12 @@
       <c r="S436"/>
       <c r="T436"/>
     </row>
-    <row r="437" spans="1:20" ht="15">
+    <row r="437" spans="1:20">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
-      <c r="D437" s="46"/>
-      <c r="E437"/>
+      <c r="D437" s="41"/>
+      <c r="E437" s="52"/>
       <c r="F437"/>
       <c r="H437"/>
       <c r="I437"/>
@@ -11384,12 +11984,12 @@
       <c r="S437"/>
       <c r="T437"/>
     </row>
-    <row r="438" spans="1:20" ht="15">
+    <row r="438" spans="1:20">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
-      <c r="D438" s="46"/>
-      <c r="E438"/>
+      <c r="D438" s="41"/>
+      <c r="E438" s="52"/>
       <c r="F438"/>
       <c r="H438"/>
       <c r="I438"/>
@@ -11405,12 +12005,12 @@
       <c r="S438"/>
       <c r="T438"/>
     </row>
-    <row r="439" spans="1:20" ht="15">
+    <row r="439" spans="1:20">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
-      <c r="D439" s="46"/>
-      <c r="E439"/>
+      <c r="D439" s="41"/>
+      <c r="E439" s="52"/>
       <c r="F439"/>
       <c r="H439"/>
       <c r="I439"/>
@@ -11426,12 +12026,12 @@
       <c r="S439"/>
       <c r="T439"/>
     </row>
-    <row r="440" spans="1:20" ht="15">
+    <row r="440" spans="1:20">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
-      <c r="D440" s="46"/>
-      <c r="E440"/>
+      <c r="D440" s="41"/>
+      <c r="E440" s="52"/>
       <c r="F440"/>
       <c r="H440"/>
       <c r="I440"/>
@@ -11447,12 +12047,12 @@
       <c r="S440"/>
       <c r="T440"/>
     </row>
-    <row r="441" spans="1:20" ht="15">
+    <row r="441" spans="1:20">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
-      <c r="D441" s="46"/>
-      <c r="E441"/>
+      <c r="D441" s="41"/>
+      <c r="E441" s="52"/>
       <c r="F441"/>
       <c r="H441"/>
       <c r="I441"/>
@@ -11468,12 +12068,12 @@
       <c r="S441"/>
       <c r="T441"/>
     </row>
-    <row r="442" spans="1:20" ht="15">
+    <row r="442" spans="1:20">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
-      <c r="D442" s="46"/>
-      <c r="E442"/>
+      <c r="D442" s="41"/>
+      <c r="E442" s="52"/>
       <c r="F442"/>
       <c r="H442"/>
       <c r="I442"/>
@@ -11489,12 +12089,12 @@
       <c r="S442"/>
       <c r="T442"/>
     </row>
-    <row r="443" spans="1:20" ht="15">
+    <row r="443" spans="1:20">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
-      <c r="D443" s="46"/>
-      <c r="E443"/>
+      <c r="D443" s="41"/>
+      <c r="E443" s="52"/>
       <c r="F443"/>
       <c r="H443"/>
       <c r="I443"/>
@@ -11510,12 +12110,12 @@
       <c r="S443"/>
       <c r="T443"/>
     </row>
-    <row r="444" spans="1:20" ht="15">
+    <row r="444" spans="1:20">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
-      <c r="D444" s="46"/>
-      <c r="E444"/>
+      <c r="D444" s="41"/>
+      <c r="E444" s="52"/>
       <c r="F444"/>
       <c r="H444"/>
       <c r="I444"/>
@@ -11531,12 +12131,12 @@
       <c r="S444"/>
       <c r="T444"/>
     </row>
-    <row r="445" spans="1:20" ht="15">
+    <row r="445" spans="1:20">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
-      <c r="D445" s="46"/>
-      <c r="E445"/>
+      <c r="D445" s="41"/>
+      <c r="E445" s="52"/>
       <c r="F445"/>
       <c r="H445"/>
       <c r="I445"/>
@@ -11552,12 +12152,12 @@
       <c r="S445"/>
       <c r="T445"/>
     </row>
-    <row r="446" spans="1:20" ht="15">
+    <row r="446" spans="1:20">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
-      <c r="D446" s="46"/>
-      <c r="E446"/>
+      <c r="D446" s="41"/>
+      <c r="E446" s="52"/>
       <c r="F446"/>
       <c r="H446"/>
       <c r="I446"/>
@@ -11573,12 +12173,12 @@
       <c r="S446"/>
       <c r="T446"/>
     </row>
-    <row r="447" spans="1:20" ht="15">
+    <row r="447" spans="1:20">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
-      <c r="D447" s="46"/>
-      <c r="E447"/>
+      <c r="D447" s="41"/>
+      <c r="E447" s="52"/>
       <c r="F447"/>
       <c r="H447"/>
       <c r="I447"/>
@@ -11594,12 +12194,12 @@
       <c r="S447"/>
       <c r="T447"/>
     </row>
-    <row r="448" spans="1:20" ht="15">
+    <row r="448" spans="1:20">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
-      <c r="D448" s="46"/>
-      <c r="E448"/>
+      <c r="D448" s="41"/>
+      <c r="E448" s="52"/>
       <c r="F448"/>
       <c r="H448"/>
       <c r="I448"/>
@@ -11615,12 +12215,12 @@
       <c r="S448"/>
       <c r="T448"/>
     </row>
-    <row r="449" spans="1:20" ht="15">
+    <row r="449" spans="1:20">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
-      <c r="D449" s="46"/>
-      <c r="E449"/>
+      <c r="D449" s="41"/>
+      <c r="E449" s="52"/>
       <c r="F449"/>
       <c r="H449"/>
       <c r="I449"/>
@@ -11636,12 +12236,12 @@
       <c r="S449"/>
       <c r="T449"/>
     </row>
-    <row r="450" spans="1:20" ht="15">
+    <row r="450" spans="1:20">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
-      <c r="D450" s="46"/>
-      <c r="E450"/>
+      <c r="D450" s="41"/>
+      <c r="E450" s="52"/>
       <c r="F450"/>
       <c r="H450"/>
       <c r="I450"/>
@@ -11657,12 +12257,12 @@
       <c r="S450"/>
       <c r="T450"/>
     </row>
-    <row r="451" spans="1:20" ht="15">
+    <row r="451" spans="1:20">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
-      <c r="D451" s="46"/>
-      <c r="E451"/>
+      <c r="D451" s="41"/>
+      <c r="E451" s="52"/>
       <c r="F451"/>
       <c r="H451"/>
       <c r="I451"/>
@@ -11678,12 +12278,12 @@
       <c r="S451"/>
       <c r="T451"/>
     </row>
-    <row r="452" spans="1:20" ht="15">
+    <row r="452" spans="1:20">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
-      <c r="D452" s="46"/>
-      <c r="E452"/>
+      <c r="D452" s="41"/>
+      <c r="E452" s="52"/>
       <c r="F452"/>
       <c r="H452"/>
       <c r="I452"/>
@@ -11699,12 +12299,12 @@
       <c r="S452"/>
       <c r="T452"/>
     </row>
-    <row r="453" spans="1:20" ht="15">
+    <row r="453" spans="1:20">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
-      <c r="D453" s="46"/>
-      <c r="E453"/>
+      <c r="D453" s="41"/>
+      <c r="E453" s="52"/>
       <c r="F453"/>
       <c r="H453"/>
       <c r="I453"/>
@@ -11720,12 +12320,12 @@
       <c r="S453"/>
       <c r="T453"/>
     </row>
-    <row r="454" spans="1:20" ht="15">
+    <row r="454" spans="1:20">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
-      <c r="D454" s="46"/>
-      <c r="E454"/>
+      <c r="D454" s="41"/>
+      <c r="E454" s="52"/>
       <c r="F454"/>
       <c r="H454"/>
       <c r="I454"/>
@@ -11741,12 +12341,12 @@
       <c r="S454"/>
       <c r="T454"/>
     </row>
-    <row r="455" spans="1:20" ht="15">
+    <row r="455" spans="1:20">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
-      <c r="D455" s="46"/>
-      <c r="E455"/>
+      <c r="D455" s="41"/>
+      <c r="E455" s="52"/>
       <c r="F455"/>
       <c r="H455"/>
       <c r="I455"/>
@@ -11762,12 +12362,12 @@
       <c r="S455"/>
       <c r="T455"/>
     </row>
-    <row r="456" spans="1:20" ht="15">
+    <row r="456" spans="1:20">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
-      <c r="D456" s="46"/>
-      <c r="E456"/>
+      <c r="D456" s="41"/>
+      <c r="E456" s="52"/>
       <c r="F456"/>
       <c r="H456"/>
       <c r="I456"/>
@@ -11783,12 +12383,12 @@
       <c r="S456"/>
       <c r="T456"/>
     </row>
-    <row r="457" spans="1:20" ht="15">
+    <row r="457" spans="1:20">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
-      <c r="D457" s="46"/>
-      <c r="E457"/>
+      <c r="D457" s="41"/>
+      <c r="E457" s="52"/>
       <c r="F457"/>
       <c r="H457"/>
       <c r="I457"/>
@@ -11804,12 +12404,12 @@
       <c r="S457"/>
       <c r="T457"/>
     </row>
-    <row r="458" spans="1:20" ht="15">
+    <row r="458" spans="1:20">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
-      <c r="D458" s="46"/>
-      <c r="E458"/>
+      <c r="D458" s="41"/>
+      <c r="E458" s="52"/>
       <c r="F458"/>
       <c r="H458"/>
       <c r="I458"/>
@@ -11825,12 +12425,12 @@
       <c r="S458"/>
       <c r="T458"/>
     </row>
-    <row r="459" spans="1:20" ht="15">
+    <row r="459" spans="1:20">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
-      <c r="D459" s="46"/>
-      <c r="E459"/>
+      <c r="D459" s="41"/>
+      <c r="E459" s="52"/>
       <c r="F459"/>
       <c r="H459"/>
       <c r="I459"/>
@@ -11846,12 +12446,12 @@
       <c r="S459"/>
       <c r="T459"/>
     </row>
-    <row r="460" spans="1:20" ht="15">
+    <row r="460" spans="1:20">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
-      <c r="D460" s="46"/>
-      <c r="E460"/>
+      <c r="D460" s="41"/>
+      <c r="E460" s="52"/>
       <c r="F460"/>
       <c r="H460"/>
       <c r="I460"/>
@@ -11867,12 +12467,12 @@
       <c r="S460"/>
       <c r="T460"/>
     </row>
-    <row r="461" spans="1:20" ht="15">
+    <row r="461" spans="1:20">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
-      <c r="D461" s="46"/>
-      <c r="E461"/>
+      <c r="D461" s="41"/>
+      <c r="E461" s="52"/>
       <c r="F461"/>
       <c r="H461"/>
       <c r="I461"/>
@@ -11888,12 +12488,12 @@
       <c r="S461"/>
       <c r="T461"/>
     </row>
-    <row r="462" spans="1:20" ht="15">
+    <row r="462" spans="1:20">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
-      <c r="D462" s="46"/>
-      <c r="E462"/>
+      <c r="D462" s="41"/>
+      <c r="E462" s="52"/>
       <c r="F462"/>
       <c r="H462"/>
       <c r="I462"/>
@@ -11909,12 +12509,12 @@
       <c r="S462"/>
       <c r="T462"/>
     </row>
-    <row r="463" spans="1:20" ht="15">
+    <row r="463" spans="1:20">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
-      <c r="D463" s="46"/>
-      <c r="E463"/>
+      <c r="D463" s="41"/>
+      <c r="E463" s="52"/>
       <c r="F463"/>
       <c r="H463"/>
       <c r="I463"/>
@@ -11930,12 +12530,12 @@
       <c r="S463"/>
       <c r="T463"/>
     </row>
-    <row r="464" spans="1:20" ht="15">
+    <row r="464" spans="1:20">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
-      <c r="D464" s="46"/>
-      <c r="E464"/>
+      <c r="D464" s="41"/>
+      <c r="E464" s="52"/>
       <c r="F464"/>
       <c r="H464"/>
       <c r="I464"/>
@@ -11951,12 +12551,12 @@
       <c r="S464"/>
       <c r="T464"/>
     </row>
-    <row r="465" spans="1:20" ht="15">
+    <row r="465" spans="1:20">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
-      <c r="D465" s="46"/>
-      <c r="E465"/>
+      <c r="D465" s="41"/>
+      <c r="E465" s="52"/>
       <c r="F465"/>
       <c r="H465"/>
       <c r="I465"/>
@@ -11972,12 +12572,12 @@
       <c r="S465"/>
       <c r="T465"/>
     </row>
-    <row r="466" spans="1:20" ht="15">
+    <row r="466" spans="1:20">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
-      <c r="D466" s="46"/>
-      <c r="E466"/>
+      <c r="D466" s="41"/>
+      <c r="E466" s="52"/>
       <c r="F466"/>
       <c r="H466"/>
       <c r="I466"/>
@@ -12001,15 +12601,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11" style="53" customWidth="1"/>
+    <col min="1" max="1" width="11" style="46" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="26" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="5" customWidth="1"/>
@@ -12019,7 +12619,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -12042,10 +12642,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="53">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12063,10 +12663,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
-      <c r="A3" s="53">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -12078,16 +12678,16 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="G3" s="51" t="str">
-        <f t="shared" ref="G3:G15" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;D3&amp;"','" &amp;C3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
+      <c r="G3" s="66" t="str">
+        <f t="shared" ref="G3:G27" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;D3&amp;"','" &amp;C3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('2','q6_2', '2.BRAC','2.eª¨vK','0','');</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5">
-      <c r="A4" s="53">
+      <c r="A4" s="67">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -12099,16 +12699,16 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" s="51" t="str">
+      <c r="G4" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('3','q6_3', '3.BRDB','3.we.Avi.wW.we','0','');</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5">
-      <c r="A5" s="53">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -12120,16 +12720,16 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" s="51" t="str">
+      <c r="G5" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('4','q6_4', '4.ASHA','4.Avkv','0','');</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25.5">
-      <c r="A6" s="53">
+      <c r="A6" s="67">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -12141,16 +12741,16 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="51" t="str">
+      <c r="G6" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','q6_5', '5.PROSHIKA','5.cÖwkKv','0','');</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="53">
+      <c r="A7" s="67">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -12162,16 +12762,16 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="51" t="str">
+      <c r="G7" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('6','q6_6', '6.MOTHER’S CLUB','6.gv‡q‡`i mwgwZ','0','');</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="17" customFormat="1" ht="25.5">
-      <c r="A8" s="53">
+      <c r="A8" s="67">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -12183,16 +12783,16 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="51" t="str">
+      <c r="G8" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','q6_Options', '1.At least once a week','1.Kgc‡¶ mßv‡n GKevi','1','');</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" ht="25.5">
-      <c r="A9" s="53">
+      <c r="A9" s="67">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -12204,16 +12804,16 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="G9" s="51" t="str">
+      <c r="G9" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','q6_Options', '2.At least once a month','2.Kgc‡¶ gv‡m GKevi','2','');</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" ht="25.5">
-      <c r="A10" s="53">
+      <c r="A10" s="67">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -12225,16 +12825,16 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="G10" s="51" t="str">
+      <c r="G10" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('9','q6_Options', '3.At least once a year','3.Kgc‡¶ eQ‡i GKevi','3','');</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="17" customFormat="1" ht="25.5">
-      <c r="A11" s="53">
+      <c r="A11" s="67">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -12246,131 +12846,361 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="G11" s="51" t="str">
+      <c r="G11" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('10','q6_Options', '4.Never (hardly ever)','4.KL‡bvB bv','4','');</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5">
-      <c r="A12" s="53">
+      <c r="A12" s="67">
         <v>11</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="47">
         <v>1</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="51" t="str">
+      <c r="G12" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q7_1', '1.NO ONE','1.KvD‡K bv','1','q7_1date');</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5">
-      <c r="A13" s="53">
+      <c r="A13" s="67">
         <v>12</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="47">
         <v>1</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="51" t="str">
+      <c r="G13" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('12','q7_2', '2.DOCTOR','2.Wv³vi','1','q7_2date');</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5">
-      <c r="A14" s="53">
+      <c r="A14" s="67">
         <v>13</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="47">
         <v>1</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="51" t="str">
+      <c r="G14" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q7_3', '3.OBSTETRICIAN/GYNAECOLOGIST','3.avÎxwe`¨vwekvi`/¯¿x†ivMwekvi`','1','q7_3date');</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.5">
-      <c r="A15" s="53">
+      <c r="A15" s="67">
         <v>14</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="47">
         <v>1</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="51" t="str">
+      <c r="G15" s="66" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('14','q7_4', '4.NURSE/MIDWIFE','4.†mweKv/avÎx','1','q7_4date');</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="3:7" ht="15">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="3:7" ht="15">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="3:7" ht="15">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="3:7" ht="15">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="G20"/>
+    <row r="16" spans="1:7" ht="25.5">
+      <c r="A16" s="67">
+        <v>15</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="57">
+        <v>1</v>
+      </c>
+      <c r="G16" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','q10', '1.BECOME PREGNANT THEN','1.ZLb Mf©aviY †P‡qwQ‡jb','1','');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5">
+      <c r="A17" s="67">
+        <v>16</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="57">
+        <v>2</v>
+      </c>
+      <c r="G17" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('16','q10', '2.WAIT UNTIL LATER','2.†`ix Ki‡Z †P‡qwQ‡jb','2','');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25.5">
+      <c r="A18" s="67">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="57">
+        <v>3</v>
+      </c>
+      <c r="G18" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('17','q10', '3.NOT WANT CHILDREN','3.ev”Pv wb‡Z Pvb wb','3','');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5">
+      <c r="A19" s="67">
+        <v>18</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="57">
+        <v>4</v>
+      </c>
+      <c r="G19" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('18','q10', '4.NOT MIND EITHER WAY','4.‡KvbUv‡ZB AvcwË wQj bv','4','');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5">
+      <c r="A20" s="67">
+        <v>19</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="61">
+        <v>99</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('19','q10', '99.OTHER','99.Ab¨vb¨','99','q10Other');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27">
+      <c r="A21" s="67">
+        <v>20</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('20','q14_1', 'Potato, sweet potatoes or any other white colored root or tuber?','Avjyy, wgwó Avjyy A_ev Ab¨vb¨ †h †Kvb mv`v is Gi Avjy RvZxq Lv`¨?','1','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5">
+      <c r="A22" s="67">
+        <v>21</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','q14_2', 'Pumpkin, carrots?','wgwó Kzgov, MvRi?','1','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25.5">
+      <c r="A23" s="67">
+        <v>22</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('22','q14_3', 'Khichuri, rice, bread?','wLPzox ,fvZ,iywU?','1','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.5">
+      <c r="A24" s="67">
+        <v>23</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','q14_Options', 'Yes , Eaten','Lvevi †L‡q‡Q','1','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.5">
+      <c r="A25" s="67">
+        <v>24</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25">
+        <v>66</v>
+      </c>
+      <c r="G25" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('24','q14_Options', 'Eaten, don’t know how many days ','†L‡q‡Q,wKš‘ Kqw`b †L‡q‡Q Zv Rv‡bbv ','66','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.5">
+      <c r="A26" s="67">
+        <v>25</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26">
+        <v>99</v>
+      </c>
+      <c r="G26" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('25','q14_Options', 'Don’t know if eaten or not','†L‡q‡Q wK Lvqwb Rv‡bbv','99','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.5">
+      <c r="A27" s="67">
+        <v>26</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','q14_Options', 'No, not eaten','Lvqwb','2','');</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12391,7 +13221,7 @@
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="267.75">
+    <row r="1" spans="1:7" ht="255">
       <c r="A1" s="5" t="s">
         <v>75</v>
       </c>

--- a/CCDTemplate/DB and Documents/templateQuestion and Option.xlsx
+++ b/CCDTemplate/DB and Documents/templateQuestion and Option.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Questions!$V$1:$V$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Questions!$V$1:$V$23</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="203">
   <si>
     <t>SLNo</t>
   </si>
@@ -634,6 +634,24 @@
   </si>
   <si>
     <t>Take Photo</t>
+  </si>
+  <si>
+    <t>sec01</t>
+  </si>
+  <si>
+    <t>frmmessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 1: </t>
+  </si>
+  <si>
+    <t>sec02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Section 2:</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1304,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1391,9 +1409,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2284,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DK466"/>
+  <dimension ref="A1:DK468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2296,7 +2311,7 @@
     <col min="2" max="2" width="15.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="48" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="20" width="13.140625" style="5" customWidth="1"/>
@@ -2317,7 +2332,7 @@
       <c r="D1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2475,14 +2490,14 @@
       <c r="D2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>108</v>
+      <c r="H2" s="68" t="s">
+        <v>197</v>
       </c>
       <c r="R2" t="s">
         <v>35</v>
@@ -2495,263 +2510,256 @@
       </c>
       <c r="V2" t="str">
         <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A2&amp;"', '" &amp;B2&amp;"','" &amp;C2&amp;"', '" &amp;D2&amp;"','" &amp;E2&amp;"','" &amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"', '"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"','"&amp;O2&amp;"','"&amp;P2&amp;"','"&amp;Q2&amp;"',"&amp;R2&amp;","&amp;S2&amp;",'"&amp;T2&amp;"');"</f>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('1', 'dataid','frmHHID', 'tblMainQues','AvBwW bs:','Id no. :','','q3_4','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:115" s="23" customFormat="1" ht="31.5">
-      <c r="A3" s="24">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('1', 'dataid','frmHHID', 'tblMainQues','AvBwW bs:','Id no. :','','sec01','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:115" s="67" customFormat="1">
+      <c r="A3" s="68">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="67" t="str">
+        <f t="shared" ref="V3:V18" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('2', 'sec01','frmmessage', '','','Section 1: ','','q3_4','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:115" s="23" customFormat="1" ht="31.5">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F4" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="61" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S4" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="61" t="s">
+      <c r="T4" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="68" t="str">
-        <f t="shared" ref="V3:V16" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('2', 'q3_4','frmcombobox', 'tblMainQues','3-4.mv¶vrKvi MÖnYKvix iAvBwW-bvg','3-4.ID nad Name of MT/FRA/FRO','','q5','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:115" s="31" customFormat="1" ht="30.75">
-      <c r="A4" s="69">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="U4" s="67"/>
+      <c r="V4" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'q3_4','frmcombobox', 'tblMainQues','3-4.mv¶vrKvi MÖnYKvix iAvBwW-bvg','3-4.ID nad Name of MT/FRA/FRO','','q5','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:115" s="31" customFormat="1" ht="30.75">
+      <c r="A5" s="68">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C5" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="61" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="61" t="s">
+      <c r="S5" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="61" t="s">
+      <c r="T5" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="61"/>
-      <c r="V4" s="68" t="str">
+      <c r="U5" s="67"/>
+      <c r="V5" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'q5','frmdate', 'tblMainQues','5.mv¶vrKvi MÖn‡Yi ZvwiL','5.Date of Data Collection','','q6','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:115" s="17" customFormat="1" ht="141.75">
-      <c r="A5" s="69">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33" t="s">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('4', 'q5','frmdate', 'tblMainQues','5.mv¶vrKvi MÖn‡Yi ZvwiL','5.Date of Data Collection','','q6','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:115" s="17" customFormat="1" ht="141.75">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E6" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F6" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="40" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'q6','frmmultiplecheckcombo', 'tblMainQues','5.  †Kvb ai‡bi Mªy‡c A_ev ms¯’vq Avcwb AskMÖnb K‡ib?cÖvß mKj DËi wPwýZ Kiæb `j ev msMV‡bi aib ey‡S †bIqvi Rb¨ cÖ‡qvR‡b †cÖve Kiæb | KZ Nb Nb Avcwb AskMÖnb K‡ib?  `vMvwš^Z cÖkœ¸†jv wRÁvmv Kiæb|','5.MARK ALL MENTIONED PROBE IF NECESSARY TO IDENTIFY TYPE OF GROUP.  How often do you attend?(ASK ONLY FOR EACH MARKED)','','sec02','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:115" s="67" customFormat="1">
+      <c r="A7" s="68">
+        <v>6</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="61" t="s">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="S7" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="61" t="s">
+      <c r="T7" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="61"/>
-      <c r="V5" s="68" t="str">
+      <c r="V7" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('4', 'q6','frmmultiplecheckcombo', 'tblMainQues','5.  †Kvb ai‡bi Mªy‡c A_ev ms¯’vq Avcwb AskMÖnb K‡ib?cÖvß mKj DËi wPwýZ Kiæb `j ev msMV‡bi aib ey‡S †bIqvi Rb¨ cÖ‡qvR‡b †cÖve Kiæb | KZ Nb Nb Avcwb AskMÖnb K‡ib?  `vMvwš^Z cÖkœ¸†jv wRÁvmv Kiæb|','5.MARK ALL MENTIONED PROBE IF NECESSARY TO IDENTIFY TYPE OF GROUP.  How often do you attend?(ASK ONLY FOR EACH MARKED)','','q7','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:115" ht="94.5">
-      <c r="A6" s="69">
-        <v>5</v>
-      </c>
-      <c r="B6" s="36" t="s">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'sec02','frmmessage', '',' ','Section 2:','','q7','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:115" ht="94.5">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C8" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F8" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>134</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="61"/>
-      <c r="V6" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'q7','frmmultiplechoice', 'tblMainQues','7.GB ev”Pv (ev”Pvi bvg) hLb M‡f©/†c‡U wQj, ZLb Mf©Kvjxb †gwW‡Kj †PKAv‡ci Rb¨ Avcwb Kv‡K †`wL‡qwQ‡jb? (DËi nu¨v n‡j) Kv‡K †`wL‡qwQ‡jb?','7.When you were pregnant with this child (NAME), did you see anyone for an antenatal check?IF YES: Whom did you see?Anyone else?','','q8','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:115" ht="47.25">
-      <c r="A7" s="69">
-        <v>6</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'q8','frmnumeric', 'tblMainQues','8.GB ev”Pv‡`i g‡a¨ KZRb †g‡q   Avcbvi mv‡_ emevm Ki‡Q? ','8.How many of these girls (ages 5-12 years) currently live with you? ','','q9','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:115" ht="30">
-      <c r="A8" s="69">
-        <v>7</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>142</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -2762,42 +2770,42 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" s="61" t="s">
+      <c r="R8" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="61" t="s">
+      <c r="S8" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="61" t="s">
+      <c r="T8" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="61"/>
-      <c r="V8" s="68" t="str">
+      <c r="U8" s="67"/>
+      <c r="V8" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'q9','frmnumerictwo', 'tblMainQues','9.`y‡Uv msL¨v BbccyU w`b ','9. Give two numbers as input','','q10','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:115" ht="150">
-      <c r="A9" s="69">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'q7','frmmultiplechoice', 'tblMainQues','7.GB ev”Pv (ev”Pvi bvg) hLb M‡f©/†c‡U wQj, ZLb Mf©Kvjxb †gwW‡Kj †PKAv‡ci Rb¨ Avcwb Kv‡K †`wL‡qwQ‡jb? (DËi nu¨v n‡j) Kv‡K †`wL‡qwQ‡jb?','7.When you were pregnant with this child (NAME), did you see anyone for an antenatal check?IF YES: Whom did you see?Anyone else?','','q8','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:115" ht="47.25">
+      <c r="A9" s="68">
         <v>8</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="56" t="s">
+      <c r="B9" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>153</v>
+      <c r="E9" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>138</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -2808,42 +2816,42 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" s="61" t="s">
+      <c r="R9" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="S9" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="61" t="s">
+      <c r="T9" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="68" t="str">
+      <c r="U9" s="67"/>
+      <c r="V9" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'q10','frmsinglechoice', 'tblMainQues','10.Avcwb hLb GB ev”Pv (ev”Pvi bvg) †K Mf©aviY Ki‡jb ZLb wK Avcbvi ¯^vgx †P‡qwQ‡jb †h Avcwb Mf©eZx ‡nvb A_ev wZwb Av‡iv †`wi Ki‡Z ‡P‡qwQ‡jb A_ev wZwb wK Avi †Kv‡bv ev”Pv wb‡Z Pvb wb? bvwK ‡KvbUv‡ZB Zvi AvcwË wQj bv?','10.At the time you became pregnant with this child (NAME), did your husband/partner want you to become pregnant then, did he want to wait until later, did he want no (more) children at all, or did he not mind either way?','','q11','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:115" ht="15">
-      <c r="A10" s="69">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'q8','frmnumeric', 'tblMainQues','8.GB ev”Pv‡`i g‡a¨ KZRb †g‡q   Avcbvi mv‡_ emevm Ki‡Q? ','8.How many of these girls (ages 5-12 years) currently live with you? ','','q9','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:115" ht="30">
+      <c r="A10" s="68">
         <v>9</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="67" t="s">
+      <c r="B10" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>153</v>
+      <c r="E10" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>142</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -2854,42 +2862,42 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10" s="61" t="s">
+      <c r="R10" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="61" t="s">
+      <c r="S10" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="61" t="s">
+      <c r="T10" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="61"/>
-      <c r="V10" s="68" t="str">
+      <c r="U10" s="67"/>
+      <c r="V10" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'q10Other','frmtext', 'tblMainQues','99.Ab¨vb¨','99.OTHER','','q11','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:115" ht="30">
-      <c r="A11" s="69">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'q9','frmnumerictwo', 'tblMainQues','9.`y‡Uv msL¨v BbccyU w`b ','9. Give two numbers as input','','q10','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:115" ht="150">
+      <c r="A11" s="68">
         <v>10</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="68" t="s">
         <v>153</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>160</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -2900,42 +2908,42 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11" s="68" t="s">
+      <c r="R11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="68" t="s">
+      <c r="S11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T11" s="68" t="s">
+      <c r="T11" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68" t="str">
+      <c r="U11" s="67"/>
+      <c r="V11" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'q11','frmtext', 'tblMainQues','11.MÖv‡gi/GjvKvi bvg','11.COMMUNITY/VILLAGE/NEIGHBOURHOOD','','q12','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:115">
-      <c r="A12" s="69">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'q10','frmsinglechoice', 'tblMainQues','10.Avcwb hLb GB ev”Pv (ev”Pvi bvg) †K Mf©aviY Ki‡jb ZLb wK Avcbvi ¯^vgx †P‡qwQ‡jb †h Avcwb Mf©eZx ‡nvb A_ev wZwb Av‡iv †`wi Ki‡Z ‡P‡qwQ‡jb A_ev wZwb wK Avi †Kv‡bv ev”Pv wb‡Z Pvb wb? bvwK ‡KvbUv‡ZB Zvi AvcwË wQj bv?','10.At the time you became pregnant with this child (NAME), did your husband/partner want you to become pregnant then, did he want to wait until later, did he want no (more) children at all, or did he not mind either way?','','q11','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:115" ht="15">
+      <c r="A12" s="68">
         <v>11</v>
       </c>
-      <c r="B12" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="69" t="s">
+      <c r="B12" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>164</v>
+      <c r="E12" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>153</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -2946,42 +2954,42 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12" s="68" t="s">
+      <c r="R12" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="68" t="s">
+      <c r="S12" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="68" t="s">
+      <c r="T12" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68" t="str">
+      <c r="U12" s="67"/>
+      <c r="V12" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'q12','frmtime', 'tblMainQues','12.mgq','12.Time','','q13','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:115">
-      <c r="A13" s="69">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'q10Other','frmtext', 'tblMainQues','99.Ab¨vb¨','99.OTHER','','q11','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:115" ht="30">
+      <c r="A13" s="68">
         <v>12</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="69" t="s">
+      <c r="B13" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>168</v>
+      <c r="E13" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2992,42 +3000,42 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" s="68" t="s">
+      <c r="R13" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="68" t="s">
+      <c r="S13" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="68" t="s">
+      <c r="T13" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68" t="str">
+      <c r="U13" s="67"/>
+      <c r="V13" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'q13','frmyeartomin', 'tblMainQues','13. eQi, gvm, w`b','13. Year, Month, Day','','q14','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:115" ht="136.5">
-      <c r="A14" s="69">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'q11','frmtext', 'tblMainQues','11.MÖv‡gi/GjvKvi bvg','11.COMMUNITY/VILLAGE/NEIGHBOURHOOD','','q12','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:115">
+      <c r="A14" s="68">
         <v>13</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="69" t="s">
+      <c r="B14" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>190</v>
+      <c r="E14" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>164</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -3038,40 +3046,42 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14" s="68" t="s">
+      <c r="R14" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="68" t="s">
+      <c r="S14" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="68" t="s">
+      <c r="T14" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68" t="str">
+      <c r="U14" s="67"/>
+      <c r="V14" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q14','frmmultiplecheckcombotwo', 'tblMainQues','14. MZ mvZ w`‡b Avcbvi wkï [bvg] Kqw`b GB Lvevi †L‡q‡Q [ ZvwjKvi Lvevi]? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb )','14.How many days in the last 7 days did [NAME] have [ITEM FROM LIST]?','','q15','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q12','frmtime', 'tblMainQues','12.mgq','12.Time','','q13','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="15" spans="1:115">
-      <c r="A15" s="69">
+      <c r="A15" s="68">
         <v>14</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="69" t="s">
+      <c r="B15" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="72" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>193</v>
+      <c r="E15" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>168</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -3082,42 +3092,42 @@
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15" s="68" t="s">
+      <c r="R15" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="68" t="s">
+      <c r="S15" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="68" t="s">
+      <c r="T15" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68" t="str">
+      <c r="U15" s="67"/>
+      <c r="V15" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q15','gpsdatacollection', 'tblMainQues','','Location','','q16','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:115">
-      <c r="A16" s="69">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q13','frmyeartomin', 'tblMainQues','13. eQi, gvm, w`b','13. Year, Month, Day','','q14','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:115" ht="136.5">
+      <c r="A16" s="68">
         <v>15</v>
       </c>
-      <c r="B16" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="69" t="s">
+      <c r="B16" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="72" t="s">
-        <v>196</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>106</v>
+      <c r="E16" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>190</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -3128,29 +3138,41 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16" s="68" t="s">
+      <c r="R16" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="68" t="s">
+      <c r="S16" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T16" s="68" t="s">
+      <c r="T16" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68" t="str">
+      <c r="U16" s="67"/>
+      <c r="V16" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q16','frmcamera', 'tblMainQues','Qwe Zzjyb','Take Photo','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="52"/>
-      <c r="F17"/>
-      <c r="H17"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q14','frmmultiplecheckcombotwo', 'tblMainQues','14. MZ mvZ w`‡b Avcbvi wkï [bvg] Kqw`b GB Lvevi †L‡q‡Q [ ZvwjKvi Lvevi]? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb )','14.How many days in the last 7 days did [NAME] have [ITEM FROM LIST]?','','q15','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="68">
+        <v>16</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>193</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -3160,18 +3182,43 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="52"/>
-      <c r="F18"/>
-      <c r="H18"/>
+      <c r="R17" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'q15','gpsdatacollection', 'tblMainQues','','Location','','q16','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="68">
+        <v>17</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -3181,16 +3228,27 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'q16','frmcamera', 'tblMainQues','Qwe Zzjyb','Take Photo','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="51"/>
       <c r="F19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -3206,12 +3264,12 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:22">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="52"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="51"/>
       <c r="F20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -3227,12 +3285,12 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:22">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="52"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="51"/>
       <c r="F21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -3248,12 +3306,12 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:22">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="52"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="51"/>
       <c r="F22"/>
       <c r="H22"/>
       <c r="I22"/>
@@ -3269,12 +3327,12 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:22">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="51"/>
       <c r="F23"/>
       <c r="H23"/>
       <c r="I23"/>
@@ -3290,12 +3348,12 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:22">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="51"/>
       <c r="F24"/>
       <c r="H24"/>
       <c r="I24"/>
@@ -3311,12 +3369,12 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:22">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="52"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="51"/>
       <c r="F25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -3332,12 +3390,12 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:22">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="51"/>
       <c r="F26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -3353,12 +3411,12 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:22">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="52"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="51"/>
       <c r="F27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -3374,12 +3432,12 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:22">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="52"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="51"/>
       <c r="F28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -3395,12 +3453,12 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:22">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="52"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="51"/>
       <c r="F29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -3416,12 +3474,12 @@
       <c r="S29"/>
       <c r="T29"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:22">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="52"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="51"/>
       <c r="F30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -3437,12 +3495,12 @@
       <c r="S30"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:22">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="52"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="51"/>
       <c r="F31"/>
       <c r="H31"/>
       <c r="I31"/>
@@ -3458,12 +3516,12 @@
       <c r="S31"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:22">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="52"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="51"/>
       <c r="F32"/>
       <c r="H32"/>
       <c r="I32"/>
@@ -3483,8 +3541,8 @@
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="52"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="51"/>
       <c r="F33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -3504,8 +3562,8 @@
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="52"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="51"/>
       <c r="F34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -3525,8 +3583,8 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="52"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="51"/>
       <c r="F35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -3546,8 +3604,8 @@
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="52"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="51"/>
       <c r="F36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -3567,8 +3625,8 @@
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="52"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="51"/>
       <c r="F37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -3588,8 +3646,8 @@
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="52"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="51"/>
       <c r="F38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -3609,8 +3667,8 @@
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="52"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="51"/>
       <c r="F39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -3630,8 +3688,8 @@
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="52"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="51"/>
       <c r="F40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -3651,8 +3709,8 @@
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="52"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="51"/>
       <c r="F41"/>
       <c r="H41"/>
       <c r="I41"/>
@@ -3672,8 +3730,8 @@
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="52"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="51"/>
       <c r="F42"/>
       <c r="H42"/>
       <c r="I42"/>
@@ -3693,8 +3751,8 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="52"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="51"/>
       <c r="F43"/>
       <c r="H43"/>
       <c r="I43"/>
@@ -3714,8 +3772,8 @@
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="51"/>
       <c r="F44"/>
       <c r="H44"/>
       <c r="I44"/>
@@ -3735,8 +3793,8 @@
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="51"/>
       <c r="F45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -3756,8 +3814,8 @@
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="52"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="51"/>
       <c r="F46"/>
       <c r="H46"/>
       <c r="I46"/>
@@ -3777,8 +3835,8 @@
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="51"/>
       <c r="F47"/>
       <c r="H47"/>
       <c r="I47"/>
@@ -3798,8 +3856,8 @@
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="51"/>
       <c r="F48"/>
       <c r="H48"/>
       <c r="I48"/>
@@ -3819,8 +3877,8 @@
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="52"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="51"/>
       <c r="F49"/>
       <c r="H49"/>
       <c r="I49"/>
@@ -3840,8 +3898,8 @@
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="52"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="51"/>
       <c r="F50"/>
       <c r="H50"/>
       <c r="I50"/>
@@ -3861,8 +3919,8 @@
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="52"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="51"/>
       <c r="F51"/>
       <c r="H51"/>
       <c r="I51"/>
@@ -3882,8 +3940,8 @@
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="52"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="51"/>
       <c r="F52"/>
       <c r="H52"/>
       <c r="I52"/>
@@ -3903,8 +3961,8 @@
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="52"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="51"/>
       <c r="F53"/>
       <c r="H53"/>
       <c r="I53"/>
@@ -3924,8 +3982,8 @@
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="52"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="51"/>
       <c r="F54"/>
       <c r="H54"/>
       <c r="I54"/>
@@ -3945,8 +4003,8 @@
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="52"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="51"/>
       <c r="F55"/>
       <c r="H55"/>
       <c r="I55"/>
@@ -3966,8 +4024,8 @@
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="52"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="51"/>
       <c r="F56"/>
       <c r="H56"/>
       <c r="I56"/>
@@ -3987,8 +4045,8 @@
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="52"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="51"/>
       <c r="F57"/>
       <c r="H57"/>
       <c r="I57"/>
@@ -4008,8 +4066,8 @@
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="52"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="51"/>
       <c r="F58"/>
       <c r="H58"/>
       <c r="I58"/>
@@ -4029,8 +4087,8 @@
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="52"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="51"/>
       <c r="F59"/>
       <c r="H59"/>
       <c r="I59"/>
@@ -4050,8 +4108,8 @@
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="52"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="51"/>
       <c r="F60"/>
       <c r="H60"/>
       <c r="I60"/>
@@ -4071,8 +4129,8 @@
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="52"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="51"/>
       <c r="F61"/>
       <c r="H61"/>
       <c r="I61"/>
@@ -4092,8 +4150,8 @@
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="52"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="51"/>
       <c r="F62"/>
       <c r="H62"/>
       <c r="I62"/>
@@ -4113,8 +4171,8 @@
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="52"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="51"/>
       <c r="F63"/>
       <c r="H63"/>
       <c r="I63"/>
@@ -4134,8 +4192,8 @@
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="52"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="51"/>
       <c r="F64"/>
       <c r="H64"/>
       <c r="I64"/>
@@ -4155,8 +4213,8 @@
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="52"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="51"/>
       <c r="F65"/>
       <c r="H65"/>
       <c r="I65"/>
@@ -4176,8 +4234,8 @@
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="52"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="51"/>
       <c r="F66"/>
       <c r="H66"/>
       <c r="I66"/>
@@ -4197,8 +4255,8 @@
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="52"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="51"/>
       <c r="F67"/>
       <c r="H67"/>
       <c r="I67"/>
@@ -4218,8 +4276,8 @@
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="52"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="51"/>
       <c r="F68"/>
       <c r="H68"/>
       <c r="I68"/>
@@ -4239,8 +4297,8 @@
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="52"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="51"/>
       <c r="F69"/>
       <c r="H69"/>
       <c r="I69"/>
@@ -4260,8 +4318,8 @@
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="52"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="51"/>
       <c r="F70"/>
       <c r="H70"/>
       <c r="I70"/>
@@ -4281,8 +4339,8 @@
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="52"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="51"/>
       <c r="F71"/>
       <c r="H71"/>
       <c r="I71"/>
@@ -4302,8 +4360,8 @@
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="52"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="51"/>
       <c r="F72"/>
       <c r="H72"/>
       <c r="I72"/>
@@ -4323,8 +4381,8 @@
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="52"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="51"/>
       <c r="F73"/>
       <c r="H73"/>
       <c r="I73"/>
@@ -4344,8 +4402,8 @@
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="52"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="51"/>
       <c r="F74"/>
       <c r="H74"/>
       <c r="I74"/>
@@ -4365,8 +4423,8 @@
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="52"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="51"/>
       <c r="F75"/>
       <c r="H75"/>
       <c r="I75"/>
@@ -4386,8 +4444,8 @@
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="52"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="51"/>
       <c r="F76"/>
       <c r="H76"/>
       <c r="I76"/>
@@ -4407,8 +4465,8 @@
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="52"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="51"/>
       <c r="F77"/>
       <c r="H77"/>
       <c r="I77"/>
@@ -4428,8 +4486,8 @@
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="52"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="51"/>
       <c r="F78"/>
       <c r="H78"/>
       <c r="I78"/>
@@ -4449,8 +4507,8 @@
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="52"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="51"/>
       <c r="F79"/>
       <c r="H79"/>
       <c r="I79"/>
@@ -4470,8 +4528,8 @@
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="52"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="51"/>
       <c r="F80"/>
       <c r="H80"/>
       <c r="I80"/>
@@ -4491,8 +4549,8 @@
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="52"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="51"/>
       <c r="F81"/>
       <c r="H81"/>
       <c r="I81"/>
@@ -4512,8 +4570,8 @@
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="52"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="51"/>
       <c r="F82"/>
       <c r="H82"/>
       <c r="I82"/>
@@ -4533,8 +4591,8 @@
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="52"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="51"/>
       <c r="F83"/>
       <c r="H83"/>
       <c r="I83"/>
@@ -4554,8 +4612,8 @@
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="52"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="51"/>
       <c r="F84"/>
       <c r="H84"/>
       <c r="I84"/>
@@ -4575,8 +4633,8 @@
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="52"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="51"/>
       <c r="F85"/>
       <c r="H85"/>
       <c r="I85"/>
@@ -4596,8 +4654,8 @@
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="52"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="51"/>
       <c r="F86"/>
       <c r="H86"/>
       <c r="I86"/>
@@ -4617,8 +4675,8 @@
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="52"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="51"/>
       <c r="F87"/>
       <c r="H87"/>
       <c r="I87"/>
@@ -4638,8 +4696,8 @@
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="52"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="51"/>
       <c r="F88"/>
       <c r="H88"/>
       <c r="I88"/>
@@ -4659,8 +4717,8 @@
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="52"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="51"/>
       <c r="F89"/>
       <c r="H89"/>
       <c r="I89"/>
@@ -4680,8 +4738,8 @@
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="52"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="51"/>
       <c r="F90"/>
       <c r="H90"/>
       <c r="I90"/>
@@ -4701,8 +4759,8 @@
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="52"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="51"/>
       <c r="F91"/>
       <c r="H91"/>
       <c r="I91"/>
@@ -4722,8 +4780,8 @@
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="52"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="51"/>
       <c r="F92"/>
       <c r="H92"/>
       <c r="I92"/>
@@ -4743,8 +4801,8 @@
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="52"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="51"/>
       <c r="F93"/>
       <c r="H93"/>
       <c r="I93"/>
@@ -4764,8 +4822,8 @@
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="52"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="51"/>
       <c r="F94"/>
       <c r="H94"/>
       <c r="I94"/>
@@ -4785,8 +4843,8 @@
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="52"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="51"/>
       <c r="F95"/>
       <c r="H95"/>
       <c r="I95"/>
@@ -4806,8 +4864,8 @@
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="52"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="51"/>
       <c r="F96"/>
       <c r="H96"/>
       <c r="I96"/>
@@ -4827,8 +4885,8 @@
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="52"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="51"/>
       <c r="F97"/>
       <c r="H97"/>
       <c r="I97"/>
@@ -4848,8 +4906,8 @@
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="52"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="51"/>
       <c r="F98"/>
       <c r="H98"/>
       <c r="I98"/>
@@ -4869,8 +4927,8 @@
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="52"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="51"/>
       <c r="F99"/>
       <c r="H99"/>
       <c r="I99"/>
@@ -4890,8 +4948,8 @@
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="52"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="51"/>
       <c r="F100"/>
       <c r="H100"/>
       <c r="I100"/>
@@ -4911,8 +4969,8 @@
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="52"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="51"/>
       <c r="F101"/>
       <c r="H101"/>
       <c r="I101"/>
@@ -4932,8 +4990,8 @@
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="52"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="51"/>
       <c r="F102"/>
       <c r="H102"/>
       <c r="I102"/>
@@ -4953,8 +5011,8 @@
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="52"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="51"/>
       <c r="F103"/>
       <c r="H103"/>
       <c r="I103"/>
@@ -4974,8 +5032,8 @@
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="52"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="51"/>
       <c r="F104"/>
       <c r="H104"/>
       <c r="I104"/>
@@ -4995,8 +5053,8 @@
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="52"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="51"/>
       <c r="F105"/>
       <c r="H105"/>
       <c r="I105"/>
@@ -5016,8 +5074,8 @@
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="52"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="51"/>
       <c r="F106"/>
       <c r="H106"/>
       <c r="I106"/>
@@ -5037,8 +5095,8 @@
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="52"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="51"/>
       <c r="F107"/>
       <c r="H107"/>
       <c r="I107"/>
@@ -5058,8 +5116,8 @@
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="52"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="51"/>
       <c r="F108"/>
       <c r="H108"/>
       <c r="I108"/>
@@ -5079,8 +5137,8 @@
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="52"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="51"/>
       <c r="F109"/>
       <c r="H109"/>
       <c r="I109"/>
@@ -5100,8 +5158,8 @@
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="52"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="51"/>
       <c r="F110"/>
       <c r="H110"/>
       <c r="I110"/>
@@ -5121,8 +5179,8 @@
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="52"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="51"/>
       <c r="F111"/>
       <c r="H111"/>
       <c r="I111"/>
@@ -5142,8 +5200,8 @@
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="52"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="51"/>
       <c r="F112"/>
       <c r="H112"/>
       <c r="I112"/>
@@ -5163,8 +5221,8 @@
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="52"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="51"/>
       <c r="F113"/>
       <c r="H113"/>
       <c r="I113"/>
@@ -5184,8 +5242,8 @@
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="52"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="51"/>
       <c r="F114"/>
       <c r="H114"/>
       <c r="I114"/>
@@ -5205,8 +5263,8 @@
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="52"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="51"/>
       <c r="F115"/>
       <c r="H115"/>
       <c r="I115"/>
@@ -5226,8 +5284,8 @@
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="52"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="51"/>
       <c r="F116"/>
       <c r="H116"/>
       <c r="I116"/>
@@ -5247,8 +5305,8 @@
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="52"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="51"/>
       <c r="F117"/>
       <c r="H117"/>
       <c r="I117"/>
@@ -5268,8 +5326,8 @@
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="52"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="51"/>
       <c r="F118"/>
       <c r="H118"/>
       <c r="I118"/>
@@ -5289,8 +5347,8 @@
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="52"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="51"/>
       <c r="F119"/>
       <c r="H119"/>
       <c r="I119"/>
@@ -5310,8 +5368,8 @@
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="52"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="51"/>
       <c r="F120"/>
       <c r="H120"/>
       <c r="I120"/>
@@ -5331,8 +5389,8 @@
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="52"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="51"/>
       <c r="F121"/>
       <c r="H121"/>
       <c r="I121"/>
@@ -5352,8 +5410,8 @@
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="52"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="51"/>
       <c r="F122"/>
       <c r="H122"/>
       <c r="I122"/>
@@ -5373,8 +5431,8 @@
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="52"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="51"/>
       <c r="F123"/>
       <c r="H123"/>
       <c r="I123"/>
@@ -5394,8 +5452,8 @@
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="52"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="51"/>
       <c r="F124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -5415,8 +5473,8 @@
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="52"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="51"/>
       <c r="F125"/>
       <c r="H125"/>
       <c r="I125"/>
@@ -5436,8 +5494,8 @@
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="52"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="51"/>
       <c r="F126"/>
       <c r="H126"/>
       <c r="I126"/>
@@ -5457,8 +5515,8 @@
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="52"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="51"/>
       <c r="F127"/>
       <c r="H127"/>
       <c r="I127"/>
@@ -5478,8 +5536,8 @@
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="52"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="51"/>
       <c r="F128"/>
       <c r="H128"/>
       <c r="I128"/>
@@ -5499,8 +5557,8 @@
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="52"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="51"/>
       <c r="F129"/>
       <c r="H129"/>
       <c r="I129"/>
@@ -5520,8 +5578,8 @@
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="52"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="51"/>
       <c r="F130"/>
       <c r="H130"/>
       <c r="I130"/>
@@ -5541,8 +5599,8 @@
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="52"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="51"/>
       <c r="F131"/>
       <c r="H131"/>
       <c r="I131"/>
@@ -5562,8 +5620,8 @@
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="52"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="51"/>
       <c r="F132"/>
       <c r="H132"/>
       <c r="I132"/>
@@ -5583,8 +5641,8 @@
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="52"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="51"/>
       <c r="F133"/>
       <c r="H133"/>
       <c r="I133"/>
@@ -5604,8 +5662,8 @@
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="52"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="51"/>
       <c r="F134"/>
       <c r="H134"/>
       <c r="I134"/>
@@ -5625,8 +5683,8 @@
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
-      <c r="D135" s="41"/>
-      <c r="E135" s="52"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="51"/>
       <c r="F135"/>
       <c r="H135"/>
       <c r="I135"/>
@@ -5646,8 +5704,8 @@
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
-      <c r="D136" s="41"/>
-      <c r="E136" s="52"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="51"/>
       <c r="F136"/>
       <c r="H136"/>
       <c r="I136"/>
@@ -5667,8 +5725,8 @@
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="52"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="51"/>
       <c r="F137"/>
       <c r="H137"/>
       <c r="I137"/>
@@ -5688,8 +5746,8 @@
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
-      <c r="D138" s="41"/>
-      <c r="E138" s="52"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="51"/>
       <c r="F138"/>
       <c r="H138"/>
       <c r="I138"/>
@@ -5709,8 +5767,8 @@
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
-      <c r="D139" s="41"/>
-      <c r="E139" s="52"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="51"/>
       <c r="F139"/>
       <c r="H139"/>
       <c r="I139"/>
@@ -5730,8 +5788,8 @@
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
-      <c r="D140" s="41"/>
-      <c r="E140" s="52"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="51"/>
       <c r="F140"/>
       <c r="H140"/>
       <c r="I140"/>
@@ -5751,8 +5809,8 @@
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
-      <c r="D141" s="41"/>
-      <c r="E141" s="52"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="51"/>
       <c r="F141"/>
       <c r="H141"/>
       <c r="I141"/>
@@ -5772,8 +5830,8 @@
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
-      <c r="D142" s="41"/>
-      <c r="E142" s="52"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="51"/>
       <c r="F142"/>
       <c r="H142"/>
       <c r="I142"/>
@@ -5793,8 +5851,8 @@
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="52"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="51"/>
       <c r="F143"/>
       <c r="H143"/>
       <c r="I143"/>
@@ -5814,8 +5872,8 @@
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
-      <c r="D144" s="41"/>
-      <c r="E144" s="52"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="51"/>
       <c r="F144"/>
       <c r="H144"/>
       <c r="I144"/>
@@ -5835,8 +5893,8 @@
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
-      <c r="D145" s="41"/>
-      <c r="E145" s="52"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="51"/>
       <c r="F145"/>
       <c r="H145"/>
       <c r="I145"/>
@@ -5856,8 +5914,8 @@
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="52"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="51"/>
       <c r="F146"/>
       <c r="H146"/>
       <c r="I146"/>
@@ -5877,8 +5935,8 @@
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="52"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="51"/>
       <c r="F147"/>
       <c r="H147"/>
       <c r="I147"/>
@@ -5898,8 +5956,8 @@
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
-      <c r="D148" s="41"/>
-      <c r="E148" s="52"/>
+      <c r="D148" s="40"/>
+      <c r="E148" s="51"/>
       <c r="F148"/>
       <c r="H148"/>
       <c r="I148"/>
@@ -5919,8 +5977,8 @@
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="52"/>
+      <c r="D149" s="40"/>
+      <c r="E149" s="51"/>
       <c r="F149"/>
       <c r="H149"/>
       <c r="I149"/>
@@ -5940,8 +5998,8 @@
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
-      <c r="D150" s="41"/>
-      <c r="E150" s="52"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="51"/>
       <c r="F150"/>
       <c r="H150"/>
       <c r="I150"/>
@@ -5961,8 +6019,8 @@
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
-      <c r="D151" s="41"/>
-      <c r="E151" s="52"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="51"/>
       <c r="F151"/>
       <c r="H151"/>
       <c r="I151"/>
@@ -5982,8 +6040,8 @@
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
-      <c r="D152" s="41"/>
-      <c r="E152" s="52"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="51"/>
       <c r="F152"/>
       <c r="H152"/>
       <c r="I152"/>
@@ -6003,8 +6061,8 @@
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="52"/>
+      <c r="D153" s="40"/>
+      <c r="E153" s="51"/>
       <c r="F153"/>
       <c r="H153"/>
       <c r="I153"/>
@@ -6024,8 +6082,8 @@
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
-      <c r="D154" s="41"/>
-      <c r="E154" s="52"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="51"/>
       <c r="F154"/>
       <c r="H154"/>
       <c r="I154"/>
@@ -6045,8 +6103,8 @@
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
-      <c r="D155" s="41"/>
-      <c r="E155" s="52"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="51"/>
       <c r="F155"/>
       <c r="H155"/>
       <c r="I155"/>
@@ -6066,8 +6124,8 @@
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
-      <c r="D156" s="41"/>
-      <c r="E156" s="52"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="51"/>
       <c r="F156"/>
       <c r="H156"/>
       <c r="I156"/>
@@ -6087,8 +6145,8 @@
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
-      <c r="D157" s="41"/>
-      <c r="E157" s="52"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="51"/>
       <c r="F157"/>
       <c r="H157"/>
       <c r="I157"/>
@@ -6108,8 +6166,8 @@
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="52"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="51"/>
       <c r="F158"/>
       <c r="H158"/>
       <c r="I158"/>
@@ -6129,8 +6187,8 @@
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
-      <c r="D159" s="41"/>
-      <c r="E159" s="52"/>
+      <c r="D159" s="40"/>
+      <c r="E159" s="51"/>
       <c r="F159"/>
       <c r="H159"/>
       <c r="I159"/>
@@ -6150,8 +6208,8 @@
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
-      <c r="D160" s="41"/>
-      <c r="E160" s="52"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="51"/>
       <c r="F160"/>
       <c r="H160"/>
       <c r="I160"/>
@@ -6171,8 +6229,8 @@
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
-      <c r="D161" s="41"/>
-      <c r="E161" s="52"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="51"/>
       <c r="F161"/>
       <c r="H161"/>
       <c r="I161"/>
@@ -6192,8 +6250,8 @@
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
-      <c r="D162" s="41"/>
-      <c r="E162" s="52"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="51"/>
       <c r="F162"/>
       <c r="H162"/>
       <c r="I162"/>
@@ -6213,8 +6271,8 @@
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
-      <c r="D163" s="41"/>
-      <c r="E163" s="52"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="51"/>
       <c r="F163"/>
       <c r="H163"/>
       <c r="I163"/>
@@ -6234,8 +6292,8 @@
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
-      <c r="D164" s="41"/>
-      <c r="E164" s="52"/>
+      <c r="D164" s="40"/>
+      <c r="E164" s="51"/>
       <c r="F164"/>
       <c r="H164"/>
       <c r="I164"/>
@@ -6255,8 +6313,8 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="41"/>
-      <c r="E165" s="52"/>
+      <c r="D165" s="40"/>
+      <c r="E165" s="51"/>
       <c r="F165"/>
       <c r="H165"/>
       <c r="I165"/>
@@ -6276,8 +6334,8 @@
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="41"/>
-      <c r="E166" s="52"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="51"/>
       <c r="F166"/>
       <c r="H166"/>
       <c r="I166"/>
@@ -6297,8 +6355,8 @@
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="41"/>
-      <c r="E167" s="52"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="51"/>
       <c r="F167"/>
       <c r="H167"/>
       <c r="I167"/>
@@ -6318,8 +6376,8 @@
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="41"/>
-      <c r="E168" s="52"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="51"/>
       <c r="F168"/>
       <c r="H168"/>
       <c r="I168"/>
@@ -6339,8 +6397,8 @@
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
-      <c r="D169" s="41"/>
-      <c r="E169" s="52"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="51"/>
       <c r="F169"/>
       <c r="H169"/>
       <c r="I169"/>
@@ -6360,8 +6418,8 @@
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="52"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="51"/>
       <c r="F170"/>
       <c r="H170"/>
       <c r="I170"/>
@@ -6381,8 +6439,8 @@
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
-      <c r="D171" s="41"/>
-      <c r="E171" s="52"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="51"/>
       <c r="F171"/>
       <c r="H171"/>
       <c r="I171"/>
@@ -6402,8 +6460,8 @@
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
-      <c r="D172" s="41"/>
-      <c r="E172" s="52"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="51"/>
       <c r="F172"/>
       <c r="H172"/>
       <c r="I172"/>
@@ -6423,8 +6481,8 @@
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
-      <c r="D173" s="41"/>
-      <c r="E173" s="52"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="51"/>
       <c r="F173"/>
       <c r="H173"/>
       <c r="I173"/>
@@ -6444,8 +6502,8 @@
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
-      <c r="D174" s="41"/>
-      <c r="E174" s="52"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="51"/>
       <c r="F174"/>
       <c r="H174"/>
       <c r="I174"/>
@@ -6465,8 +6523,8 @@
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
-      <c r="D175" s="41"/>
-      <c r="E175" s="52"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="51"/>
       <c r="F175"/>
       <c r="H175"/>
       <c r="I175"/>
@@ -6486,8 +6544,8 @@
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
-      <c r="D176" s="41"/>
-      <c r="E176" s="52"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="51"/>
       <c r="F176"/>
       <c r="H176"/>
       <c r="I176"/>
@@ -6507,8 +6565,8 @@
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
-      <c r="D177" s="41"/>
-      <c r="E177" s="52"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="51"/>
       <c r="F177"/>
       <c r="H177"/>
       <c r="I177"/>
@@ -6528,8 +6586,8 @@
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
-      <c r="D178" s="41"/>
-      <c r="E178" s="52"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="51"/>
       <c r="F178"/>
       <c r="H178"/>
       <c r="I178"/>
@@ -6549,8 +6607,8 @@
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
-      <c r="D179" s="41"/>
-      <c r="E179" s="52"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="51"/>
       <c r="F179"/>
       <c r="H179"/>
       <c r="I179"/>
@@ -6570,8 +6628,8 @@
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
-      <c r="D180" s="41"/>
-      <c r="E180" s="52"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="51"/>
       <c r="F180"/>
       <c r="H180"/>
       <c r="I180"/>
@@ -6591,8 +6649,8 @@
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
-      <c r="D181" s="41"/>
-      <c r="E181" s="52"/>
+      <c r="D181" s="40"/>
+      <c r="E181" s="51"/>
       <c r="F181"/>
       <c r="H181"/>
       <c r="I181"/>
@@ -6612,8 +6670,8 @@
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
-      <c r="D182" s="41"/>
-      <c r="E182" s="52"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="51"/>
       <c r="F182"/>
       <c r="H182"/>
       <c r="I182"/>
@@ -6633,8 +6691,8 @@
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
-      <c r="D183" s="41"/>
-      <c r="E183" s="52"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="51"/>
       <c r="F183"/>
       <c r="H183"/>
       <c r="I183"/>
@@ -6654,8 +6712,8 @@
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
-      <c r="D184" s="41"/>
-      <c r="E184" s="52"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="51"/>
       <c r="F184"/>
       <c r="H184"/>
       <c r="I184"/>
@@ -6675,8 +6733,8 @@
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
-      <c r="D185" s="41"/>
-      <c r="E185" s="52"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="51"/>
       <c r="F185"/>
       <c r="H185"/>
       <c r="I185"/>
@@ -6696,8 +6754,8 @@
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
-      <c r="D186" s="41"/>
-      <c r="E186" s="52"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="51"/>
       <c r="F186"/>
       <c r="H186"/>
       <c r="I186"/>
@@ -6717,8 +6775,8 @@
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
-      <c r="D187" s="41"/>
-      <c r="E187" s="52"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="51"/>
       <c r="F187"/>
       <c r="H187"/>
       <c r="I187"/>
@@ -6738,8 +6796,8 @@
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
-      <c r="D188" s="41"/>
-      <c r="E188" s="52"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="51"/>
       <c r="F188"/>
       <c r="H188"/>
       <c r="I188"/>
@@ -6759,8 +6817,8 @@
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
-      <c r="D189" s="41"/>
-      <c r="E189" s="52"/>
+      <c r="D189" s="40"/>
+      <c r="E189" s="51"/>
       <c r="F189"/>
       <c r="H189"/>
       <c r="I189"/>
@@ -6780,8 +6838,8 @@
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
-      <c r="D190" s="41"/>
-      <c r="E190" s="52"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="51"/>
       <c r="F190"/>
       <c r="H190"/>
       <c r="I190"/>
@@ -6801,8 +6859,8 @@
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
-      <c r="D191" s="41"/>
-      <c r="E191" s="52"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="51"/>
       <c r="F191"/>
       <c r="H191"/>
       <c r="I191"/>
@@ -6822,8 +6880,8 @@
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
-      <c r="D192" s="41"/>
-      <c r="E192" s="52"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="51"/>
       <c r="F192"/>
       <c r="H192"/>
       <c r="I192"/>
@@ -6843,8 +6901,8 @@
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
-      <c r="D193" s="41"/>
-      <c r="E193" s="52"/>
+      <c r="D193" s="40"/>
+      <c r="E193" s="51"/>
       <c r="F193"/>
       <c r="H193"/>
       <c r="I193"/>
@@ -6864,8 +6922,8 @@
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
-      <c r="D194" s="41"/>
-      <c r="E194" s="52"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="51"/>
       <c r="F194"/>
       <c r="H194"/>
       <c r="I194"/>
@@ -6885,8 +6943,8 @@
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
-      <c r="D195" s="41"/>
-      <c r="E195" s="52"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="51"/>
       <c r="F195"/>
       <c r="H195"/>
       <c r="I195"/>
@@ -6906,8 +6964,8 @@
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
-      <c r="D196" s="41"/>
-      <c r="E196" s="52"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="51"/>
       <c r="F196"/>
       <c r="H196"/>
       <c r="I196"/>
@@ -6927,8 +6985,8 @@
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
-      <c r="D197" s="41"/>
-      <c r="E197" s="52"/>
+      <c r="D197" s="40"/>
+      <c r="E197" s="51"/>
       <c r="F197"/>
       <c r="H197"/>
       <c r="I197"/>
@@ -6948,8 +7006,8 @@
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
-      <c r="D198" s="41"/>
-      <c r="E198" s="52"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="51"/>
       <c r="F198"/>
       <c r="H198"/>
       <c r="I198"/>
@@ -6969,8 +7027,8 @@
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
-      <c r="D199" s="41"/>
-      <c r="E199" s="52"/>
+      <c r="D199" s="40"/>
+      <c r="E199" s="51"/>
       <c r="F199"/>
       <c r="H199"/>
       <c r="I199"/>
@@ -6990,8 +7048,8 @@
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
-      <c r="D200" s="41"/>
-      <c r="E200" s="52"/>
+      <c r="D200" s="40"/>
+      <c r="E200" s="51"/>
       <c r="F200"/>
       <c r="H200"/>
       <c r="I200"/>
@@ -7011,8 +7069,8 @@
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
-      <c r="D201" s="41"/>
-      <c r="E201" s="52"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="51"/>
       <c r="F201"/>
       <c r="H201"/>
       <c r="I201"/>
@@ -7032,8 +7090,8 @@
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="41"/>
-      <c r="E202" s="52"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="51"/>
       <c r="F202"/>
       <c r="H202"/>
       <c r="I202"/>
@@ -7053,8 +7111,8 @@
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="41"/>
-      <c r="E203" s="52"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="51"/>
       <c r="F203"/>
       <c r="H203"/>
       <c r="I203"/>
@@ -7074,8 +7132,8 @@
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="41"/>
-      <c r="E204" s="52"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="51"/>
       <c r="F204"/>
       <c r="H204"/>
       <c r="I204"/>
@@ -7095,8 +7153,8 @@
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="41"/>
-      <c r="E205" s="52"/>
+      <c r="D205" s="40"/>
+      <c r="E205" s="51"/>
       <c r="F205"/>
       <c r="H205"/>
       <c r="I205"/>
@@ -7116,8 +7174,8 @@
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="41"/>
-      <c r="E206" s="52"/>
+      <c r="D206" s="40"/>
+      <c r="E206" s="51"/>
       <c r="F206"/>
       <c r="H206"/>
       <c r="I206"/>
@@ -7137,8 +7195,8 @@
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
-      <c r="D207" s="41"/>
-      <c r="E207" s="52"/>
+      <c r="D207" s="40"/>
+      <c r="E207" s="51"/>
       <c r="F207"/>
       <c r="H207"/>
       <c r="I207"/>
@@ -7158,8 +7216,8 @@
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
-      <c r="D208" s="41"/>
-      <c r="E208" s="52"/>
+      <c r="D208" s="40"/>
+      <c r="E208" s="51"/>
       <c r="F208"/>
       <c r="H208"/>
       <c r="I208"/>
@@ -7179,8 +7237,8 @@
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
-      <c r="D209" s="41"/>
-      <c r="E209" s="52"/>
+      <c r="D209" s="40"/>
+      <c r="E209" s="51"/>
       <c r="F209"/>
       <c r="H209"/>
       <c r="I209"/>
@@ -7200,8 +7258,8 @@
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
-      <c r="D210" s="41"/>
-      <c r="E210" s="52"/>
+      <c r="D210" s="40"/>
+      <c r="E210" s="51"/>
       <c r="F210"/>
       <c r="H210"/>
       <c r="I210"/>
@@ -7221,8 +7279,8 @@
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
-      <c r="D211" s="41"/>
-      <c r="E211" s="52"/>
+      <c r="D211" s="40"/>
+      <c r="E211" s="51"/>
       <c r="F211"/>
       <c r="H211"/>
       <c r="I211"/>
@@ -7242,8 +7300,8 @@
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
-      <c r="D212" s="41"/>
-      <c r="E212" s="52"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="51"/>
       <c r="F212"/>
       <c r="H212"/>
       <c r="I212"/>
@@ -7263,8 +7321,8 @@
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
-      <c r="D213" s="41"/>
-      <c r="E213" s="52"/>
+      <c r="D213" s="40"/>
+      <c r="E213" s="51"/>
       <c r="F213"/>
       <c r="H213"/>
       <c r="I213"/>
@@ -7284,8 +7342,8 @@
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
-      <c r="D214" s="41"/>
-      <c r="E214" s="52"/>
+      <c r="D214" s="40"/>
+      <c r="E214" s="51"/>
       <c r="F214"/>
       <c r="H214"/>
       <c r="I214"/>
@@ -7305,8 +7363,8 @@
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
-      <c r="D215" s="41"/>
-      <c r="E215" s="52"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="51"/>
       <c r="F215"/>
       <c r="H215"/>
       <c r="I215"/>
@@ -7326,8 +7384,8 @@
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
-      <c r="D216" s="41"/>
-      <c r="E216" s="52"/>
+      <c r="D216" s="40"/>
+      <c r="E216" s="51"/>
       <c r="F216"/>
       <c r="H216"/>
       <c r="I216"/>
@@ -7347,8 +7405,8 @@
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
-      <c r="D217" s="41"/>
-      <c r="E217" s="52"/>
+      <c r="D217" s="40"/>
+      <c r="E217" s="51"/>
       <c r="F217"/>
       <c r="H217"/>
       <c r="I217"/>
@@ -7368,8 +7426,8 @@
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
-      <c r="D218" s="41"/>
-      <c r="E218" s="52"/>
+      <c r="D218" s="40"/>
+      <c r="E218" s="51"/>
       <c r="F218"/>
       <c r="H218"/>
       <c r="I218"/>
@@ -7389,8 +7447,8 @@
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
-      <c r="D219" s="41"/>
-      <c r="E219" s="52"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="51"/>
       <c r="F219"/>
       <c r="H219"/>
       <c r="I219"/>
@@ -7410,8 +7468,8 @@
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
-      <c r="D220" s="41"/>
-      <c r="E220" s="52"/>
+      <c r="D220" s="40"/>
+      <c r="E220" s="51"/>
       <c r="F220"/>
       <c r="H220"/>
       <c r="I220"/>
@@ -7431,8 +7489,8 @@
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
-      <c r="D221" s="41"/>
-      <c r="E221" s="52"/>
+      <c r="D221" s="40"/>
+      <c r="E221" s="51"/>
       <c r="F221"/>
       <c r="H221"/>
       <c r="I221"/>
@@ -7452,8 +7510,8 @@
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
-      <c r="D222" s="41"/>
-      <c r="E222" s="52"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="51"/>
       <c r="F222"/>
       <c r="H222"/>
       <c r="I222"/>
@@ -7473,8 +7531,8 @@
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
-      <c r="D223" s="41"/>
-      <c r="E223" s="52"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="51"/>
       <c r="F223"/>
       <c r="H223"/>
       <c r="I223"/>
@@ -7494,8 +7552,8 @@
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
-      <c r="D224" s="41"/>
-      <c r="E224" s="52"/>
+      <c r="D224" s="40"/>
+      <c r="E224" s="51"/>
       <c r="F224"/>
       <c r="H224"/>
       <c r="I224"/>
@@ -7515,8 +7573,8 @@
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
-      <c r="D225" s="41"/>
-      <c r="E225" s="52"/>
+      <c r="D225" s="40"/>
+      <c r="E225" s="51"/>
       <c r="F225"/>
       <c r="H225"/>
       <c r="I225"/>
@@ -7536,8 +7594,8 @@
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
-      <c r="D226" s="41"/>
-      <c r="E226" s="52"/>
+      <c r="D226" s="40"/>
+      <c r="E226" s="51"/>
       <c r="F226"/>
       <c r="H226"/>
       <c r="I226"/>
@@ -7557,8 +7615,8 @@
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
-      <c r="D227" s="41"/>
-      <c r="E227" s="52"/>
+      <c r="D227" s="40"/>
+      <c r="E227" s="51"/>
       <c r="F227"/>
       <c r="H227"/>
       <c r="I227"/>
@@ -7578,8 +7636,8 @@
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
-      <c r="D228" s="41"/>
-      <c r="E228" s="52"/>
+      <c r="D228" s="40"/>
+      <c r="E228" s="51"/>
       <c r="F228"/>
       <c r="H228"/>
       <c r="I228"/>
@@ -7599,8 +7657,8 @@
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
-      <c r="D229" s="41"/>
-      <c r="E229" s="52"/>
+      <c r="D229" s="40"/>
+      <c r="E229" s="51"/>
       <c r="F229"/>
       <c r="H229"/>
       <c r="I229"/>
@@ -7620,8 +7678,8 @@
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
-      <c r="D230" s="41"/>
-      <c r="E230" s="52"/>
+      <c r="D230" s="40"/>
+      <c r="E230" s="51"/>
       <c r="F230"/>
       <c r="H230"/>
       <c r="I230"/>
@@ -7641,8 +7699,8 @@
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
-      <c r="D231" s="41"/>
-      <c r="E231" s="52"/>
+      <c r="D231" s="40"/>
+      <c r="E231" s="51"/>
       <c r="F231"/>
       <c r="H231"/>
       <c r="I231"/>
@@ -7662,8 +7720,8 @@
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
-      <c r="D232" s="41"/>
-      <c r="E232" s="52"/>
+      <c r="D232" s="40"/>
+      <c r="E232" s="51"/>
       <c r="F232"/>
       <c r="H232"/>
       <c r="I232"/>
@@ -7683,8 +7741,8 @@
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
-      <c r="D233" s="41"/>
-      <c r="E233" s="52"/>
+      <c r="D233" s="40"/>
+      <c r="E233" s="51"/>
       <c r="F233"/>
       <c r="H233"/>
       <c r="I233"/>
@@ -7704,8 +7762,8 @@
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
-      <c r="D234" s="41"/>
-      <c r="E234" s="52"/>
+      <c r="D234" s="40"/>
+      <c r="E234" s="51"/>
       <c r="F234"/>
       <c r="H234"/>
       <c r="I234"/>
@@ -7725,8 +7783,8 @@
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
-      <c r="D235" s="41"/>
-      <c r="E235" s="52"/>
+      <c r="D235" s="40"/>
+      <c r="E235" s="51"/>
       <c r="F235"/>
       <c r="H235"/>
       <c r="I235"/>
@@ -7746,8 +7804,8 @@
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="41"/>
-      <c r="E236" s="52"/>
+      <c r="D236" s="40"/>
+      <c r="E236" s="51"/>
       <c r="F236"/>
       <c r="H236"/>
       <c r="I236"/>
@@ -7767,8 +7825,8 @@
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="41"/>
-      <c r="E237" s="52"/>
+      <c r="D237" s="40"/>
+      <c r="E237" s="51"/>
       <c r="F237"/>
       <c r="H237"/>
       <c r="I237"/>
@@ -7788,8 +7846,8 @@
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="41"/>
-      <c r="E238" s="52"/>
+      <c r="D238" s="40"/>
+      <c r="E238" s="51"/>
       <c r="F238"/>
       <c r="H238"/>
       <c r="I238"/>
@@ -7809,8 +7867,8 @@
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
-      <c r="D239" s="41"/>
-      <c r="E239" s="52"/>
+      <c r="D239" s="40"/>
+      <c r="E239" s="51"/>
       <c r="F239"/>
       <c r="H239"/>
       <c r="I239"/>
@@ -7830,8 +7888,8 @@
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
-      <c r="D240" s="41"/>
-      <c r="E240" s="52"/>
+      <c r="D240" s="40"/>
+      <c r="E240" s="51"/>
       <c r="F240"/>
       <c r="H240"/>
       <c r="I240"/>
@@ -7851,8 +7909,8 @@
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
-      <c r="D241" s="41"/>
-      <c r="E241" s="52"/>
+      <c r="D241" s="40"/>
+      <c r="E241" s="51"/>
       <c r="F241"/>
       <c r="H241"/>
       <c r="I241"/>
@@ -7872,8 +7930,8 @@
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
-      <c r="D242" s="41"/>
-      <c r="E242" s="52"/>
+      <c r="D242" s="40"/>
+      <c r="E242" s="51"/>
       <c r="F242"/>
       <c r="H242"/>
       <c r="I242"/>
@@ -7893,8 +7951,8 @@
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
-      <c r="D243" s="41"/>
-      <c r="E243" s="52"/>
+      <c r="D243" s="40"/>
+      <c r="E243" s="51"/>
       <c r="F243"/>
       <c r="H243"/>
       <c r="I243"/>
@@ -7914,8 +7972,8 @@
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
-      <c r="D244" s="41"/>
-      <c r="E244" s="52"/>
+      <c r="D244" s="40"/>
+      <c r="E244" s="51"/>
       <c r="F244"/>
       <c r="H244"/>
       <c r="I244"/>
@@ -7935,8 +7993,8 @@
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
-      <c r="D245" s="41"/>
-      <c r="E245" s="52"/>
+      <c r="D245" s="40"/>
+      <c r="E245" s="51"/>
       <c r="F245"/>
       <c r="H245"/>
       <c r="I245"/>
@@ -7956,8 +8014,8 @@
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
-      <c r="D246" s="41"/>
-      <c r="E246" s="52"/>
+      <c r="D246" s="40"/>
+      <c r="E246" s="51"/>
       <c r="F246"/>
       <c r="H246"/>
       <c r="I246"/>
@@ -7977,8 +8035,8 @@
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
-      <c r="D247" s="41"/>
-      <c r="E247" s="52"/>
+      <c r="D247" s="40"/>
+      <c r="E247" s="51"/>
       <c r="F247"/>
       <c r="H247"/>
       <c r="I247"/>
@@ -7998,8 +8056,8 @@
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
-      <c r="D248" s="41"/>
-      <c r="E248" s="52"/>
+      <c r="D248" s="40"/>
+      <c r="E248" s="51"/>
       <c r="F248"/>
       <c r="H248"/>
       <c r="I248"/>
@@ -8019,8 +8077,8 @@
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
-      <c r="D249" s="41"/>
-      <c r="E249" s="52"/>
+      <c r="D249" s="40"/>
+      <c r="E249" s="51"/>
       <c r="F249"/>
       <c r="H249"/>
       <c r="I249"/>
@@ -8040,8 +8098,8 @@
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
-      <c r="D250" s="41"/>
-      <c r="E250" s="52"/>
+      <c r="D250" s="40"/>
+      <c r="E250" s="51"/>
       <c r="F250"/>
       <c r="H250"/>
       <c r="I250"/>
@@ -8061,8 +8119,8 @@
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
-      <c r="D251" s="41"/>
-      <c r="E251" s="52"/>
+      <c r="D251" s="40"/>
+      <c r="E251" s="51"/>
       <c r="F251"/>
       <c r="H251"/>
       <c r="I251"/>
@@ -8082,8 +8140,8 @@
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
-      <c r="D252" s="41"/>
-      <c r="E252" s="52"/>
+      <c r="D252" s="40"/>
+      <c r="E252" s="51"/>
       <c r="F252"/>
       <c r="H252"/>
       <c r="I252"/>
@@ -8103,8 +8161,8 @@
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
-      <c r="D253" s="41"/>
-      <c r="E253" s="52"/>
+      <c r="D253" s="40"/>
+      <c r="E253" s="51"/>
       <c r="F253"/>
       <c r="H253"/>
       <c r="I253"/>
@@ -8124,8 +8182,8 @@
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
-      <c r="D254" s="41"/>
-      <c r="E254" s="52"/>
+      <c r="D254" s="40"/>
+      <c r="E254" s="51"/>
       <c r="F254"/>
       <c r="H254"/>
       <c r="I254"/>
@@ -8145,8 +8203,8 @@
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
-      <c r="D255" s="41"/>
-      <c r="E255" s="52"/>
+      <c r="D255" s="40"/>
+      <c r="E255" s="51"/>
       <c r="F255"/>
       <c r="H255"/>
       <c r="I255"/>
@@ -8166,8 +8224,8 @@
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
-      <c r="D256" s="41"/>
-      <c r="E256" s="52"/>
+      <c r="D256" s="40"/>
+      <c r="E256" s="51"/>
       <c r="F256"/>
       <c r="H256"/>
       <c r="I256"/>
@@ -8187,8 +8245,8 @@
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
-      <c r="D257" s="41"/>
-      <c r="E257" s="52"/>
+      <c r="D257" s="40"/>
+      <c r="E257" s="51"/>
       <c r="F257"/>
       <c r="H257"/>
       <c r="I257"/>
@@ -8208,8 +8266,8 @@
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
-      <c r="D258" s="41"/>
-      <c r="E258" s="52"/>
+      <c r="D258" s="40"/>
+      <c r="E258" s="51"/>
       <c r="F258"/>
       <c r="H258"/>
       <c r="I258"/>
@@ -8229,8 +8287,8 @@
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
-      <c r="D259" s="41"/>
-      <c r="E259" s="52"/>
+      <c r="D259" s="40"/>
+      <c r="E259" s="51"/>
       <c r="F259"/>
       <c r="H259"/>
       <c r="I259"/>
@@ -8250,8 +8308,8 @@
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
-      <c r="D260" s="41"/>
-      <c r="E260" s="52"/>
+      <c r="D260" s="40"/>
+      <c r="E260" s="51"/>
       <c r="F260"/>
       <c r="H260"/>
       <c r="I260"/>
@@ -8271,8 +8329,8 @@
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="41"/>
-      <c r="E261" s="52"/>
+      <c r="D261" s="40"/>
+      <c r="E261" s="51"/>
       <c r="F261"/>
       <c r="H261"/>
       <c r="I261"/>
@@ -8292,8 +8350,8 @@
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
-      <c r="D262" s="41"/>
-      <c r="E262" s="52"/>
+      <c r="D262" s="40"/>
+      <c r="E262" s="51"/>
       <c r="F262"/>
       <c r="H262"/>
       <c r="I262"/>
@@ -8313,8 +8371,8 @@
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
-      <c r="D263" s="41"/>
-      <c r="E263" s="52"/>
+      <c r="D263" s="40"/>
+      <c r="E263" s="51"/>
       <c r="F263"/>
       <c r="H263"/>
       <c r="I263"/>
@@ -8334,8 +8392,8 @@
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
-      <c r="D264" s="41"/>
-      <c r="E264" s="52"/>
+      <c r="D264" s="40"/>
+      <c r="E264" s="51"/>
       <c r="F264"/>
       <c r="H264"/>
       <c r="I264"/>
@@ -8355,8 +8413,8 @@
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
-      <c r="D265" s="41"/>
-      <c r="E265" s="52"/>
+      <c r="D265" s="40"/>
+      <c r="E265" s="51"/>
       <c r="F265"/>
       <c r="H265"/>
       <c r="I265"/>
@@ -8376,8 +8434,8 @@
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
-      <c r="D266" s="41"/>
-      <c r="E266" s="52"/>
+      <c r="D266" s="40"/>
+      <c r="E266" s="51"/>
       <c r="F266"/>
       <c r="H266"/>
       <c r="I266"/>
@@ -8397,8 +8455,8 @@
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
-      <c r="D267" s="41"/>
-      <c r="E267" s="52"/>
+      <c r="D267" s="40"/>
+      <c r="E267" s="51"/>
       <c r="F267"/>
       <c r="H267"/>
       <c r="I267"/>
@@ -8418,8 +8476,8 @@
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
-      <c r="D268" s="41"/>
-      <c r="E268" s="52"/>
+      <c r="D268" s="40"/>
+      <c r="E268" s="51"/>
       <c r="F268"/>
       <c r="H268"/>
       <c r="I268"/>
@@ -8439,8 +8497,8 @@
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
-      <c r="D269" s="41"/>
-      <c r="E269" s="52"/>
+      <c r="D269" s="40"/>
+      <c r="E269" s="51"/>
       <c r="F269"/>
       <c r="H269"/>
       <c r="I269"/>
@@ -8460,8 +8518,8 @@
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
-      <c r="D270" s="41"/>
-      <c r="E270" s="52"/>
+      <c r="D270" s="40"/>
+      <c r="E270" s="51"/>
       <c r="F270"/>
       <c r="H270"/>
       <c r="I270"/>
@@ -8481,8 +8539,8 @@
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
-      <c r="D271" s="41"/>
-      <c r="E271" s="52"/>
+      <c r="D271" s="40"/>
+      <c r="E271" s="51"/>
       <c r="F271"/>
       <c r="H271"/>
       <c r="I271"/>
@@ -8502,8 +8560,8 @@
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
-      <c r="D272" s="41"/>
-      <c r="E272" s="52"/>
+      <c r="D272" s="40"/>
+      <c r="E272" s="51"/>
       <c r="F272"/>
       <c r="H272"/>
       <c r="I272"/>
@@ -8523,8 +8581,8 @@
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
-      <c r="D273" s="41"/>
-      <c r="E273" s="52"/>
+      <c r="D273" s="40"/>
+      <c r="E273" s="51"/>
       <c r="F273"/>
       <c r="H273"/>
       <c r="I273"/>
@@ -8544,8 +8602,8 @@
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
-      <c r="D274" s="41"/>
-      <c r="E274" s="52"/>
+      <c r="D274" s="40"/>
+      <c r="E274" s="51"/>
       <c r="F274"/>
       <c r="H274"/>
       <c r="I274"/>
@@ -8565,8 +8623,8 @@
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
-      <c r="D275" s="41"/>
-      <c r="E275" s="52"/>
+      <c r="D275" s="40"/>
+      <c r="E275" s="51"/>
       <c r="F275"/>
       <c r="H275"/>
       <c r="I275"/>
@@ -8586,8 +8644,8 @@
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
-      <c r="D276" s="41"/>
-      <c r="E276" s="52"/>
+      <c r="D276" s="40"/>
+      <c r="E276" s="51"/>
       <c r="F276"/>
       <c r="H276"/>
       <c r="I276"/>
@@ -8607,8 +8665,8 @@
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
-      <c r="D277" s="41"/>
-      <c r="E277" s="52"/>
+      <c r="D277" s="40"/>
+      <c r="E277" s="51"/>
       <c r="F277"/>
       <c r="H277"/>
       <c r="I277"/>
@@ -8628,8 +8686,8 @@
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
-      <c r="D278" s="41"/>
-      <c r="E278" s="52"/>
+      <c r="D278" s="40"/>
+      <c r="E278" s="51"/>
       <c r="F278"/>
       <c r="H278"/>
       <c r="I278"/>
@@ -8649,8 +8707,8 @@
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
-      <c r="D279" s="41"/>
-      <c r="E279" s="52"/>
+      <c r="D279" s="40"/>
+      <c r="E279" s="51"/>
       <c r="F279"/>
       <c r="H279"/>
       <c r="I279"/>
@@ -8670,8 +8728,8 @@
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
-      <c r="D280" s="41"/>
-      <c r="E280" s="52"/>
+      <c r="D280" s="40"/>
+      <c r="E280" s="51"/>
       <c r="F280"/>
       <c r="H280"/>
       <c r="I280"/>
@@ -8691,8 +8749,8 @@
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
-      <c r="D281" s="41"/>
-      <c r="E281" s="52"/>
+      <c r="D281" s="40"/>
+      <c r="E281" s="51"/>
       <c r="F281"/>
       <c r="H281"/>
       <c r="I281"/>
@@ -8712,8 +8770,8 @@
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
-      <c r="D282" s="41"/>
-      <c r="E282" s="52"/>
+      <c r="D282" s="40"/>
+      <c r="E282" s="51"/>
       <c r="F282"/>
       <c r="H282"/>
       <c r="I282"/>
@@ -8733,8 +8791,8 @@
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
-      <c r="D283" s="41"/>
-      <c r="E283" s="52"/>
+      <c r="D283" s="40"/>
+      <c r="E283" s="51"/>
       <c r="F283"/>
       <c r="H283"/>
       <c r="I283"/>
@@ -8754,8 +8812,8 @@
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
-      <c r="D284" s="41"/>
-      <c r="E284" s="52"/>
+      <c r="D284" s="40"/>
+      <c r="E284" s="51"/>
       <c r="F284"/>
       <c r="H284"/>
       <c r="I284"/>
@@ -8775,8 +8833,8 @@
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
-      <c r="D285" s="41"/>
-      <c r="E285" s="52"/>
+      <c r="D285" s="40"/>
+      <c r="E285" s="51"/>
       <c r="F285"/>
       <c r="H285"/>
       <c r="I285"/>
@@ -8796,8 +8854,8 @@
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
-      <c r="D286" s="41"/>
-      <c r="E286" s="52"/>
+      <c r="D286" s="40"/>
+      <c r="E286" s="51"/>
       <c r="F286"/>
       <c r="H286"/>
       <c r="I286"/>
@@ -8817,8 +8875,8 @@
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="41"/>
-      <c r="E287" s="52"/>
+      <c r="D287" s="40"/>
+      <c r="E287" s="51"/>
       <c r="F287"/>
       <c r="H287"/>
       <c r="I287"/>
@@ -8838,8 +8896,8 @@
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
-      <c r="D288" s="41"/>
-      <c r="E288" s="52"/>
+      <c r="D288" s="40"/>
+      <c r="E288" s="51"/>
       <c r="F288"/>
       <c r="H288"/>
       <c r="I288"/>
@@ -8859,8 +8917,8 @@
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
-      <c r="D289" s="41"/>
-      <c r="E289" s="52"/>
+      <c r="D289" s="40"/>
+      <c r="E289" s="51"/>
       <c r="F289"/>
       <c r="H289"/>
       <c r="I289"/>
@@ -8880,8 +8938,8 @@
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
-      <c r="D290" s="41"/>
-      <c r="E290" s="52"/>
+      <c r="D290" s="40"/>
+      <c r="E290" s="51"/>
       <c r="F290"/>
       <c r="H290"/>
       <c r="I290"/>
@@ -8901,8 +8959,8 @@
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
-      <c r="D291" s="41"/>
-      <c r="E291" s="52"/>
+      <c r="D291" s="40"/>
+      <c r="E291" s="51"/>
       <c r="F291"/>
       <c r="H291"/>
       <c r="I291"/>
@@ -8922,8 +8980,8 @@
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
-      <c r="D292" s="41"/>
-      <c r="E292" s="52"/>
+      <c r="D292" s="40"/>
+      <c r="E292" s="51"/>
       <c r="F292"/>
       <c r="H292"/>
       <c r="I292"/>
@@ -8943,8 +9001,8 @@
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
-      <c r="D293" s="41"/>
-      <c r="E293" s="52"/>
+      <c r="D293" s="40"/>
+      <c r="E293" s="51"/>
       <c r="F293"/>
       <c r="H293"/>
       <c r="I293"/>
@@ -8964,8 +9022,8 @@
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
-      <c r="D294" s="41"/>
-      <c r="E294" s="52"/>
+      <c r="D294" s="40"/>
+      <c r="E294" s="51"/>
       <c r="F294"/>
       <c r="H294"/>
       <c r="I294"/>
@@ -8985,8 +9043,8 @@
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
-      <c r="D295" s="41"/>
-      <c r="E295" s="52"/>
+      <c r="D295" s="40"/>
+      <c r="E295" s="51"/>
       <c r="F295"/>
       <c r="H295"/>
       <c r="I295"/>
@@ -9006,8 +9064,8 @@
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
-      <c r="D296" s="41"/>
-      <c r="E296" s="52"/>
+      <c r="D296" s="40"/>
+      <c r="E296" s="51"/>
       <c r="F296"/>
       <c r="H296"/>
       <c r="I296"/>
@@ -9027,8 +9085,8 @@
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
-      <c r="D297" s="41"/>
-      <c r="E297" s="52"/>
+      <c r="D297" s="40"/>
+      <c r="E297" s="51"/>
       <c r="F297"/>
       <c r="H297"/>
       <c r="I297"/>
@@ -9048,8 +9106,8 @@
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
-      <c r="D298" s="41"/>
-      <c r="E298" s="52"/>
+      <c r="D298" s="40"/>
+      <c r="E298" s="51"/>
       <c r="F298"/>
       <c r="H298"/>
       <c r="I298"/>
@@ -9069,8 +9127,8 @@
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
-      <c r="D299" s="41"/>
-      <c r="E299" s="52"/>
+      <c r="D299" s="40"/>
+      <c r="E299" s="51"/>
       <c r="F299"/>
       <c r="H299"/>
       <c r="I299"/>
@@ -9090,8 +9148,8 @@
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
-      <c r="D300" s="41"/>
-      <c r="E300" s="52"/>
+      <c r="D300" s="40"/>
+      <c r="E300" s="51"/>
       <c r="F300"/>
       <c r="H300"/>
       <c r="I300"/>
@@ -9111,8 +9169,8 @@
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
-      <c r="D301" s="41"/>
-      <c r="E301" s="52"/>
+      <c r="D301" s="40"/>
+      <c r="E301" s="51"/>
       <c r="F301"/>
       <c r="H301"/>
       <c r="I301"/>
@@ -9132,8 +9190,8 @@
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
-      <c r="D302" s="41"/>
-      <c r="E302" s="52"/>
+      <c r="D302" s="40"/>
+      <c r="E302" s="51"/>
       <c r="F302"/>
       <c r="H302"/>
       <c r="I302"/>
@@ -9153,8 +9211,8 @@
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
-      <c r="D303" s="41"/>
-      <c r="E303" s="52"/>
+      <c r="D303" s="40"/>
+      <c r="E303" s="51"/>
       <c r="F303"/>
       <c r="H303"/>
       <c r="I303"/>
@@ -9174,8 +9232,8 @@
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
-      <c r="D304" s="41"/>
-      <c r="E304" s="52"/>
+      <c r="D304" s="40"/>
+      <c r="E304" s="51"/>
       <c r="F304"/>
       <c r="H304"/>
       <c r="I304"/>
@@ -9195,8 +9253,8 @@
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
-      <c r="D305" s="41"/>
-      <c r="E305" s="52"/>
+      <c r="D305" s="40"/>
+      <c r="E305" s="51"/>
       <c r="F305"/>
       <c r="H305"/>
       <c r="I305"/>
@@ -9216,8 +9274,8 @@
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
-      <c r="D306" s="41"/>
-      <c r="E306" s="52"/>
+      <c r="D306" s="40"/>
+      <c r="E306" s="51"/>
       <c r="F306"/>
       <c r="H306"/>
       <c r="I306"/>
@@ -9237,8 +9295,8 @@
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
-      <c r="D307" s="41"/>
-      <c r="E307" s="52"/>
+      <c r="D307" s="40"/>
+      <c r="E307" s="51"/>
       <c r="F307"/>
       <c r="H307"/>
       <c r="I307"/>
@@ -9258,8 +9316,8 @@
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
-      <c r="D308" s="41"/>
-      <c r="E308" s="52"/>
+      <c r="D308" s="40"/>
+      <c r="E308" s="51"/>
       <c r="F308"/>
       <c r="H308"/>
       <c r="I308"/>
@@ -9279,8 +9337,8 @@
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
-      <c r="D309" s="41"/>
-      <c r="E309" s="52"/>
+      <c r="D309" s="40"/>
+      <c r="E309" s="51"/>
       <c r="F309"/>
       <c r="H309"/>
       <c r="I309"/>
@@ -9300,8 +9358,8 @@
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="41"/>
-      <c r="E310" s="52"/>
+      <c r="D310" s="40"/>
+      <c r="E310" s="51"/>
       <c r="F310"/>
       <c r="H310"/>
       <c r="I310"/>
@@ -9321,8 +9379,8 @@
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
-      <c r="D311" s="41"/>
-      <c r="E311" s="52"/>
+      <c r="D311" s="40"/>
+      <c r="E311" s="51"/>
       <c r="F311"/>
       <c r="H311"/>
       <c r="I311"/>
@@ -9342,8 +9400,8 @@
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
-      <c r="D312" s="41"/>
-      <c r="E312" s="52"/>
+      <c r="D312" s="40"/>
+      <c r="E312" s="51"/>
       <c r="F312"/>
       <c r="H312"/>
       <c r="I312"/>
@@ -9363,8 +9421,8 @@
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
-      <c r="D313" s="41"/>
-      <c r="E313" s="52"/>
+      <c r="D313" s="40"/>
+      <c r="E313" s="51"/>
       <c r="F313"/>
       <c r="H313"/>
       <c r="I313"/>
@@ -9384,8 +9442,8 @@
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
-      <c r="D314" s="41"/>
-      <c r="E314" s="52"/>
+      <c r="D314" s="40"/>
+      <c r="E314" s="51"/>
       <c r="F314"/>
       <c r="H314"/>
       <c r="I314"/>
@@ -9405,8 +9463,8 @@
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
-      <c r="D315" s="41"/>
-      <c r="E315" s="52"/>
+      <c r="D315" s="40"/>
+      <c r="E315" s="51"/>
       <c r="F315"/>
       <c r="H315"/>
       <c r="I315"/>
@@ -9426,8 +9484,8 @@
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
-      <c r="D316" s="41"/>
-      <c r="E316" s="52"/>
+      <c r="D316" s="40"/>
+      <c r="E316" s="51"/>
       <c r="F316"/>
       <c r="H316"/>
       <c r="I316"/>
@@ -9447,8 +9505,8 @@
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
-      <c r="D317" s="41"/>
-      <c r="E317" s="52"/>
+      <c r="D317" s="40"/>
+      <c r="E317" s="51"/>
       <c r="F317"/>
       <c r="H317"/>
       <c r="I317"/>
@@ -9468,8 +9526,8 @@
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
-      <c r="D318" s="41"/>
-      <c r="E318" s="52"/>
+      <c r="D318" s="40"/>
+      <c r="E318" s="51"/>
       <c r="F318"/>
       <c r="H318"/>
       <c r="I318"/>
@@ -9489,8 +9547,8 @@
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
-      <c r="D319" s="41"/>
-      <c r="E319" s="52"/>
+      <c r="D319" s="40"/>
+      <c r="E319" s="51"/>
       <c r="F319"/>
       <c r="H319"/>
       <c r="I319"/>
@@ -9510,8 +9568,8 @@
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
-      <c r="D320" s="41"/>
-      <c r="E320" s="52"/>
+      <c r="D320" s="40"/>
+      <c r="E320" s="51"/>
       <c r="F320"/>
       <c r="H320"/>
       <c r="I320"/>
@@ -9531,8 +9589,8 @@
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
-      <c r="D321" s="41"/>
-      <c r="E321" s="52"/>
+      <c r="D321" s="40"/>
+      <c r="E321" s="51"/>
       <c r="F321"/>
       <c r="H321"/>
       <c r="I321"/>
@@ -9552,8 +9610,8 @@
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
-      <c r="D322" s="41"/>
-      <c r="E322" s="52"/>
+      <c r="D322" s="40"/>
+      <c r="E322" s="51"/>
       <c r="F322"/>
       <c r="H322"/>
       <c r="I322"/>
@@ -9573,8 +9631,8 @@
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
-      <c r="D323" s="41"/>
-      <c r="E323" s="52"/>
+      <c r="D323" s="40"/>
+      <c r="E323" s="51"/>
       <c r="F323"/>
       <c r="H323"/>
       <c r="I323"/>
@@ -9594,8 +9652,8 @@
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
-      <c r="D324" s="41"/>
-      <c r="E324" s="52"/>
+      <c r="D324" s="40"/>
+      <c r="E324" s="51"/>
       <c r="F324"/>
       <c r="H324"/>
       <c r="I324"/>
@@ -9615,8 +9673,8 @@
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
-      <c r="D325" s="41"/>
-      <c r="E325" s="52"/>
+      <c r="D325" s="40"/>
+      <c r="E325" s="51"/>
       <c r="F325"/>
       <c r="H325"/>
       <c r="I325"/>
@@ -9636,8 +9694,8 @@
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
-      <c r="D326" s="41"/>
-      <c r="E326" s="52"/>
+      <c r="D326" s="40"/>
+      <c r="E326" s="51"/>
       <c r="F326"/>
       <c r="H326"/>
       <c r="I326"/>
@@ -9657,8 +9715,8 @@
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
-      <c r="D327" s="41"/>
-      <c r="E327" s="52"/>
+      <c r="D327" s="40"/>
+      <c r="E327" s="51"/>
       <c r="F327"/>
       <c r="H327"/>
       <c r="I327"/>
@@ -9678,8 +9736,8 @@
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
-      <c r="D328" s="41"/>
-      <c r="E328" s="52"/>
+      <c r="D328" s="40"/>
+      <c r="E328" s="51"/>
       <c r="F328"/>
       <c r="H328"/>
       <c r="I328"/>
@@ -9699,8 +9757,8 @@
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
-      <c r="D329" s="41"/>
-      <c r="E329" s="52"/>
+      <c r="D329" s="40"/>
+      <c r="E329" s="51"/>
       <c r="F329"/>
       <c r="H329"/>
       <c r="I329"/>
@@ -9720,8 +9778,8 @@
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
-      <c r="D330" s="41"/>
-      <c r="E330" s="52"/>
+      <c r="D330" s="40"/>
+      <c r="E330" s="51"/>
       <c r="F330"/>
       <c r="H330"/>
       <c r="I330"/>
@@ -9741,8 +9799,8 @@
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
-      <c r="D331" s="41"/>
-      <c r="E331" s="52"/>
+      <c r="D331" s="40"/>
+      <c r="E331" s="51"/>
       <c r="F331"/>
       <c r="H331"/>
       <c r="I331"/>
@@ -9762,8 +9820,8 @@
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
-      <c r="D332" s="41"/>
-      <c r="E332" s="52"/>
+      <c r="D332" s="40"/>
+      <c r="E332" s="51"/>
       <c r="F332"/>
       <c r="H332"/>
       <c r="I332"/>
@@ -9783,8 +9841,8 @@
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="41"/>
-      <c r="E333" s="52"/>
+      <c r="D333" s="40"/>
+      <c r="E333" s="51"/>
       <c r="F333"/>
       <c r="H333"/>
       <c r="I333"/>
@@ -9804,8 +9862,8 @@
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
-      <c r="D334" s="41"/>
-      <c r="E334" s="52"/>
+      <c r="D334" s="40"/>
+      <c r="E334" s="51"/>
       <c r="F334"/>
       <c r="H334"/>
       <c r="I334"/>
@@ -9825,8 +9883,8 @@
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
-      <c r="D335" s="41"/>
-      <c r="E335" s="52"/>
+      <c r="D335" s="40"/>
+      <c r="E335" s="51"/>
       <c r="F335"/>
       <c r="H335"/>
       <c r="I335"/>
@@ -9846,8 +9904,8 @@
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
-      <c r="D336" s="41"/>
-      <c r="E336" s="52"/>
+      <c r="D336" s="40"/>
+      <c r="E336" s="51"/>
       <c r="F336"/>
       <c r="H336"/>
       <c r="I336"/>
@@ -9867,8 +9925,8 @@
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
-      <c r="D337" s="41"/>
-      <c r="E337" s="52"/>
+      <c r="D337" s="40"/>
+      <c r="E337" s="51"/>
       <c r="F337"/>
       <c r="H337"/>
       <c r="I337"/>
@@ -9888,8 +9946,8 @@
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
-      <c r="D338" s="41"/>
-      <c r="E338" s="52"/>
+      <c r="D338" s="40"/>
+      <c r="E338" s="51"/>
       <c r="F338"/>
       <c r="H338"/>
       <c r="I338"/>
@@ -9909,8 +9967,8 @@
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
-      <c r="D339" s="41"/>
-      <c r="E339" s="52"/>
+      <c r="D339" s="40"/>
+      <c r="E339" s="51"/>
       <c r="F339"/>
       <c r="H339"/>
       <c r="I339"/>
@@ -9930,8 +9988,8 @@
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
-      <c r="D340" s="41"/>
-      <c r="E340" s="52"/>
+      <c r="D340" s="40"/>
+      <c r="E340" s="51"/>
       <c r="F340"/>
       <c r="H340"/>
       <c r="I340"/>
@@ -9951,8 +10009,8 @@
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
-      <c r="D341" s="41"/>
-      <c r="E341" s="52"/>
+      <c r="D341" s="40"/>
+      <c r="E341" s="51"/>
       <c r="F341"/>
       <c r="H341"/>
       <c r="I341"/>
@@ -9972,8 +10030,8 @@
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
-      <c r="D342" s="41"/>
-      <c r="E342" s="52"/>
+      <c r="D342" s="40"/>
+      <c r="E342" s="51"/>
       <c r="F342"/>
       <c r="H342"/>
       <c r="I342"/>
@@ -9993,8 +10051,8 @@
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
-      <c r="D343" s="41"/>
-      <c r="E343" s="52"/>
+      <c r="D343" s="40"/>
+      <c r="E343" s="51"/>
       <c r="F343"/>
       <c r="H343"/>
       <c r="I343"/>
@@ -10014,8 +10072,8 @@
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
-      <c r="D344" s="41"/>
-      <c r="E344" s="52"/>
+      <c r="D344" s="40"/>
+      <c r="E344" s="51"/>
       <c r="F344"/>
       <c r="H344"/>
       <c r="I344"/>
@@ -10035,8 +10093,8 @@
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
-      <c r="D345" s="41"/>
-      <c r="E345" s="52"/>
+      <c r="D345" s="40"/>
+      <c r="E345" s="51"/>
       <c r="F345"/>
       <c r="H345"/>
       <c r="I345"/>
@@ -10056,8 +10114,8 @@
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
-      <c r="D346" s="41"/>
-      <c r="E346" s="52"/>
+      <c r="D346" s="40"/>
+      <c r="E346" s="51"/>
       <c r="F346"/>
       <c r="H346"/>
       <c r="I346"/>
@@ -10077,8 +10135,8 @@
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
-      <c r="D347" s="41"/>
-      <c r="E347" s="52"/>
+      <c r="D347" s="40"/>
+      <c r="E347" s="51"/>
       <c r="F347"/>
       <c r="H347"/>
       <c r="I347"/>
@@ -10098,8 +10156,8 @@
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
-      <c r="D348" s="41"/>
-      <c r="E348" s="52"/>
+      <c r="D348" s="40"/>
+      <c r="E348" s="51"/>
       <c r="F348"/>
       <c r="H348"/>
       <c r="I348"/>
@@ -10119,8 +10177,8 @@
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
-      <c r="D349" s="41"/>
-      <c r="E349" s="52"/>
+      <c r="D349" s="40"/>
+      <c r="E349" s="51"/>
       <c r="F349"/>
       <c r="H349"/>
       <c r="I349"/>
@@ -10140,8 +10198,8 @@
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
-      <c r="D350" s="41"/>
-      <c r="E350" s="52"/>
+      <c r="D350" s="40"/>
+      <c r="E350" s="51"/>
       <c r="F350"/>
       <c r="H350"/>
       <c r="I350"/>
@@ -10161,8 +10219,8 @@
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
-      <c r="D351" s="41"/>
-      <c r="E351" s="52"/>
+      <c r="D351" s="40"/>
+      <c r="E351" s="51"/>
       <c r="F351"/>
       <c r="H351"/>
       <c r="I351"/>
@@ -10182,8 +10240,8 @@
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
-      <c r="D352" s="41"/>
-      <c r="E352" s="52"/>
+      <c r="D352" s="40"/>
+      <c r="E352" s="51"/>
       <c r="F352"/>
       <c r="H352"/>
       <c r="I352"/>
@@ -10203,8 +10261,8 @@
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
-      <c r="D353" s="41"/>
-      <c r="E353" s="52"/>
+      <c r="D353" s="40"/>
+      <c r="E353" s="51"/>
       <c r="F353"/>
       <c r="H353"/>
       <c r="I353"/>
@@ -10224,8 +10282,8 @@
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
-      <c r="D354" s="41"/>
-      <c r="E354" s="52"/>
+      <c r="D354" s="40"/>
+      <c r="E354" s="51"/>
       <c r="F354"/>
       <c r="H354"/>
       <c r="I354"/>
@@ -10245,8 +10303,8 @@
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
-      <c r="D355" s="41"/>
-      <c r="E355" s="52"/>
+      <c r="D355" s="40"/>
+      <c r="E355" s="51"/>
       <c r="F355"/>
       <c r="H355"/>
       <c r="I355"/>
@@ -10266,8 +10324,8 @@
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="41"/>
-      <c r="E356" s="52"/>
+      <c r="D356" s="40"/>
+      <c r="E356" s="51"/>
       <c r="F356"/>
       <c r="H356"/>
       <c r="I356"/>
@@ -10287,8 +10345,8 @@
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
-      <c r="D357" s="41"/>
-      <c r="E357" s="52"/>
+      <c r="D357" s="40"/>
+      <c r="E357" s="51"/>
       <c r="F357"/>
       <c r="H357"/>
       <c r="I357"/>
@@ -10308,8 +10366,8 @@
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
-      <c r="D358" s="41"/>
-      <c r="E358" s="52"/>
+      <c r="D358" s="40"/>
+      <c r="E358" s="51"/>
       <c r="F358"/>
       <c r="H358"/>
       <c r="I358"/>
@@ -10329,8 +10387,8 @@
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
-      <c r="D359" s="41"/>
-      <c r="E359" s="52"/>
+      <c r="D359" s="40"/>
+      <c r="E359" s="51"/>
       <c r="F359"/>
       <c r="H359"/>
       <c r="I359"/>
@@ -10350,8 +10408,8 @@
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
-      <c r="D360" s="41"/>
-      <c r="E360" s="52"/>
+      <c r="D360" s="40"/>
+      <c r="E360" s="51"/>
       <c r="F360"/>
       <c r="H360"/>
       <c r="I360"/>
@@ -10371,8 +10429,8 @@
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
-      <c r="D361" s="41"/>
-      <c r="E361" s="52"/>
+      <c r="D361" s="40"/>
+      <c r="E361" s="51"/>
       <c r="F361"/>
       <c r="H361"/>
       <c r="I361"/>
@@ -10392,8 +10450,8 @@
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
-      <c r="D362" s="41"/>
-      <c r="E362" s="52"/>
+      <c r="D362" s="40"/>
+      <c r="E362" s="51"/>
       <c r="F362"/>
       <c r="H362"/>
       <c r="I362"/>
@@ -10413,8 +10471,8 @@
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
-      <c r="D363" s="41"/>
-      <c r="E363" s="52"/>
+      <c r="D363" s="40"/>
+      <c r="E363" s="51"/>
       <c r="F363"/>
       <c r="H363"/>
       <c r="I363"/>
@@ -10434,8 +10492,8 @@
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
-      <c r="D364" s="41"/>
-      <c r="E364" s="52"/>
+      <c r="D364" s="40"/>
+      <c r="E364" s="51"/>
       <c r="F364"/>
       <c r="H364"/>
       <c r="I364"/>
@@ -10455,8 +10513,8 @@
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
-      <c r="D365" s="41"/>
-      <c r="E365" s="52"/>
+      <c r="D365" s="40"/>
+      <c r="E365" s="51"/>
       <c r="F365"/>
       <c r="H365"/>
       <c r="I365"/>
@@ -10476,8 +10534,8 @@
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
-      <c r="D366" s="41"/>
-      <c r="E366" s="52"/>
+      <c r="D366" s="40"/>
+      <c r="E366" s="51"/>
       <c r="F366"/>
       <c r="H366"/>
       <c r="I366"/>
@@ -10497,8 +10555,8 @@
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
-      <c r="D367" s="41"/>
-      <c r="E367" s="52"/>
+      <c r="D367" s="40"/>
+      <c r="E367" s="51"/>
       <c r="F367"/>
       <c r="H367"/>
       <c r="I367"/>
@@ -10518,8 +10576,8 @@
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
-      <c r="D368" s="41"/>
-      <c r="E368" s="52"/>
+      <c r="D368" s="40"/>
+      <c r="E368" s="51"/>
       <c r="F368"/>
       <c r="H368"/>
       <c r="I368"/>
@@ -10539,8 +10597,8 @@
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
-      <c r="D369" s="41"/>
-      <c r="E369" s="52"/>
+      <c r="D369" s="40"/>
+      <c r="E369" s="51"/>
       <c r="F369"/>
       <c r="H369"/>
       <c r="I369"/>
@@ -10560,8 +10618,8 @@
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
-      <c r="D370" s="41"/>
-      <c r="E370" s="52"/>
+      <c r="D370" s="40"/>
+      <c r="E370" s="51"/>
       <c r="F370"/>
       <c r="H370"/>
       <c r="I370"/>
@@ -10581,8 +10639,8 @@
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
-      <c r="D371" s="41"/>
-      <c r="E371" s="52"/>
+      <c r="D371" s="40"/>
+      <c r="E371" s="51"/>
       <c r="F371"/>
       <c r="H371"/>
       <c r="I371"/>
@@ -10602,8 +10660,8 @@
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
-      <c r="D372" s="41"/>
-      <c r="E372" s="52"/>
+      <c r="D372" s="40"/>
+      <c r="E372" s="51"/>
       <c r="F372"/>
       <c r="H372"/>
       <c r="I372"/>
@@ -10623,8 +10681,8 @@
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
-      <c r="D373" s="41"/>
-      <c r="E373" s="52"/>
+      <c r="D373" s="40"/>
+      <c r="E373" s="51"/>
       <c r="F373"/>
       <c r="H373"/>
       <c r="I373"/>
@@ -10644,8 +10702,8 @@
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
-      <c r="D374" s="41"/>
-      <c r="E374" s="52"/>
+      <c r="D374" s="40"/>
+      <c r="E374" s="51"/>
       <c r="F374"/>
       <c r="H374"/>
       <c r="I374"/>
@@ -10665,8 +10723,8 @@
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
-      <c r="D375" s="41"/>
-      <c r="E375" s="52"/>
+      <c r="D375" s="40"/>
+      <c r="E375" s="51"/>
       <c r="F375"/>
       <c r="H375"/>
       <c r="I375"/>
@@ -10686,8 +10744,8 @@
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
-      <c r="D376" s="41"/>
-      <c r="E376" s="52"/>
+      <c r="D376" s="40"/>
+      <c r="E376" s="51"/>
       <c r="F376"/>
       <c r="H376"/>
       <c r="I376"/>
@@ -10707,8 +10765,8 @@
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
-      <c r="D377" s="41"/>
-      <c r="E377" s="52"/>
+      <c r="D377" s="40"/>
+      <c r="E377" s="51"/>
       <c r="F377"/>
       <c r="H377"/>
       <c r="I377"/>
@@ -10728,8 +10786,8 @@
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
-      <c r="D378" s="41"/>
-      <c r="E378" s="52"/>
+      <c r="D378" s="40"/>
+      <c r="E378" s="51"/>
       <c r="F378"/>
       <c r="H378"/>
       <c r="I378"/>
@@ -10749,8 +10807,8 @@
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="41"/>
-      <c r="E379" s="52"/>
+      <c r="D379" s="40"/>
+      <c r="E379" s="51"/>
       <c r="F379"/>
       <c r="H379"/>
       <c r="I379"/>
@@ -10770,8 +10828,8 @@
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
-      <c r="D380" s="41"/>
-      <c r="E380" s="52"/>
+      <c r="D380" s="40"/>
+      <c r="E380" s="51"/>
       <c r="F380"/>
       <c r="H380"/>
       <c r="I380"/>
@@ -10791,8 +10849,8 @@
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
-      <c r="D381" s="41"/>
-      <c r="E381" s="52"/>
+      <c r="D381" s="40"/>
+      <c r="E381" s="51"/>
       <c r="F381"/>
       <c r="H381"/>
       <c r="I381"/>
@@ -10812,8 +10870,8 @@
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
-      <c r="D382" s="41"/>
-      <c r="E382" s="52"/>
+      <c r="D382" s="40"/>
+      <c r="E382" s="51"/>
       <c r="F382"/>
       <c r="H382"/>
       <c r="I382"/>
@@ -10833,8 +10891,8 @@
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
-      <c r="D383" s="41"/>
-      <c r="E383" s="52"/>
+      <c r="D383" s="40"/>
+      <c r="E383" s="51"/>
       <c r="F383"/>
       <c r="H383"/>
       <c r="I383"/>
@@ -10854,8 +10912,8 @@
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
-      <c r="D384" s="41"/>
-      <c r="E384" s="52"/>
+      <c r="D384" s="40"/>
+      <c r="E384" s="51"/>
       <c r="F384"/>
       <c r="H384"/>
       <c r="I384"/>
@@ -10875,8 +10933,8 @@
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
-      <c r="D385" s="41"/>
-      <c r="E385" s="52"/>
+      <c r="D385" s="40"/>
+      <c r="E385" s="51"/>
       <c r="F385"/>
       <c r="H385"/>
       <c r="I385"/>
@@ -10896,8 +10954,8 @@
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
-      <c r="D386" s="41"/>
-      <c r="E386" s="52"/>
+      <c r="D386" s="40"/>
+      <c r="E386" s="51"/>
       <c r="F386"/>
       <c r="H386"/>
       <c r="I386"/>
@@ -10917,8 +10975,8 @@
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
-      <c r="D387" s="41"/>
-      <c r="E387" s="52"/>
+      <c r="D387" s="40"/>
+      <c r="E387" s="51"/>
       <c r="F387"/>
       <c r="H387"/>
       <c r="I387"/>
@@ -10938,8 +10996,8 @@
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
-      <c r="D388" s="41"/>
-      <c r="E388" s="52"/>
+      <c r="D388" s="40"/>
+      <c r="E388" s="51"/>
       <c r="F388"/>
       <c r="H388"/>
       <c r="I388"/>
@@ -10959,8 +11017,8 @@
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
-      <c r="D389" s="41"/>
-      <c r="E389" s="52"/>
+      <c r="D389" s="40"/>
+      <c r="E389" s="51"/>
       <c r="F389"/>
       <c r="H389"/>
       <c r="I389"/>
@@ -10980,8 +11038,8 @@
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
-      <c r="D390" s="41"/>
-      <c r="E390" s="52"/>
+      <c r="D390" s="40"/>
+      <c r="E390" s="51"/>
       <c r="F390"/>
       <c r="H390"/>
       <c r="I390"/>
@@ -11001,8 +11059,8 @@
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
-      <c r="D391" s="41"/>
-      <c r="E391" s="52"/>
+      <c r="D391" s="40"/>
+      <c r="E391" s="51"/>
       <c r="F391"/>
       <c r="H391"/>
       <c r="I391"/>
@@ -11022,8 +11080,8 @@
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
-      <c r="D392" s="41"/>
-      <c r="E392" s="52"/>
+      <c r="D392" s="40"/>
+      <c r="E392" s="51"/>
       <c r="F392"/>
       <c r="H392"/>
       <c r="I392"/>
@@ -11043,8 +11101,8 @@
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
-      <c r="D393" s="41"/>
-      <c r="E393" s="52"/>
+      <c r="D393" s="40"/>
+      <c r="E393" s="51"/>
       <c r="F393"/>
       <c r="H393"/>
       <c r="I393"/>
@@ -11064,8 +11122,8 @@
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
-      <c r="D394" s="41"/>
-      <c r="E394" s="52"/>
+      <c r="D394" s="40"/>
+      <c r="E394" s="51"/>
       <c r="F394"/>
       <c r="H394"/>
       <c r="I394"/>
@@ -11085,8 +11143,8 @@
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
-      <c r="D395" s="41"/>
-      <c r="E395" s="52"/>
+      <c r="D395" s="40"/>
+      <c r="E395" s="51"/>
       <c r="F395"/>
       <c r="H395"/>
       <c r="I395"/>
@@ -11106,8 +11164,8 @@
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
-      <c r="D396" s="41"/>
-      <c r="E396" s="52"/>
+      <c r="D396" s="40"/>
+      <c r="E396" s="51"/>
       <c r="F396"/>
       <c r="H396"/>
       <c r="I396"/>
@@ -11127,8 +11185,8 @@
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
-      <c r="D397" s="41"/>
-      <c r="E397" s="52"/>
+      <c r="D397" s="40"/>
+      <c r="E397" s="51"/>
       <c r="F397"/>
       <c r="H397"/>
       <c r="I397"/>
@@ -11148,8 +11206,8 @@
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398"/>
-      <c r="D398" s="41"/>
-      <c r="E398" s="52"/>
+      <c r="D398" s="40"/>
+      <c r="E398" s="51"/>
       <c r="F398"/>
       <c r="H398"/>
       <c r="I398"/>
@@ -11169,8 +11227,8 @@
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399"/>
-      <c r="D399" s="41"/>
-      <c r="E399" s="52"/>
+      <c r="D399" s="40"/>
+      <c r="E399" s="51"/>
       <c r="F399"/>
       <c r="H399"/>
       <c r="I399"/>
@@ -11190,8 +11248,8 @@
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400"/>
-      <c r="D400" s="41"/>
-      <c r="E400" s="52"/>
+      <c r="D400" s="40"/>
+      <c r="E400" s="51"/>
       <c r="F400"/>
       <c r="H400"/>
       <c r="I400"/>
@@ -11211,8 +11269,8 @@
       <c r="A401"/>
       <c r="B401"/>
       <c r="C401"/>
-      <c r="D401" s="41"/>
-      <c r="E401" s="52"/>
+      <c r="D401" s="40"/>
+      <c r="E401" s="51"/>
       <c r="F401"/>
       <c r="H401"/>
       <c r="I401"/>
@@ -11232,8 +11290,8 @@
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="41"/>
-      <c r="E402" s="52"/>
+      <c r="D402" s="40"/>
+      <c r="E402" s="51"/>
       <c r="F402"/>
       <c r="H402"/>
       <c r="I402"/>
@@ -11253,8 +11311,8 @@
       <c r="A403"/>
       <c r="B403"/>
       <c r="C403"/>
-      <c r="D403" s="41"/>
-      <c r="E403" s="52"/>
+      <c r="D403" s="40"/>
+      <c r="E403" s="51"/>
       <c r="F403"/>
       <c r="H403"/>
       <c r="I403"/>
@@ -11274,8 +11332,8 @@
       <c r="A404"/>
       <c r="B404"/>
       <c r="C404"/>
-      <c r="D404" s="41"/>
-      <c r="E404" s="52"/>
+      <c r="D404" s="40"/>
+      <c r="E404" s="51"/>
       <c r="F404"/>
       <c r="H404"/>
       <c r="I404"/>
@@ -11295,8 +11353,8 @@
       <c r="A405"/>
       <c r="B405"/>
       <c r="C405"/>
-      <c r="D405" s="41"/>
-      <c r="E405" s="52"/>
+      <c r="D405" s="40"/>
+      <c r="E405" s="51"/>
       <c r="F405"/>
       <c r="H405"/>
       <c r="I405"/>
@@ -11316,8 +11374,8 @@
       <c r="A406"/>
       <c r="B406"/>
       <c r="C406"/>
-      <c r="D406" s="41"/>
-      <c r="E406" s="52"/>
+      <c r="D406" s="40"/>
+      <c r="E406" s="51"/>
       <c r="F406"/>
       <c r="H406"/>
       <c r="I406"/>
@@ -11337,8 +11395,8 @@
       <c r="A407"/>
       <c r="B407"/>
       <c r="C407"/>
-      <c r="D407" s="41"/>
-      <c r="E407" s="52"/>
+      <c r="D407" s="40"/>
+      <c r="E407" s="51"/>
       <c r="F407"/>
       <c r="H407"/>
       <c r="I407"/>
@@ -11358,8 +11416,8 @@
       <c r="A408"/>
       <c r="B408"/>
       <c r="C408"/>
-      <c r="D408" s="41"/>
-      <c r="E408" s="52"/>
+      <c r="D408" s="40"/>
+      <c r="E408" s="51"/>
       <c r="F408"/>
       <c r="H408"/>
       <c r="I408"/>
@@ -11379,8 +11437,8 @@
       <c r="A409"/>
       <c r="B409"/>
       <c r="C409"/>
-      <c r="D409" s="41"/>
-      <c r="E409" s="52"/>
+      <c r="D409" s="40"/>
+      <c r="E409" s="51"/>
       <c r="F409"/>
       <c r="H409"/>
       <c r="I409"/>
@@ -11400,8 +11458,8 @@
       <c r="A410"/>
       <c r="B410"/>
       <c r="C410"/>
-      <c r="D410" s="41"/>
-      <c r="E410" s="52"/>
+      <c r="D410" s="40"/>
+      <c r="E410" s="51"/>
       <c r="F410"/>
       <c r="H410"/>
       <c r="I410"/>
@@ -11421,8 +11479,8 @@
       <c r="A411"/>
       <c r="B411"/>
       <c r="C411"/>
-      <c r="D411" s="41"/>
-      <c r="E411" s="52"/>
+      <c r="D411" s="40"/>
+      <c r="E411" s="51"/>
       <c r="F411"/>
       <c r="H411"/>
       <c r="I411"/>
@@ -11442,8 +11500,8 @@
       <c r="A412"/>
       <c r="B412"/>
       <c r="C412"/>
-      <c r="D412" s="41"/>
-      <c r="E412" s="52"/>
+      <c r="D412" s="40"/>
+      <c r="E412" s="51"/>
       <c r="F412"/>
       <c r="H412"/>
       <c r="I412"/>
@@ -11463,8 +11521,8 @@
       <c r="A413"/>
       <c r="B413"/>
       <c r="C413"/>
-      <c r="D413" s="41"/>
-      <c r="E413" s="52"/>
+      <c r="D413" s="40"/>
+      <c r="E413" s="51"/>
       <c r="F413"/>
       <c r="H413"/>
       <c r="I413"/>
@@ -11484,8 +11542,8 @@
       <c r="A414"/>
       <c r="B414"/>
       <c r="C414"/>
-      <c r="D414" s="41"/>
-      <c r="E414" s="52"/>
+      <c r="D414" s="40"/>
+      <c r="E414" s="51"/>
       <c r="F414"/>
       <c r="H414"/>
       <c r="I414"/>
@@ -11505,8 +11563,8 @@
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
-      <c r="D415" s="41"/>
-      <c r="E415" s="52"/>
+      <c r="D415" s="40"/>
+      <c r="E415" s="51"/>
       <c r="F415"/>
       <c r="H415"/>
       <c r="I415"/>
@@ -11526,8 +11584,8 @@
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
-      <c r="D416" s="41"/>
-      <c r="E416" s="52"/>
+      <c r="D416" s="40"/>
+      <c r="E416" s="51"/>
       <c r="F416"/>
       <c r="H416"/>
       <c r="I416"/>
@@ -11547,8 +11605,8 @@
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
-      <c r="D417" s="41"/>
-      <c r="E417" s="52"/>
+      <c r="D417" s="40"/>
+      <c r="E417" s="51"/>
       <c r="F417"/>
       <c r="H417"/>
       <c r="I417"/>
@@ -11568,8 +11626,8 @@
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
-      <c r="D418" s="41"/>
-      <c r="E418" s="52"/>
+      <c r="D418" s="40"/>
+      <c r="E418" s="51"/>
       <c r="F418"/>
       <c r="H418"/>
       <c r="I418"/>
@@ -11589,8 +11647,8 @@
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
-      <c r="D419" s="41"/>
-      <c r="E419" s="52"/>
+      <c r="D419" s="40"/>
+      <c r="E419" s="51"/>
       <c r="F419"/>
       <c r="H419"/>
       <c r="I419"/>
@@ -11610,8 +11668,8 @@
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
-      <c r="D420" s="41"/>
-      <c r="E420" s="52"/>
+      <c r="D420" s="40"/>
+      <c r="E420" s="51"/>
       <c r="F420"/>
       <c r="H420"/>
       <c r="I420"/>
@@ -11631,8 +11689,8 @@
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
-      <c r="D421" s="41"/>
-      <c r="E421" s="52"/>
+      <c r="D421" s="40"/>
+      <c r="E421" s="51"/>
       <c r="F421"/>
       <c r="H421"/>
       <c r="I421"/>
@@ -11652,8 +11710,8 @@
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
-      <c r="D422" s="41"/>
-      <c r="E422" s="52"/>
+      <c r="D422" s="40"/>
+      <c r="E422" s="51"/>
       <c r="F422"/>
       <c r="H422"/>
       <c r="I422"/>
@@ -11673,8 +11731,8 @@
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
-      <c r="D423" s="41"/>
-      <c r="E423" s="52"/>
+      <c r="D423" s="40"/>
+      <c r="E423" s="51"/>
       <c r="F423"/>
       <c r="H423"/>
       <c r="I423"/>
@@ -11694,8 +11752,8 @@
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
-      <c r="D424" s="41"/>
-      <c r="E424" s="52"/>
+      <c r="D424" s="40"/>
+      <c r="E424" s="51"/>
       <c r="F424"/>
       <c r="H424"/>
       <c r="I424"/>
@@ -11715,8 +11773,8 @@
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
-      <c r="D425" s="41"/>
-      <c r="E425" s="52"/>
+      <c r="D425" s="40"/>
+      <c r="E425" s="51"/>
       <c r="F425"/>
       <c r="H425"/>
       <c r="I425"/>
@@ -11736,8 +11794,8 @@
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
-      <c r="D426" s="41"/>
-      <c r="E426" s="52"/>
+      <c r="D426" s="40"/>
+      <c r="E426" s="51"/>
       <c r="F426"/>
       <c r="H426"/>
       <c r="I426"/>
@@ -11757,8 +11815,8 @@
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
-      <c r="D427" s="41"/>
-      <c r="E427" s="52"/>
+      <c r="D427" s="40"/>
+      <c r="E427" s="51"/>
       <c r="F427"/>
       <c r="H427"/>
       <c r="I427"/>
@@ -11778,8 +11836,8 @@
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
-      <c r="D428" s="41"/>
-      <c r="E428" s="52"/>
+      <c r="D428" s="40"/>
+      <c r="E428" s="51"/>
       <c r="F428"/>
       <c r="H428"/>
       <c r="I428"/>
@@ -11799,8 +11857,8 @@
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
-      <c r="D429" s="41"/>
-      <c r="E429" s="52"/>
+      <c r="D429" s="40"/>
+      <c r="E429" s="51"/>
       <c r="F429"/>
       <c r="H429"/>
       <c r="I429"/>
@@ -11820,8 +11878,8 @@
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
-      <c r="D430" s="41"/>
-      <c r="E430" s="52"/>
+      <c r="D430" s="40"/>
+      <c r="E430" s="51"/>
       <c r="F430"/>
       <c r="H430"/>
       <c r="I430"/>
@@ -11841,8 +11899,8 @@
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
-      <c r="D431" s="41"/>
-      <c r="E431" s="52"/>
+      <c r="D431" s="40"/>
+      <c r="E431" s="51"/>
       <c r="F431"/>
       <c r="H431"/>
       <c r="I431"/>
@@ -11862,8 +11920,8 @@
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
-      <c r="D432" s="41"/>
-      <c r="E432" s="52"/>
+      <c r="D432" s="40"/>
+      <c r="E432" s="51"/>
       <c r="F432"/>
       <c r="H432"/>
       <c r="I432"/>
@@ -11883,8 +11941,8 @@
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
-      <c r="D433" s="41"/>
-      <c r="E433" s="52"/>
+      <c r="D433" s="40"/>
+      <c r="E433" s="51"/>
       <c r="F433"/>
       <c r="H433"/>
       <c r="I433"/>
@@ -11904,8 +11962,8 @@
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
-      <c r="D434" s="41"/>
-      <c r="E434" s="52"/>
+      <c r="D434" s="40"/>
+      <c r="E434" s="51"/>
       <c r="F434"/>
       <c r="H434"/>
       <c r="I434"/>
@@ -11925,8 +11983,8 @@
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
-      <c r="D435" s="41"/>
-      <c r="E435" s="52"/>
+      <c r="D435" s="40"/>
+      <c r="E435" s="51"/>
       <c r="F435"/>
       <c r="H435"/>
       <c r="I435"/>
@@ -11946,8 +12004,8 @@
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
-      <c r="D436" s="41"/>
-      <c r="E436" s="52"/>
+      <c r="D436" s="40"/>
+      <c r="E436" s="51"/>
       <c r="F436"/>
       <c r="H436"/>
       <c r="I436"/>
@@ -11967,8 +12025,8 @@
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
-      <c r="D437" s="41"/>
-      <c r="E437" s="52"/>
+      <c r="D437" s="40"/>
+      <c r="E437" s="51"/>
       <c r="F437"/>
       <c r="H437"/>
       <c r="I437"/>
@@ -11988,8 +12046,8 @@
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
-      <c r="D438" s="41"/>
-      <c r="E438" s="52"/>
+      <c r="D438" s="40"/>
+      <c r="E438" s="51"/>
       <c r="F438"/>
       <c r="H438"/>
       <c r="I438"/>
@@ -12009,8 +12067,8 @@
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
-      <c r="D439" s="41"/>
-      <c r="E439" s="52"/>
+      <c r="D439" s="40"/>
+      <c r="E439" s="51"/>
       <c r="F439"/>
       <c r="H439"/>
       <c r="I439"/>
@@ -12030,8 +12088,8 @@
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
-      <c r="D440" s="41"/>
-      <c r="E440" s="52"/>
+      <c r="D440" s="40"/>
+      <c r="E440" s="51"/>
       <c r="F440"/>
       <c r="H440"/>
       <c r="I440"/>
@@ -12051,8 +12109,8 @@
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
-      <c r="D441" s="41"/>
-      <c r="E441" s="52"/>
+      <c r="D441" s="40"/>
+      <c r="E441" s="51"/>
       <c r="F441"/>
       <c r="H441"/>
       <c r="I441"/>
@@ -12072,8 +12130,8 @@
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
-      <c r="D442" s="41"/>
-      <c r="E442" s="52"/>
+      <c r="D442" s="40"/>
+      <c r="E442" s="51"/>
       <c r="F442"/>
       <c r="H442"/>
       <c r="I442"/>
@@ -12093,8 +12151,8 @@
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
-      <c r="D443" s="41"/>
-      <c r="E443" s="52"/>
+      <c r="D443" s="40"/>
+      <c r="E443" s="51"/>
       <c r="F443"/>
       <c r="H443"/>
       <c r="I443"/>
@@ -12114,8 +12172,8 @@
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
-      <c r="D444" s="41"/>
-      <c r="E444" s="52"/>
+      <c r="D444" s="40"/>
+      <c r="E444" s="51"/>
       <c r="F444"/>
       <c r="H444"/>
       <c r="I444"/>
@@ -12135,8 +12193,8 @@
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
-      <c r="D445" s="41"/>
-      <c r="E445" s="52"/>
+      <c r="D445" s="40"/>
+      <c r="E445" s="51"/>
       <c r="F445"/>
       <c r="H445"/>
       <c r="I445"/>
@@ -12156,8 +12214,8 @@
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
-      <c r="D446" s="41"/>
-      <c r="E446" s="52"/>
+      <c r="D446" s="40"/>
+      <c r="E446" s="51"/>
       <c r="F446"/>
       <c r="H446"/>
       <c r="I446"/>
@@ -12177,8 +12235,8 @@
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
-      <c r="D447" s="41"/>
-      <c r="E447" s="52"/>
+      <c r="D447" s="40"/>
+      <c r="E447" s="51"/>
       <c r="F447"/>
       <c r="H447"/>
       <c r="I447"/>
@@ -12198,8 +12256,8 @@
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
-      <c r="D448" s="41"/>
-      <c r="E448" s="52"/>
+      <c r="D448" s="40"/>
+      <c r="E448" s="51"/>
       <c r="F448"/>
       <c r="H448"/>
       <c r="I448"/>
@@ -12219,8 +12277,8 @@
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
-      <c r="D449" s="41"/>
-      <c r="E449" s="52"/>
+      <c r="D449" s="40"/>
+      <c r="E449" s="51"/>
       <c r="F449"/>
       <c r="H449"/>
       <c r="I449"/>
@@ -12240,8 +12298,8 @@
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
-      <c r="D450" s="41"/>
-      <c r="E450" s="52"/>
+      <c r="D450" s="40"/>
+      <c r="E450" s="51"/>
       <c r="F450"/>
       <c r="H450"/>
       <c r="I450"/>
@@ -12261,8 +12319,8 @@
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
-      <c r="D451" s="41"/>
-      <c r="E451" s="52"/>
+      <c r="D451" s="40"/>
+      <c r="E451" s="51"/>
       <c r="F451"/>
       <c r="H451"/>
       <c r="I451"/>
@@ -12282,8 +12340,8 @@
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
-      <c r="D452" s="41"/>
-      <c r="E452" s="52"/>
+      <c r="D452" s="40"/>
+      <c r="E452" s="51"/>
       <c r="F452"/>
       <c r="H452"/>
       <c r="I452"/>
@@ -12303,8 +12361,8 @@
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
-      <c r="D453" s="41"/>
-      <c r="E453" s="52"/>
+      <c r="D453" s="40"/>
+      <c r="E453" s="51"/>
       <c r="F453"/>
       <c r="H453"/>
       <c r="I453"/>
@@ -12324,8 +12382,8 @@
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
-      <c r="D454" s="41"/>
-      <c r="E454" s="52"/>
+      <c r="D454" s="40"/>
+      <c r="E454" s="51"/>
       <c r="F454"/>
       <c r="H454"/>
       <c r="I454"/>
@@ -12345,8 +12403,8 @@
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
-      <c r="D455" s="41"/>
-      <c r="E455" s="52"/>
+      <c r="D455" s="40"/>
+      <c r="E455" s="51"/>
       <c r="F455"/>
       <c r="H455"/>
       <c r="I455"/>
@@ -12366,8 +12424,8 @@
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
-      <c r="D456" s="41"/>
-      <c r="E456" s="52"/>
+      <c r="D456" s="40"/>
+      <c r="E456" s="51"/>
       <c r="F456"/>
       <c r="H456"/>
       <c r="I456"/>
@@ -12387,8 +12445,8 @@
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
-      <c r="D457" s="41"/>
-      <c r="E457" s="52"/>
+      <c r="D457" s="40"/>
+      <c r="E457" s="51"/>
       <c r="F457"/>
       <c r="H457"/>
       <c r="I457"/>
@@ -12408,8 +12466,8 @@
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
-      <c r="D458" s="41"/>
-      <c r="E458" s="52"/>
+      <c r="D458" s="40"/>
+      <c r="E458" s="51"/>
       <c r="F458"/>
       <c r="H458"/>
       <c r="I458"/>
@@ -12429,8 +12487,8 @@
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
-      <c r="D459" s="41"/>
-      <c r="E459" s="52"/>
+      <c r="D459" s="40"/>
+      <c r="E459" s="51"/>
       <c r="F459"/>
       <c r="H459"/>
       <c r="I459"/>
@@ -12450,8 +12508,8 @@
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
-      <c r="D460" s="41"/>
-      <c r="E460" s="52"/>
+      <c r="D460" s="40"/>
+      <c r="E460" s="51"/>
       <c r="F460"/>
       <c r="H460"/>
       <c r="I460"/>
@@ -12471,8 +12529,8 @@
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
-      <c r="D461" s="41"/>
-      <c r="E461" s="52"/>
+      <c r="D461" s="40"/>
+      <c r="E461" s="51"/>
       <c r="F461"/>
       <c r="H461"/>
       <c r="I461"/>
@@ -12492,8 +12550,8 @@
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
-      <c r="D462" s="41"/>
-      <c r="E462" s="52"/>
+      <c r="D462" s="40"/>
+      <c r="E462" s="51"/>
       <c r="F462"/>
       <c r="H462"/>
       <c r="I462"/>
@@ -12513,8 +12571,8 @@
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
-      <c r="D463" s="41"/>
-      <c r="E463" s="52"/>
+      <c r="D463" s="40"/>
+      <c r="E463" s="51"/>
       <c r="F463"/>
       <c r="H463"/>
       <c r="I463"/>
@@ -12534,8 +12592,8 @@
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
-      <c r="D464" s="41"/>
-      <c r="E464" s="52"/>
+      <c r="D464" s="40"/>
+      <c r="E464" s="51"/>
       <c r="F464"/>
       <c r="H464"/>
       <c r="I464"/>
@@ -12555,8 +12613,8 @@
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
-      <c r="D465" s="41"/>
-      <c r="E465" s="52"/>
+      <c r="D465" s="40"/>
+      <c r="E465" s="51"/>
       <c r="F465"/>
       <c r="H465"/>
       <c r="I465"/>
@@ -12576,8 +12634,8 @@
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
-      <c r="D466" s="41"/>
-      <c r="E466" s="52"/>
+      <c r="D466" s="40"/>
+      <c r="E466" s="51"/>
       <c r="F466"/>
       <c r="H466"/>
       <c r="I466"/>
@@ -12592,6 +12650,48 @@
       <c r="R466"/>
       <c r="S466"/>
       <c r="T466"/>
+    </row>
+    <row r="467" spans="1:20">
+      <c r="A467"/>
+      <c r="B467"/>
+      <c r="C467"/>
+      <c r="D467" s="40"/>
+      <c r="E467" s="51"/>
+      <c r="F467"/>
+      <c r="H467"/>
+      <c r="I467"/>
+      <c r="J467"/>
+      <c r="K467"/>
+      <c r="L467"/>
+      <c r="M467"/>
+      <c r="N467"/>
+      <c r="O467"/>
+      <c r="P467"/>
+      <c r="Q467"/>
+      <c r="R467"/>
+      <c r="S467"/>
+      <c r="T467"/>
+    </row>
+    <row r="468" spans="1:20">
+      <c r="A468"/>
+      <c r="B468"/>
+      <c r="C468"/>
+      <c r="D468" s="40"/>
+      <c r="E468" s="51"/>
+      <c r="F468"/>
+      <c r="H468"/>
+      <c r="I468"/>
+      <c r="J468"/>
+      <c r="K468"/>
+      <c r="L468"/>
+      <c r="M468"/>
+      <c r="N468"/>
+      <c r="O468"/>
+      <c r="P468"/>
+      <c r="Q468"/>
+      <c r="R468"/>
+      <c r="S468"/>
+      <c r="T468"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12609,7 +12709,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11" style="46" customWidth="1"/>
+    <col min="1" max="1" width="11" style="45" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="26" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="5" customWidth="1"/>
@@ -12619,7 +12719,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -12642,7 +12742,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="46">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -12663,7 +12763,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -12678,13 +12778,13 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="G3" s="66" t="str">
+      <c r="G3" s="65" t="str">
         <f t="shared" ref="G3:G27" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;D3&amp;"','" &amp;C3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('2','q6_2', '2.BRAC','2.eª¨vK','0','');</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5">
-      <c r="A4" s="67">
+      <c r="A4" s="66">
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -12699,13 +12799,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" s="66" t="str">
+      <c r="G4" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('3','q6_3', '3.BRDB','3.we.Avi.wW.we','0','');</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5">
-      <c r="A5" s="67">
+      <c r="A5" s="66">
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -12720,13 +12820,13 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" s="66" t="str">
+      <c r="G5" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('4','q6_4', '4.ASHA','4.Avkv','0','');</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25.5">
-      <c r="A6" s="67">
+      <c r="A6" s="66">
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -12741,13 +12841,13 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="66" t="str">
+      <c r="G6" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','q6_5', '5.PROSHIKA','5.cÖwkKv','0','');</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="67">
+      <c r="A7" s="66">
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -12762,13 +12862,13 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="66" t="str">
+      <c r="G7" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('6','q6_6', '6.MOTHER’S CLUB','6.gv‡q‡`i mwgwZ','0','');</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="25.5">
-      <c r="A8" s="67">
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="38.25">
+      <c r="A8" s="66">
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -12783,13 +12883,13 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="66" t="str">
+      <c r="G8" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','q6_Options', '1.At least once a week','1.Kgc‡¶ mßv‡n GKevi','1','');</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" ht="25.5">
-      <c r="A9" s="67">
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="38.25">
+      <c r="A9" s="66">
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -12804,13 +12904,13 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="G9" s="66" t="str">
+      <c r="G9" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','q6_Options', '2.At least once a month','2.Kgc‡¶ gv‡m GKevi','2','');</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="25.5">
-      <c r="A10" s="67">
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="38.25">
+      <c r="A10" s="66">
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -12825,13 +12925,13 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="G10" s="66" t="str">
+      <c r="G10" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('9','q6_Options', '3.At least once a year','3.Kgc‡¶ eQ‡i GKevi','3','');</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" ht="25.5">
-      <c r="A11" s="67">
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="38.25">
+      <c r="A11" s="66">
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -12846,358 +12946,358 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="G11" s="66" t="str">
+      <c r="G11" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('10','q6_Options', '4.Never (hardly ever)','4.KL‡bvB bv','4','');</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5">
-      <c r="A12" s="67">
+      <c r="A12" s="66">
         <v>11</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="46">
         <v>1</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="66" t="str">
+      <c r="G12" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q7_1', '1.NO ONE','1.KvD‡K bv','1','q7_1date');</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5">
-      <c r="A13" s="67">
+      <c r="A13" s="66">
         <v>12</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <v>1</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="66" t="str">
+      <c r="G13" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('12','q7_2', '2.DOCTOR','2.Wv³vi','1','q7_2date');</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.5">
-      <c r="A14" s="67">
+    <row r="14" spans="1:7" ht="51">
+      <c r="A14" s="66">
         <v>13</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="46">
         <v>1</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="66" t="str">
+      <c r="G14" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q7_3', '3.OBSTETRICIAN/GYNAECOLOGIST','3.avÎxwe`¨vwekvi`/¯¿x†ivMwekvi`','1','q7_3date');</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5">
-      <c r="A15" s="67">
+    <row r="15" spans="1:7" ht="38.25">
+      <c r="A15" s="66">
         <v>14</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <v>1</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="66" t="str">
+      <c r="G15" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('14','q7_4', '4.NURSE/MIDWIFE','4.†mweKv/avÎx','1','q7_4date');</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5">
-      <c r="A16" s="67">
+    <row r="16" spans="1:7" ht="38.25">
+      <c r="A16" s="66">
         <v>15</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="56">
         <v>1</v>
       </c>
-      <c r="G16" s="66" t="str">
+      <c r="G16" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','q10', '1.BECOME PREGNANT THEN','1.ZLb Mf©aviY †P‡qwQ‡jb','1','');</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25.5">
-      <c r="A17" s="67">
+    <row r="17" spans="1:7" ht="38.25">
+      <c r="A17" s="66">
         <v>16</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="56">
         <v>2</v>
       </c>
-      <c r="G17" s="66" t="str">
+      <c r="G17" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('16','q10', '2.WAIT UNTIL LATER','2.†`ix Ki‡Z †P‡qwQ‡jb','2','');</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.5">
-      <c r="A18" s="67">
+    <row r="18" spans="1:7" ht="38.25">
+      <c r="A18" s="66">
         <v>17</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="56">
         <v>3</v>
       </c>
-      <c r="G18" s="66" t="str">
+      <c r="G18" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('17','q10', '3.NOT WANT CHILDREN','3.ev”Pv wb‡Z Pvb wb','3','');</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25.5">
-      <c r="A19" s="67">
+    <row r="19" spans="1:7" ht="38.25">
+      <c r="A19" s="66">
         <v>18</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="56">
         <v>4</v>
       </c>
-      <c r="G19" s="66" t="str">
+      <c r="G19" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('18','q10', '4.NOT MIND EITHER WAY','4.‡KvbUv‡ZB AvcwË wQj bv','4','');</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5">
-      <c r="A20" s="67">
+      <c r="A20" s="66">
         <v>19</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="60">
         <v>99</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="66" t="str">
+      <c r="G20" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('19','q10', '99.OTHER','99.Ab¨vb¨','99','q10Other');</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27">
-      <c r="A21" s="67">
+    <row r="21" spans="1:7" ht="51">
+      <c r="A21" s="66">
         <v>20</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="75" t="s">
         <v>175</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" s="66" t="str">
+      <c r="G21" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('20','q14_1', 'Potato, sweet potatoes or any other white colored root or tuber?','Avjyy, wgwó Avjyy A_ev Ab¨vb¨ †h †Kvb mv`v is Gi Avjy RvZxq Lv`¨?','1','');</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25.5">
-      <c r="A22" s="67">
+    <row r="22" spans="1:7" ht="38.25">
+      <c r="A22" s="66">
         <v>21</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="75" t="s">
         <v>176</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="G22" s="66" t="str">
+      <c r="G22" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','q14_2', 'Pumpkin, carrots?','wgwó Kzgov, MvRi?','1','');</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5">
-      <c r="A23" s="67">
+    <row r="23" spans="1:7" ht="38.25">
+      <c r="A23" s="66">
         <v>22</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="75" t="s">
         <v>177</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="G23" s="66" t="str">
+      <c r="G23" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('22','q14_3', 'Khichuri, rice, bread?','wLPzox ,fvZ,iywU?','1','');</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="25.5">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <v>23</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="77" t="s">
         <v>185</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24" s="66" t="str">
+      <c r="G24" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','q14_Options', 'Yes , Eaten','Lvevi †L‡q‡Q','1','');</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="25.5">
-      <c r="A25" s="67">
+    <row r="25" spans="1:7" ht="38.25">
+      <c r="A25" s="66">
         <v>24</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="77" t="s">
         <v>186</v>
       </c>
       <c r="E25">
         <v>66</v>
       </c>
-      <c r="G25" s="66" t="str">
+      <c r="G25" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('24','q14_Options', 'Eaten, don’t know how many days ','†L‡q‡Q,wKš‘ Kqw`b †L‡q‡Q Zv Rv‡bbv ','66','');</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25.5">
-      <c r="A26" s="67">
+    <row r="26" spans="1:7" ht="38.25">
+      <c r="A26" s="66">
         <v>25</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="77" t="s">
         <v>187</v>
       </c>
       <c r="E26">
         <v>99</v>
       </c>
-      <c r="G26" s="66" t="str">
+      <c r="G26" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('25','q14_Options', 'Don’t know if eaten or not','†L‡q‡Q wK Lvqwb Rv‡bbv','99','');</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25.5">
-      <c r="A27" s="67">
+      <c r="A27" s="66">
         <v>26</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="77" t="s">
         <v>188</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="G27" s="66" t="str">
+      <c r="G27" s="65" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','q14_Options', 'No, not eaten','Lvqwb','2','');</v>
       </c>

--- a/CCDTemplate/DB and Documents/templateQuestion and Option.xlsx
+++ b/CCDTemplate/DB and Documents/templateQuestion and Option.xlsx
@@ -2301,7 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK468"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V2" sqref="V2:V18"/>
     </sheetView>
   </sheetViews>
